--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E60CB-FE07-4313-B452-5D690809B99A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE6E0F-2CAB-4AD8-B456-0B0683C742E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要一个股票分析系统，以便在时间有限的条件下从少量股票中快速选出值得投资的标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该系统必须能方便地接入各种数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,183 +49,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>该系统必须能方便地加入各种分析算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据必须支持增量更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少包括市场数据、财务数据、交易数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种分析算法必须以统一的形式展示其分析结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析计算时允许占用较多的时间及资源，而查询时必须迅速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统应当提供一个统一的查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子需要与其它数据一样以统一的形式查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面必须与后台服务分离，关闭界面不影响服务运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面可以远程连接服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境的搭建应对开发人员友好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境的部署应对维护人员友好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一般用户而言，程序应能一键运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统开发文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次API文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档必需齐全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入数据的同时应考虑可读性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统应当提供远程调用接口，方便三方应用调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认界面、网页、APP、公众号、小程序等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供一个用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每项数据以uri作为其标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存取数据只需要定义尽可能少的统一字段，其余字段可自由定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0004</t>
+  </si>
+  <si>
+    <t>WHY-0005</t>
+  </si>
+  <si>
+    <t>WHY-0006</t>
+  </si>
+  <si>
+    <t>WHY-0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHY-0011</t>
+  </si>
+  <si>
+    <t>WHY-0012</t>
+  </si>
+  <si>
+    <t>WHY-0013</t>
+  </si>
+  <si>
+    <t>uri是以点号“.”分隔的以大小写字母及数字组成的字符串；被点号分隔的各部分应有层次关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统需要支持多种因子计算，因子必须便于添加及扩展</t>
+  </si>
+  <si>
+    <t>附加功能：Stock Memo</t>
+  </si>
+  <si>
+    <t>主要从财务角度分析</t>
+  </si>
+  <si>
+    <t>现在上市公司突破4000家，人工分析过于耗时</t>
+  </si>
+  <si>
+    <t>包含“排除”和“选择”功能；排除的公司不予关注，在剩下的公司中选择优秀标的</t>
+  </si>
+  <si>
+    <t>同时应考虑量价分析和宏观分析</t>
+  </si>
+  <si>
+    <t>易于扩展功能</t>
+  </si>
+  <si>
+    <t>支持离线使用，离线数据可以导入和导出</t>
+  </si>
+  <si>
+    <t>WHY-0007</t>
+  </si>
+  <si>
+    <t>WHY-0014</t>
+  </si>
+  <si>
+    <t>主要功能：股票分析系统</t>
+  </si>
+  <si>
+    <t>股票代码的格式必须以“.市场缩写”为后缀，如000001.SZSE, 600000.SSE</t>
+  </si>
+  <si>
     <t>除了一些关键字段外，其余字段可以保持原始数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该系统必须能方便地加入各种分析算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据必须支持增量更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少包括市场数据、财务数据、交易数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多种分析算法必须以统一的形式展示其分析结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析计算时允许占用较多的时间及资源，而查询时必须迅速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统应当提供一个统一的查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统需要支持多种因子计算，因子必须方便添加及扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子需要与其它数据一样以统一的形式查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面必须与后台服务分离，关闭界面不影响服务运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面可以远程连接服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境的搭建应对开发人员友好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境的部署应对维护人员友好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于一般用户而言，程序应能一键运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统开发文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户使用文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次API文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档必需齐全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票代码的格式必须以“.市场缩写”为后缀，如000001.SZSE, 600000.SSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入数据的同时应考虑可读性问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统应当提供远程调用接口，方便三方应用调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认界面、网页、APP、公众号、小程序等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供一个用户界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每项数据以uri作为其标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存取数据只需要定义尽可能少的统一字段，其余字段可自由定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0004</t>
-  </si>
-  <si>
-    <t>WHY-0005</t>
-  </si>
-  <si>
-    <t>WHY-0006</t>
-  </si>
-  <si>
-    <t>WHY-0007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHY-0011</t>
-  </si>
-  <si>
-    <t>WHY-0012</t>
-  </si>
-  <si>
-    <t>WHY-0013</t>
-  </si>
-  <si>
-    <t>uri是以点号“.”分隔的以大小写字母及数字组成的字符串；被点号分隔的各部分应有层次关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对股票记录投资思考</t>
+  </si>
+  <si>
+    <t>随时随地，便于阅览和编辑</t>
+  </si>
+  <si>
+    <t>支持标签功能，用以分类以及和其它功能联动</t>
+  </si>
+  <si>
+    <t>黑名单</t>
+  </si>
+  <si>
+    <t>存储</t>
+  </si>
+  <si>
+    <t>以文本方式存储，以便于对比及合并</t>
+  </si>
+  <si>
+    <t>能方便合并别人提交的信息</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>可以通过算法分析，导入，手工等方式添加</t>
+  </si>
+  <si>
+    <t>对股票进行标识和分类</t>
+  </si>
+  <si>
+    <t>与分析算法进行联动（分析算法可访问此数据）</t>
+  </si>
+  <si>
+    <t>最好按日期显示并在K线图上对照观看</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>多终端展示，如微信，网页，系统客户端</t>
+  </si>
+  <si>
+    <t>附加功能：因子图表</t>
+  </si>
+  <si>
+    <t>可以作为服务的容器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -561,173 +631,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="24" spans="2:4">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>22</v>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -741,47 +939,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BAD95-1909-4F1F-92B6-F8EAF8ED48E6}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="88.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +994,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE6E0F-2CAB-4AD8-B456-0B0683C742E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0EFCF-68B1-4BC4-9BD8-253961DC743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1650" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,7 +282,61 @@
     <t>附加功能：因子图表</t>
   </si>
   <si>
-    <t>可以作为服务的容器</t>
+    <t>可以添加和运行子服务</t>
+  </si>
+  <si>
+    <t>除上述功能外，系统应当可以允许自定义代码的运行</t>
+  </si>
+  <si>
+    <t>代码可以定时运行或被触发运行，代码可以访问到系统内部资源</t>
+  </si>
+  <si>
+    <t>子服务提供的功能能够通过系统统一的接口被（远程）访问</t>
+  </si>
+  <si>
+    <t>加入自定义的代码无需修改系统代码</t>
+  </si>
+  <si>
+    <t>WHY-0015</t>
+  </si>
+  <si>
+    <t>WHY-0100</t>
+  </si>
+  <si>
+    <t>WHY-0101</t>
+  </si>
+  <si>
+    <t>WHY-0102</t>
+  </si>
+  <si>
+    <t>WHY-0103</t>
+  </si>
+  <si>
+    <t>WHY-0104</t>
+  </si>
+  <si>
+    <t>WHY-0105</t>
+  </si>
+  <si>
+    <t>WHY-0106</t>
+  </si>
+  <si>
+    <t>能够将单股票的因子按照年份进行折线图显示</t>
+  </si>
+  <si>
+    <t>能够将多股票（按行业）以直方图显示该因子的分布情况</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>接入Tushare数据</t>
+  </si>
+  <si>
+    <t>uri: ；文档页面：</t>
   </si>
 </sst>
 </file>
@@ -607,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D59"/>
+  <dimension ref="B2:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,109 +877,163 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="2:4">
       <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="2:4">
       <c r="D34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
+    <row r="36" spans="2:4">
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="41" spans="2:4">
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="D42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="D43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="D44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="D45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="D47" t="s">
+    <row r="46" spans="2:4">
+      <c r="D46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
-      <c r="C48" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="48" spans="2:4">
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
       <c r="D49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="D50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="D52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="D53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="D55" t="s">
+    <row r="54" spans="2:4">
+      <c r="D54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
-      <c r="D57" t="s">
+    <row r="56" spans="2:4">
+      <c r="D56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="D60" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1048,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -990,12 +1098,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AE49E6-E03A-4CA9-98BE-12D36B2D5635}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB81F2-CEAC-4600-A21C-592AC81A5DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCB112-1320-4D04-B890-43A512A79723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WHY" sheetId="1" r:id="rId1"/>
-    <sheet name="WHAT" sheetId="2" r:id="rId2"/>
-    <sheet name="HOW" sheetId="3" r:id="rId3"/>
+    <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Requirement - WHAT" sheetId="2" r:id="rId2"/>
+    <sheet name="Feature - HOW" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该系统必须能方便地接入各种数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,30 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每项数据以uri作为其标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存取数据只需要定义尽可能少的统一字段，其余字段可自由定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uri是以点号“.”分隔的以大小写字母及数字组成的字符串；被点号分隔的各部分应有层次关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针对股票记录投资思考</t>
   </si>
   <si>
@@ -116,9 +88,6 @@
   </si>
   <si>
     <t>支持标签功能，用以分类以及和其它功能联动</t>
-  </si>
-  <si>
-    <t>能方便合并别人提交的信息</t>
   </si>
   <si>
     <t>能够将单股票的因子按照年份进行折线图显示</t>
@@ -270,6 +239,267 @@
   </si>
   <si>
     <t>数据查阅和导出</t>
+  </si>
+  <si>
+    <t>能共享以及方便合并别人提交的信息</t>
+  </si>
+  <si>
+    <t>数据必须存储在服务端而非本地</t>
+  </si>
+  <si>
+    <t>能够通过代码和日期范围查询到系统中的所有数据</t>
+  </si>
+  <si>
+    <t>能将多个股票以及大盘的数据放到一张表里以供分析</t>
+  </si>
+  <si>
+    <t>代码应通过界面进行选择而非手工输入</t>
+  </si>
+  <si>
+    <t>查询到的数据能够导出EXCEL文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXCEL文件中的数据可以横向或纵向显示</t>
+  </si>
+  <si>
+    <t>年报下载</t>
+  </si>
+  <si>
+    <t>能批量下载所有上市公司历年的年报</t>
+  </si>
+  <si>
+    <t>uri是以点号“.”分隔的以大小写字母及数字组成的字符串；被点号分隔的各部分应有层次关系</t>
+  </si>
+  <si>
+    <t>每类数据以uri作为其标识</t>
+  </si>
+  <si>
+    <t>如股票信息数据不含时间（一般保持当天最新的）；交易日历可能不含id（日期 - 是否交易日）</t>
+  </si>
+  <si>
+    <t>除id及时间外可以选择加入其它字段作为联合主键</t>
+  </si>
+  <si>
+    <t>数据 - 格式</t>
+  </si>
+  <si>
+    <t>统一定义id的格式</t>
+  </si>
+  <si>
+    <t>数据在系统中以id及时间作为主键，也可以只以其中一个作为主键，也可以无主键</t>
+  </si>
+  <si>
+    <t>使用NoSql，无需预先定义数据字段及数据类型</t>
+  </si>
+  <si>
+    <t>股票代码的格式必须以“.市场代码”为后缀，如000001.SZSE, 600000.SSE
+市场代码以官方标准名字为准：深市 - SZSE，沪市 - SSE
+指数代码的格式同样以“.市场代码”为后缀，如000001.SSE，以便于与股票代码区分</t>
+  </si>
+  <si>
+    <t>对于主键及关键字段，需要强制或统一字段名
+对于某类数据，需要明确其主键的字段
+如于常见数据，如日线数据，应按约定的方式应命名为：open, close, high, low, volumn</t>
+  </si>
+  <si>
+    <t>数据 - 接入</t>
+  </si>
+  <si>
+    <t>接入BaoStock数据</t>
+  </si>
+  <si>
+    <t>在HOW中详细定义</t>
+  </si>
+  <si>
+    <t>接入自已抓取的数据</t>
+  </si>
+  <si>
+    <t>单代码时间段更新 - 基本方式，然而每个股票需要进行一次传输非常耗时
+按日期切片更新 - 进阶方式，一次传输所有股票一日内的数据，能大大加速每日更新
+多代码时间段按块更新 - 最完美的方式，一次传输和更新多股票多日数据</t>
+  </si>
+  <si>
+    <t>多种更新方式</t>
+  </si>
+  <si>
+    <t>数据 - 可读化</t>
+  </si>
+  <si>
+    <t>以插件方式接入系统，称为Collector</t>
+  </si>
+  <si>
+    <t>每个Collector可以为自己提供的数据提供字段-可读名表（可选）</t>
+  </si>
+  <si>
+    <t>数据 - 查询</t>
+  </si>
+  <si>
+    <t>查询的时候可以选择将返回结果的字段可读化</t>
+  </si>
+  <si>
+    <t>数据 - 存储</t>
+  </si>
+  <si>
+    <t>可以通过自带的命令行进行导入和导出
+无需预定义字段及数据格式
+指定主键后可以方便地对数据进行upsert</t>
+  </si>
+  <si>
+    <t>主数据库使用MongoDB</t>
+  </si>
+  <si>
+    <t>支持多种存储方式，对于不同存储方式，以NoSql的思路抽象存取接口</t>
+  </si>
+  <si>
+    <t>通过此接口即能查询本地数据，也可以调用Collector拉取远程数据</t>
+  </si>
+  <si>
+    <t>通过此接口能获得因子数据</t>
+  </si>
+  <si>
+    <t>提供query接口，默认提供的参数包括uri，id，时间，其它参数可扩展</t>
+  </si>
+  <si>
+    <t>以插件方式接入系统，称为Analyzer</t>
+  </si>
+  <si>
+    <t>Analyzer以统一的参数被调用，并以统一的格式返回结果</t>
+  </si>
+  <si>
+    <t>结果需缓存到数据库</t>
+  </si>
+  <si>
+    <t>结果可导出成JSON文件</t>
+  </si>
+  <si>
+    <t>结果可生成excel报告</t>
+  </si>
+  <si>
+    <t>生成的excel中应附加最新的常用价格相关指标（股价，市值，PE等）</t>
+  </si>
+  <si>
+    <t>以插件方式接入系统，称为Factor</t>
+  </si>
+  <si>
+    <t>以uri为标识，可以通过query接口查询</t>
+  </si>
+  <si>
+    <t>接受的参数与query接口相同</t>
+  </si>
+  <si>
+    <t>返回类型统一为DataFrame</t>
+  </si>
+  <si>
+    <t>Syscall</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>API层</t>
+  </si>
+  <si>
+    <t>系统应当提供一层Interface层，用以支持第三方和界面调用
+Interface层的参数和返回值必须能被JSON序列化
+Interface层不能直接返回内对象的指针
+Interface层保证以上特性使得RPC成为可能（不在同一进程中的代码）
+UI应只调用Interface层，禁止访问内部对象</t>
+  </si>
+  <si>
+    <t>Interface层</t>
+  </si>
+  <si>
+    <t>系统应当提供一层API层，用以支持内部调用和二次开发
+API层可直接访问系统内部对象，比如直接返回内部对象的指针
+API层可通常供插件调用（同一进程中的代码）</t>
+  </si>
+  <si>
+    <t>系统中的任何组件可以向Syscall中注册函数，并使之能通过API或Interface被调用
+为了确保Syscall能被Interface层调用，其参数及返回值要求必须能被JSON序列化</t>
+  </si>
+  <si>
+    <t>数据更新界面</t>
+  </si>
+  <si>
+    <t>策略及分析界面</t>
+  </si>
+  <si>
+    <t>数据浏览及导出界面</t>
+  </si>
+  <si>
+    <t>系统任务管理界面</t>
+  </si>
+  <si>
+    <t>配置界面</t>
+  </si>
+  <si>
+    <t>配置和代码分离，上传代码时不会上传配置信息</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>没有配置文件时，程序不会报错，而应提示用户配置</t>
+  </si>
+  <si>
+    <t>没有配置文件时，应使用默认配置参数</t>
+  </si>
+  <si>
+    <t>配置文件必须能够人工阅读和修改</t>
+  </si>
+  <si>
+    <t>程序应该包含以下界面</t>
+  </si>
+  <si>
+    <t>界面应当通过Interface层进行系统调用</t>
+  </si>
+  <si>
+    <t>对于异步请求，应当采用polling的方式查询进度，尽量不超过1秒一次的频率</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>内部采用key-value方式管理</t>
+  </si>
+  <si>
+    <t>采用JSON格式保存</t>
+  </si>
+  <si>
+    <t>系统和plug-in共享系统配置文件</t>
+  </si>
+  <si>
+    <t>必须在代码管理中排除配置文件</t>
+  </si>
+  <si>
+    <t>使用docker部署开发环境</t>
+  </si>
+  <si>
+    <t>提供requirement.txt</t>
+  </si>
+  <si>
+    <t>提供pycharm工程文件</t>
+  </si>
+  <si>
+    <t>由于图表库的问题，无法打包</t>
+  </si>
+  <si>
+    <t>能打包成EXE文件</t>
+  </si>
+  <si>
+    <t>通过网盘提供离线数据和工具</t>
+  </si>
+  <si>
+    <t>定期更新readme.md</t>
+  </si>
+  <si>
+    <t>Interface层每个函数需增加注释，并使用工具生成文档</t>
+  </si>
+  <si>
+    <t>开发中所有文档放置在doc目录下</t>
+  </si>
+  <si>
+    <t>以插件方式接入系统，称为SubService</t>
   </si>
 </sst>
 </file>
@@ -606,10 +836,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F52"/>
+  <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -627,287 +857,354 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="2:6" ht="30">
       <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" outlineLevel="1">
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="60" outlineLevel="2">
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="2">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" outlineLevel="2">
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="2">
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="2">
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="2">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="1">
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" outlineLevel="2">
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" outlineLevel="2">
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" outlineLevel="2">
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" outlineLevel="1">
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" outlineLevel="2">
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" outlineLevel="2">
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" outlineLevel="1">
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" outlineLevel="2">
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" outlineLevel="2">
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" outlineLevel="2">
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" outlineLevel="2">
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" outlineLevel="1">
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" outlineLevel="2">
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" outlineLevel="2">
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" outlineLevel="2">
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" outlineLevel="2">
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" outlineLevel="1">
+      <c r="D28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" outlineLevel="2">
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" outlineLevel="2">
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" outlineLevel="2">
+      <c r="E31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" outlineLevel="2">
+      <c r="E32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" outlineLevel="1">
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" outlineLevel="2">
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="30" outlineLevel="2">
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" outlineLevel="2">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="60" outlineLevel="2">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" outlineLevel="1">
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" outlineLevel="2">
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" outlineLevel="2">
+      <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" outlineLevel="2">
+      <c r="E41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" outlineLevel="2">
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" outlineLevel="2">
+      <c r="E43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" outlineLevel="2">
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" outlineLevel="1">
+      <c r="C45" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" outlineLevel="1">
+      <c r="D47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" outlineLevel="2">
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" outlineLevel="2">
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" outlineLevel="2">
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" outlineLevel="2">
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" outlineLevel="2">
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" outlineLevel="2">
+      <c r="E53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" outlineLevel="2">
+      <c r="E54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" outlineLevel="1">
+      <c r="D55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" outlineLevel="2">
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" outlineLevel="2">
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" outlineLevel="1">
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" outlineLevel="2">
+      <c r="E59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" outlineLevel="1" collapsed="1">
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="60" hidden="1" outlineLevel="2">
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" hidden="1" outlineLevel="2">
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" outlineLevel="1" collapsed="1">
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="30" hidden="1" outlineLevel="2">
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" outlineLevel="1" collapsed="1">
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" hidden="1" outlineLevel="2">
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" outlineLevel="1" collapsed="1">
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" outlineLevel="1" collapsed="1">
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" outlineLevel="1" collapsed="1">
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="30" hidden="1" outlineLevel="2">
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" hidden="1" outlineLevel="2">
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="60" hidden="1" outlineLevel="2">
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" outlineLevel="1" collapsed="1">
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="60" spans="4:5" outlineLevel="2">
+      <c r="E60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" outlineLevel="2">
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" outlineLevel="2">
+      <c r="E62" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" outlineLevel="2">
+      <c r="E63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" outlineLevel="1">
+      <c r="D64" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" outlineLevel="2">
+      <c r="E65" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" outlineLevel="1">
+      <c r="C66" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" hidden="1" outlineLevel="2">
-      <c r="E39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" outlineLevel="1">
-      <c r="C40" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="D42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="E43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="E44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="E46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="E48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="E50" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="E51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -919,49 +1216,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BAD95-1909-4F1F-92B6-F8EAF8ED48E6}">
-  <dimension ref="B2:D11"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="D11" t="s">
-        <v>17</v>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" outlineLevel="1">
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1">
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1">
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45" outlineLevel="1">
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="45" outlineLevel="1">
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="1">
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" outlineLevel="1">
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" outlineLevel="1">
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" outlineLevel="1">
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" outlineLevel="1">
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" outlineLevel="1">
+      <c r="E16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" outlineLevel="1">
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" outlineLevel="1">
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="45" outlineLevel="1">
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" outlineLevel="1">
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" outlineLevel="1">
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" outlineLevel="1">
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" outlineLevel="1">
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" outlineLevel="1">
+      <c r="E27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" outlineLevel="1">
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" outlineLevel="1">
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" outlineLevel="1">
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" outlineLevel="1">
+      <c r="E32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" outlineLevel="1">
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" outlineLevel="1">
+      <c r="E34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" outlineLevel="1">
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" outlineLevel="1">
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" outlineLevel="1">
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" outlineLevel="1">
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="45" outlineLevel="1">
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="75" outlineLevel="1">
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" ht="30" outlineLevel="1">
+      <c r="E43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" outlineLevel="1">
+      <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" outlineLevel="1">
+      <c r="E46" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" outlineLevel="1">
+      <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" outlineLevel="2">
+      <c r="F48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" outlineLevel="2">
+      <c r="F49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" outlineLevel="2">
+      <c r="F50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" outlineLevel="2">
+      <c r="F51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" outlineLevel="2">
+      <c r="F52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" outlineLevel="2">
+      <c r="F53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" outlineLevel="1">
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" outlineLevel="1">
+      <c r="E56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" outlineLevel="1">
+      <c r="E57" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" outlineLevel="1">
+      <c r="E58" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" outlineLevel="1">
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" outlineLevel="1">
+      <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" outlineLevel="1">
+      <c r="E62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" outlineLevel="1">
+      <c r="E63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" outlineLevel="1">
+      <c r="E64" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" outlineLevel="1">
+      <c r="E65" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" outlineLevel="1">
+      <c r="E66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" outlineLevel="1">
+      <c r="E67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="E69" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1643,7 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,20 +1654,20 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCB112-1320-4D04-B890-43A512A79723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36307E63-5EE9-4325-81F5-261817582538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>系统需要为子服务提供如下资源：事件、周期调用、日程调度、线程</t>
-  </si>
-  <si>
-    <t>因子图表</t>
   </si>
   <si>
     <t>附加功能</t>
@@ -499,24 +496,193 @@
     <t>开发中所有文档放置在doc目录下</t>
   </si>
   <si>
+    <t>子服务可选提供以下接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread - 系统会创建一个线程并调用这个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polling - 系统会在空闲时轮巡调用这个函数，这个函数中不得存在阻塞操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_handler - 事件处理，这个函数中不得存在阻塞操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer - 周期定时器事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule - 日程表触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast - 广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准事件应包括但不限于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke - 调用事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push - 推送事件（和具体的推送服务有关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail - 通信事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其接口应加入Interface层，可被远程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将这两个入口传入子服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务可以调用API层及Interface层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含标准事件和自定义事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>以插件方式接入系统，称为SubService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务 - 接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务 - 事件机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务 - 管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要开启一个线程处理事件，当无事件处理里轮询调用polling接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务 - LOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当系统退出应能及时停止所有服务线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件线程阻塞时需报告错误并重启此线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要统计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG应按照子服务分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供远程接口按分类查看LOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过事件机制实现服务的协同（TBD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为服务端和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端以子服务形式实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据以文本形式存储在服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Memo服务包含以下功能，未来可能扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记 - 按日期对股票发表评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签 - 对股票打标签分类，内置三个固定标签：黑名单，灰名单，关注；标签可以通过用户输入而自动扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格基准 - 设定一个价格基准（通常为当日价格），以观察关注股票在后续的表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面端提供笔记浏览器及编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面端提供K线图，并上上面标注该股票每日笔记数量，双击打开当日笔记浏览界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面端提供标签编辑入口，在标签编辑界面能够增加或删除该股票的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面端提供价格基准编辑入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K线图上可以直接选择价格基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面也能通过插件形式扩展，称为Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面端通过Extension实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,7 +721,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,41 +1004,41 @@
   </sheetPr>
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="98.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="98.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="30">
+    <row r="3" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:6" outlineLevel="1">
+    <row r="4" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="60" outlineLevel="2">
+    <row r="5" spans="2:6" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,13 +1046,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:6" outlineLevel="2">
+    <row r="6" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="30" outlineLevel="2">
+    <row r="7" spans="2:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
@@ -894,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:6" outlineLevel="2">
+    <row r="8" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
@@ -902,7 +1068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" outlineLevel="2">
+    <row r="9" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
@@ -910,17 +1076,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:6" outlineLevel="2">
+    <row r="10" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" outlineLevel="1">
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" outlineLevel="2">
+    <row r="12" spans="2:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
@@ -928,117 +1094,117 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" outlineLevel="2">
+    <row r="13" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" outlineLevel="2">
+    <row r="14" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:6" outlineLevel="1">
+    <row r="15" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:6" outlineLevel="2">
+    <row r="16" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="4:5" outlineLevel="2">
+    <row r="17" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:5" outlineLevel="1">
+    <row r="18" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="4:5" outlineLevel="2">
+    <row r="19" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="4:5" outlineLevel="2">
+    <row r="20" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="4:5" outlineLevel="2">
+    <row r="21" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="4:5" outlineLevel="2">
+    <row r="22" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:5" outlineLevel="1">
+    <row r="23" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="4:5" outlineLevel="2">
+    <row r="24" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="4:5" outlineLevel="2">
+    <row r="25" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="4:5" outlineLevel="2">
+    <row r="26" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="4:5" outlineLevel="2">
+    <row r="27" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:5" outlineLevel="1">
+    <row r="28" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="4:5" outlineLevel="2">
-      <c r="E29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" outlineLevel="2">
-      <c r="E30" s="1" t="s">
+    <row r="31" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="4:5" outlineLevel="2">
-      <c r="E31" s="1" t="s">
+    <row r="32" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="4:5" outlineLevel="2">
-      <c r="E32" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" outlineLevel="1">
+    <row r="33" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="3:6" outlineLevel="2">
+    <row r="34" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="30" outlineLevel="2">
+    <row r="35" spans="3:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:6" outlineLevel="2">
+    <row r="36" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="60" outlineLevel="2">
+    <row r="37" spans="3:6" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1062,149 +1228,149 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="3:6" outlineLevel="1">
+    <row r="38" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="3:6" outlineLevel="2">
+    <row r="39" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="3:6" outlineLevel="2">
+    <row r="40" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="3:6" outlineLevel="2">
+    <row r="41" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" outlineLevel="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="3:6" outlineLevel="2">
+    <row r="43" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="3:6" outlineLevel="2">
+    <row r="44" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:6" outlineLevel="1">
+    <row r="45" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" outlineLevel="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" outlineLevel="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="4:5" outlineLevel="2">
+    <row r="49" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="4:5" outlineLevel="2">
+    <row r="50" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="4:5" outlineLevel="2">
+    <row r="51" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="4:5" outlineLevel="2">
-      <c r="E52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" outlineLevel="2">
-      <c r="E53" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" outlineLevel="2">
-      <c r="E54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" outlineLevel="1">
+    <row r="55" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" outlineLevel="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5" outlineLevel="2">
+    <row r="57" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="4:5" outlineLevel="1">
+    <row r="58" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" outlineLevel="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="4:5" outlineLevel="2">
-      <c r="E60" s="1" t="s">
+    <row r="62" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="4:5" outlineLevel="2">
-      <c r="E61" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" outlineLevel="2">
-      <c r="E62" s="1" t="s">
+    <row r="63" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="4:5" outlineLevel="2">
-      <c r="E63" s="1" t="s">
+    <row r="64" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="4:5" outlineLevel="1">
-      <c r="D64" s="1" t="s">
+    <row r="65" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="3:5" outlineLevel="2">
-      <c r="E65" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" outlineLevel="1">
+    <row r="66" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1219,422 +1385,637 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G69"/>
+  <dimension ref="B2:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" outlineLevel="1">
-      <c r="E5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="1">
-      <c r="E6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" outlineLevel="1">
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="45" outlineLevel="1">
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="45" outlineLevel="1">
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" outlineLevel="1">
+    <row r="11" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="45" outlineLevel="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" outlineLevel="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" outlineLevel="1">
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" outlineLevel="1">
-      <c r="E15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" outlineLevel="1">
+    </row>
+    <row r="16" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="4:6" outlineLevel="1">
-      <c r="E17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="4:6" outlineLevel="1">
-      <c r="E19" s="1" t="s">
+    <row r="21" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="45" outlineLevel="1">
-      <c r="E20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="1" t="s">
+    <row r="24" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="4:6" outlineLevel="1">
-      <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" outlineLevel="1">
-      <c r="E23" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" outlineLevel="1">
-      <c r="E24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" outlineLevel="1">
-      <c r="E25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" outlineLevel="1">
-      <c r="E27" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" outlineLevel="1">
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="4:6" outlineLevel="1">
+    <row r="30" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="4:6" outlineLevel="1">
-      <c r="E31" s="1" t="s">
+    <row r="32" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="4:6" outlineLevel="1">
-      <c r="E32" s="1" t="s">
+    <row r="33" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="4:7" outlineLevel="1">
-      <c r="E33" s="1" t="s">
+    <row r="34" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="4:7" outlineLevel="1">
-      <c r="E34" s="1" t="s">
+    <row r="35" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="4:7" outlineLevel="1">
-      <c r="E35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7">
+    <row r="36" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="4:7" outlineLevel="1">
+    <row r="37" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="4:7" outlineLevel="1">
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" outlineLevel="1">
+    <row r="39" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="45" outlineLevel="1">
+    <row r="41" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="69" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="2" t="s">
+    </row>
+    <row r="43" spans="4:7" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="75" outlineLevel="1">
-      <c r="E42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="30" outlineLevel="1">
-      <c r="E43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7">
+    <row r="44" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="4:7" outlineLevel="1">
+    <row r="45" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="4:7" outlineLevel="1">
-      <c r="E46" s="1" t="s">
+    <row r="47" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="4:7" outlineLevel="1">
-      <c r="E47" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" outlineLevel="2">
-      <c r="F48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="1" t="s">
+    <row r="49" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="4:7" outlineLevel="2">
-      <c r="F49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" outlineLevel="2">
-      <c r="F50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" outlineLevel="2">
-      <c r="F51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" outlineLevel="2">
-      <c r="F52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" outlineLevel="2">
-      <c r="F53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7">
-      <c r="D54" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" outlineLevel="1">
-      <c r="E55" s="1" t="s">
+    <row r="57" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="4:7" outlineLevel="1">
-      <c r="E56" s="1" t="s">
+    <row r="58" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="4:7" outlineLevel="1">
-      <c r="E57" s="1" t="s">
+    <row r="59" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="4:7" outlineLevel="1">
-      <c r="E58" s="1" t="s">
+    <row r="60" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="4:7">
-      <c r="D59" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" outlineLevel="1">
-      <c r="E60" s="1" t="s">
+    <row r="62" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="4:7" outlineLevel="1">
-      <c r="E61" s="1" t="s">
+    <row r="63" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="4:7" outlineLevel="1">
-      <c r="E62" s="1" t="s">
+    <row r="64" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="4:7" outlineLevel="1">
-      <c r="E63" s="1" t="s">
+    <row r="65" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" outlineLevel="1">
-      <c r="E64" s="1" t="s">
+    </row>
+    <row r="66" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="4:5" outlineLevel="1">
-      <c r="E65" s="1" t="s">
+    <row r="67" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="4:5" outlineLevel="1">
-      <c r="E66" s="1" t="s">
+    <row r="68" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="4:5" outlineLevel="1">
-      <c r="E67" s="1" t="s">
+    <row r="69" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
-      <c r="D68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="E69" s="1" t="s">
+    <row r="73" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1646,13 +2027,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1660,12 +2041,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>21</v>
       </c>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Code\git\StockAnalysisSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36307E63-5EE9-4325-81F5-261817582538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7388DCBD-513B-45A3-A6F9-2063AF60923A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="253">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,22 +667,224 @@
     <t>界面端通过Extension实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>股票和行业必须可以通过界面进行选择（而非手动输入）</t>
+  </si>
+  <si>
+    <t>也可以单独选择股票和时间段</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>仅需要在客户端实现</t>
+  </si>
+  <si>
+    <t>微信机器人</t>
+  </si>
+  <si>
+    <t>微信公众号服务</t>
+  </si>
+  <si>
+    <t>需要个人账号</t>
+  </si>
+  <si>
+    <t>需要公众号，支持个人号</t>
+  </si>
+  <si>
+    <t>账号可被加入群聊或加为好友</t>
+  </si>
+  <si>
+    <t>提供登录功能，对于登录的用户开放所有功能</t>
+  </si>
+  <si>
+    <t>公共功能</t>
+  </si>
+  <si>
+    <t>私有功能</t>
+  </si>
+  <si>
+    <t>查询股票分析结果，以聊天信息方式显示</t>
+  </si>
+  <si>
+    <t>通过聊天进行交互，如果是群，则需要使用@</t>
+  </si>
+  <si>
+    <t>推送功能</t>
+  </si>
+  <si>
+    <t>盯盘 - 个股设置基准价和提醒涨跌幅</t>
+  </si>
+  <si>
+    <t>盯盘 - 个股网格交易</t>
+  </si>
+  <si>
+    <t>好用股票信息网页（直接跳转到该股票）</t>
+  </si>
+  <si>
+    <t>股票分析文章（从公众号，知乎，雪球等抓取，最好留下备份）</t>
+  </si>
+  <si>
+    <t>后台命令调用</t>
+  </si>
+  <si>
+    <t>提供的功能和微信机器人相同，只不过显示在公众号界面中</t>
+  </si>
+  <si>
+    <t>Implement Rate</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>由于引入了pyqtgraph，导致无法打包成exe</t>
+  </si>
+  <si>
+    <t>requriement.txt
+未来可能会用Docker</t>
+  </si>
+  <si>
+    <t>Partly</t>
+  </si>
+  <si>
+    <t>部署可能会有障碍</t>
+  </si>
+  <si>
+    <t>文档更新中</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>Impl</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>抓取代码失效</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>通过用户输入触发交互</t>
+  </si>
+  <si>
+    <t>如果是企业号，支持推送</t>
+  </si>
+  <si>
+    <t>没有企业号，无法测试</t>
+  </si>
+  <si>
+    <t>终端服务</t>
+  </si>
+  <si>
+    <t>用户可通过某种终端进行交互</t>
+  </si>
+  <si>
+    <t>参考WHY</t>
+  </si>
+  <si>
+    <t>界面提供uri，代码，时间段选择</t>
+  </si>
+  <si>
+    <t>当用户选择uri时，对应代码选择框需要自动切换到该uri下支持的代码（股票/指数）</t>
+  </si>
+  <si>
+    <t>代码可以多选</t>
+  </si>
+  <si>
+    <t>查询结果在一定条件下可以和之前的结果合并</t>
+  </si>
+  <si>
+    <t>字段几乎相同 - concat：扩展行</t>
+  </si>
+  <si>
+    <t>没有字段相同 - replace：不允许合并数据，只能替换掉当前的查询数据</t>
+  </si>
+  <si>
+    <t>用户可以把当前显示的数据导出成excel</t>
+  </si>
+  <si>
+    <t>字段有一个或少数几个相同 - merge：按照用户选择字段为主键进行join操作，扩展列</t>
+  </si>
+  <si>
+    <t>可以选择group字段 - 导出数据按选择字段进行分组</t>
+  </si>
+  <si>
+    <t>可以选择对齐字段 - 导出数据按选择字段进行对齐</t>
+  </si>
+  <si>
+    <t>导出风格可以选择横向和纵向</t>
+  </si>
+  <si>
+    <t>比如按股票代码分组，多个股票数据对比展示</t>
+  </si>
+  <si>
+    <t>比如按交易时间分组，可以对比股票/指数同一时间的价格</t>
+  </si>
+  <si>
+    <t>表头必须可读化</t>
+  </si>
+  <si>
+    <t>符合不同用户的习惯，以及不同数据需要不同观感</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>某些终端可以支持推送（push）功能</t>
+  </si>
+  <si>
+    <t>交互：用户输入一次指令，服务返回一次结果</t>
+  </si>
+  <si>
+    <t>推送：不需要用户输入指令，服务器主动发送消息</t>
+  </si>
+  <si>
+    <t>终端：用户可通过文字进行交互的界面</t>
+  </si>
+  <si>
+    <t>所有终端可以统一提供一系列服务</t>
+  </si>
+  <si>
+    <t>查询股票分析结果</t>
+  </si>
+  <si>
+    <t>获取抓取的股票分析文章</t>
+  </si>
+  <si>
+    <t>股票分析网页工具</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -708,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,9 +921,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1002,374 +1207,774 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F66"/>
+  <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="98.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30">
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" outlineLevel="1">
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="60" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="2">
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" outlineLevel="2">
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" outlineLevel="1">
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" outlineLevel="2">
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" outlineLevel="2">
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" outlineLevel="1">
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" outlineLevel="2">
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" outlineLevel="2">
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" outlineLevel="1">
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" outlineLevel="2">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" outlineLevel="2">
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" outlineLevel="2">
       <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" outlineLevel="1">
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" outlineLevel="2">
       <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" outlineLevel="2">
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" outlineLevel="2">
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" outlineLevel="2">
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" outlineLevel="1">
       <c r="D28" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" outlineLevel="2">
       <c r="E29" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" outlineLevel="2">
       <c r="E30" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" outlineLevel="2">
       <c r="E31" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" outlineLevel="2">
       <c r="E32" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" outlineLevel="1">
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" outlineLevel="2">
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="30" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" outlineLevel="2">
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="60" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" outlineLevel="1">
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" outlineLevel="2">
       <c r="E39" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" outlineLevel="2">
       <c r="E40" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" outlineLevel="2">
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" outlineLevel="1">
       <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" outlineLevel="1">
       <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" outlineLevel="1">
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" outlineLevel="2">
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" outlineLevel="2">
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" outlineLevel="2">
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" outlineLevel="2">
       <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" outlineLevel="2">
       <c r="E52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G52" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" outlineLevel="2">
       <c r="E53" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" outlineLevel="2">
       <c r="E54" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" outlineLevel="1">
       <c r="D55" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" outlineLevel="2">
       <c r="E56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" outlineLevel="2">
+      <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" outlineLevel="2">
+      <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+      <c r="G58" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" outlineLevel="1">
+      <c r="D59" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" outlineLevel="2">
+      <c r="E60" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" outlineLevel="2">
+      <c r="E61" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" outlineLevel="2">
+      <c r="E62" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" outlineLevel="2">
+      <c r="E63" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="4:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" outlineLevel="2">
+      <c r="E64" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
+      <c r="G64" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" outlineLevel="1">
+      <c r="D65" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="E65" s="1" t="s">
+      <c r="G65" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" outlineLevel="2">
+      <c r="E66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" outlineLevel="2">
+      <c r="E67" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="3" t="s">
+      <c r="G67" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" outlineLevel="2">
+      <c r="E68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" outlineLevel="1">
+      <c r="D69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" outlineLevel="2">
+      <c r="E70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" outlineLevel="2">
+      <c r="E71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" outlineLevel="2">
+      <c r="E72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" outlineLevel="2">
+      <c r="E73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" outlineLevel="2">
+      <c r="F74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" outlineLevel="2">
+      <c r="F75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" outlineLevel="2">
+      <c r="F76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" outlineLevel="2">
+      <c r="E77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" outlineLevel="2">
+      <c r="F78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" outlineLevel="2">
+      <c r="F79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" outlineLevel="2">
+      <c r="F80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" outlineLevel="2">
+      <c r="F81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" outlineLevel="1">
+      <c r="D82" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" outlineLevel="2">
+      <c r="E83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" outlineLevel="2">
+      <c r="E84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" outlineLevel="2">
+      <c r="E85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" outlineLevel="2">
+      <c r="E86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" outlineLevel="2">
+      <c r="E87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" outlineLevel="1">
+      <c r="C88" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1385,39 +1990,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G111"/>
+  <dimension ref="A2:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" outlineLevel="1">
       <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1425,7 +2030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" outlineLevel="2">
       <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1433,12 +2038,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="45" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +2051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="45" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1454,17 +2059,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" outlineLevel="1">
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" outlineLevel="2">
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="45" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1472,7 +2077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" outlineLevel="2">
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +2085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" outlineLevel="2">
       <c r="E14" s="1" t="s">
         <v>82</v>
       </c>
@@ -1488,7 +2093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" outlineLevel="2">
       <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1496,27 +2101,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" outlineLevel="2">
       <c r="E16" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" outlineLevel="2">
       <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" outlineLevel="1">
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" outlineLevel="2">
       <c r="E19" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="45" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>94</v>
       </c>
@@ -1524,107 +2129,107 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" outlineLevel="1">
       <c r="D21" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" outlineLevel="2">
       <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" outlineLevel="2">
       <c r="E23" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" outlineLevel="2">
       <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" outlineLevel="2">
       <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" outlineLevel="1">
       <c r="D26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" outlineLevel="2">
       <c r="E27" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" outlineLevel="2">
       <c r="E28" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" outlineLevel="1">
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" outlineLevel="2">
       <c r="E30" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" outlineLevel="2">
       <c r="E31" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" outlineLevel="2">
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" outlineLevel="2">
       <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" outlineLevel="2">
       <c r="E34" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" outlineLevel="1">
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" outlineLevel="2">
       <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" outlineLevel="2">
       <c r="E39" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" outlineLevel="1">
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" ht="45" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1632,7 +2237,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="69" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" ht="75" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>113</v>
       </c>
@@ -1640,7 +2245,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" ht="30" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>109</v>
       </c>
@@ -1648,27 +2253,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" outlineLevel="1">
       <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7" outlineLevel="2">
       <c r="E45" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7" outlineLevel="2">
       <c r="E46" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7" outlineLevel="2">
       <c r="E47" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7" outlineLevel="3">
       <c r="F48" s="1" t="s">
         <v>110</v>
       </c>
@@ -1676,7 +2281,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" outlineLevel="3">
       <c r="F49" s="1" t="s">
         <v>116</v>
       </c>
@@ -1684,7 +2289,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" outlineLevel="3">
       <c r="F50" s="1" t="s">
         <v>117</v>
       </c>
@@ -1692,7 +2297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" outlineLevel="3">
       <c r="F51" s="1" t="s">
         <v>118</v>
       </c>
@@ -1700,7 +2305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" outlineLevel="3">
       <c r="F52" s="1" t="s">
         <v>119</v>
       </c>
@@ -1708,7 +2313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" outlineLevel="3">
       <c r="F53" s="1" t="s">
         <v>120</v>
       </c>
@@ -1716,57 +2321,57 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" outlineLevel="3">
       <c r="E54" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" outlineLevel="1">
       <c r="D55" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" outlineLevel="2">
       <c r="E56" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" outlineLevel="2">
       <c r="E57" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" outlineLevel="2">
       <c r="E58" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" outlineLevel="2">
       <c r="E59" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" outlineLevel="1">
       <c r="D60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" outlineLevel="2">
       <c r="E61" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" outlineLevel="2">
       <c r="E62" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" outlineLevel="2">
       <c r="E63" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" outlineLevel="2">
       <c r="E64" s="1" t="s">
         <v>138</v>
       </c>
@@ -1774,37 +2379,37 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" outlineLevel="2">
       <c r="E65" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" outlineLevel="2">
       <c r="E66" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" outlineLevel="2">
       <c r="E67" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" outlineLevel="2">
       <c r="E68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" outlineLevel="1">
       <c r="D69" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" outlineLevel="2">
       <c r="E70" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" outlineLevel="2">
       <c r="E71" s="1" t="s">
         <v>156</v>
       </c>
@@ -1812,205 +2417,365 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" outlineLevel="2">
       <c r="E72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" outlineLevel="3">
       <c r="F73" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" outlineLevel="3">
       <c r="F74" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" outlineLevel="3">
       <c r="F75" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" outlineLevel="1">
       <c r="D76" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" outlineLevel="2">
       <c r="E77" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" outlineLevel="2">
       <c r="E78" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" outlineLevel="3">
       <c r="F79" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" outlineLevel="3">
       <c r="F80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" outlineLevel="3">
       <c r="F81" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" outlineLevel="3">
       <c r="F82" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" outlineLevel="3">
       <c r="F83" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="3:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" outlineLevel="3">
       <c r="F84" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" outlineLevel="2">
       <c r="E85" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" outlineLevel="1">
       <c r="D86" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" outlineLevel="2">
       <c r="E87" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" outlineLevel="2">
       <c r="E88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" outlineLevel="2">
       <c r="E89" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" outlineLevel="2">
       <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" outlineLevel="2">
       <c r="E91" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" outlineLevel="1">
       <c r="D92" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" outlineLevel="2">
       <c r="E93" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" outlineLevel="2">
       <c r="E94" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="3" t="s">
+    <row r="95" spans="3:6" outlineLevel="1">
+      <c r="C95" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" outlineLevel="1">
       <c r="C96" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" outlineLevel="1">
       <c r="D97" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" outlineLevel="2">
       <c r="E98" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" outlineLevel="2">
       <c r="E99" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" outlineLevel="2">
       <c r="E100" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" outlineLevel="2">
       <c r="E101" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6" outlineLevel="3">
       <c r="F102" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6" outlineLevel="3">
       <c r="F103" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:6" outlineLevel="3">
       <c r="F104" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6" outlineLevel="2">
       <c r="E105" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6" outlineLevel="2">
       <c r="E106" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6" outlineLevel="2">
       <c r="E107" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6" outlineLevel="2">
       <c r="E108" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6" outlineLevel="2">
       <c r="E109" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6" outlineLevel="2">
       <c r="E110" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:6" outlineLevel="1">
       <c r="D111" s="1" t="s">
         <v>183</v>
       </c>
+    </row>
+    <row r="112" spans="4:6" outlineLevel="2">
+      <c r="E112" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" outlineLevel="1">
+      <c r="D113" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" outlineLevel="2">
+      <c r="E114" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" outlineLevel="3">
+      <c r="F115" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" outlineLevel="3">
+      <c r="F116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" outlineLevel="2">
+      <c r="E117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" outlineLevel="3">
+      <c r="F118" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" outlineLevel="3">
+      <c r="F119" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" outlineLevel="3">
+      <c r="F120" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" outlineLevel="2">
+      <c r="E121" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" outlineLevel="2">
+      <c r="E122" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" outlineLevel="2">
+      <c r="E123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" outlineLevel="2">
+      <c r="E124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" outlineLevel="2">
+      <c r="E125" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" outlineLevel="1">
+      <c r="D126" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="4:7" outlineLevel="2">
+      <c r="E127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="4:7" outlineLevel="2">
+      <c r="E128" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" outlineLevel="2">
+      <c r="A129" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" outlineLevel="1">
+      <c r="F130" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" outlineLevel="1">
+      <c r="A131" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:7" outlineLevel="1">
+      <c r="A132" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" outlineLevel="1">
+      <c r="A133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" outlineLevel="1">
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" outlineLevel="1">
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" outlineLevel="1">
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" outlineLevel="1">
+      <c r="C137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2027,13 +2792,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -2041,12 +2806,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="D8" t="s">
         <v>21</v>
       </c>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7388DCBD-513B-45A3-A6F9-2063AF60923A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7A316-610F-455F-8799-678D207B1754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1995" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="377">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,16 +96,7 @@
     <t>能够将多股票（按行业）以直方图显示该因子的分布情况</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>接入Tushare数据</t>
-  </si>
-  <si>
-    <t>uri: ；文档页面：</t>
   </si>
   <si>
     <t>现在上市公司突破4000家，人工分析过于耗时
@@ -424,9 +415,6 @@
     <t>数据浏览及导出界面</t>
   </si>
   <si>
-    <t>系统任务管理界面</t>
-  </si>
-  <si>
     <t>配置界面</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
   </si>
   <si>
     <t>对于异步请求，应当采用polling的方式查询进度，尽量不超过1秒一次的频率</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>内部采用key-value方式管理</t>
@@ -868,13 +853,408 @@
   </si>
   <si>
     <t>股票分析网页工具</t>
+  </si>
+  <si>
+    <t>需要寻找最新可用的爬虫代码</t>
+  </si>
+  <si>
+    <t>界面设计参考WHY</t>
+  </si>
+  <si>
+    <t>通过公众号访问终端服务</t>
+  </si>
+  <si>
+    <t>需要登录功能，未登录的公众用户对服务访问有限制</t>
+  </si>
+  <si>
+    <t>（需要推送）盯盘 - 个股设置基准价和提醒涨跌幅</t>
+  </si>
+  <si>
+    <t>（需要推送）盯盘 - 个股网格交易提醒</t>
+  </si>
+  <si>
+    <t>系统任务管理界面 - UI端任务</t>
+  </si>
+  <si>
+    <t>系统任务管理界面 - 服务端任务</t>
+  </si>
+  <si>
+    <t>读取的路径是本地的，需要在服务器端设置路径相关的配置
+缺少服务端配置错误检测，需要服务端支持</t>
+  </si>
+  <si>
+    <t>子服务管理界面</t>
+  </si>
+  <si>
+    <t>如果服务端配置不存在，需要生成默认配置</t>
+  </si>
+  <si>
+    <t>如果服务端配置错误或使用默认配置，界面需要提醒用户配置服务器</t>
+  </si>
+  <si>
+    <t>用户能指定工作目录，系统会在工作目录下搜寻插件和操作文件</t>
+  </si>
+  <si>
+    <t>使用docker里，可以将外部的路径映射到docker中，作为工作目录</t>
+  </si>
+  <si>
+    <t>partly</t>
+  </si>
+  <si>
+    <t>接入数据</t>
+  </si>
+  <si>
+    <t>Tushare数据</t>
+  </si>
+  <si>
+    <t>stock_basic</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=25</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>ts接口</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Market.SecuritiesInfo</t>
+  </si>
+  <si>
+    <t>Market.IndexInfo</t>
+  </si>
+  <si>
+    <t>index_basic</t>
+  </si>
+  <si>
+    <t>Market.TradeCalender</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>stock_identity</t>
+  </si>
+  <si>
+    <t>index_identity</t>
+  </si>
+  <si>
+    <t>exchange, trade_date</t>
+  </si>
+  <si>
+    <t>Market.Enquiries</t>
+  </si>
+  <si>
+    <t>stock_identity, enquiry_date</t>
+  </si>
+  <si>
+    <t>数据定义</t>
+  </si>
+  <si>
+    <t>Market.Investigation</t>
+  </si>
+  <si>
+    <t>stock_identity, investigate_date</t>
+  </si>
+  <si>
+    <t>Market.NamingHistory</t>
+  </si>
+  <si>
+    <t>stock_identity, naming_date</t>
+  </si>
+  <si>
+    <t>Market.SecuritiesTags</t>
+  </si>
+  <si>
+    <t>Finance.Audit</t>
+  </si>
+  <si>
+    <t>stock_identity, period</t>
+  </si>
+  <si>
+    <t>Finance.BalanceSheet</t>
+  </si>
+  <si>
+    <t>Finance.IncomeStatement</t>
+  </si>
+  <si>
+    <t>Finance.CashFlowStatement</t>
+  </si>
+  <si>
+    <t>Finance.BusinessComposition</t>
+  </si>
+  <si>
+    <t>下面的列表定义了接入数据的格式；其中主键项也同时定义了identity_field和 datetime_field的名字（如果有的话）；未加说明的字段可以采用数据源本身的字段名。</t>
+  </si>
+  <si>
+    <t>Stockholder.Statistics</t>
+  </si>
+  <si>
+    <t>数据名</t>
+  </si>
+  <si>
+    <t>Stockholder.PledgeStatus</t>
+  </si>
+  <si>
+    <t>stock_identity, due_date</t>
+  </si>
+  <si>
+    <t>Stockholder.PledgeHistory</t>
+  </si>
+  <si>
+    <t>Stockholder.ReductionIncrease</t>
+  </si>
+  <si>
+    <t>stock_identity, ann_date</t>
+  </si>
+  <si>
+    <t>TradeData.Stock.Daily</t>
+  </si>
+  <si>
+    <t>stock_identity, trade_date</t>
+  </si>
+  <si>
+    <t>TradeData.Index.Daily</t>
+  </si>
+  <si>
+    <t>Metrics.Stock.Daily</t>
+  </si>
+  <si>
+    <t>Factor.Finance</t>
+  </si>
+  <si>
+    <t>Result.Analyzer</t>
+  </si>
+  <si>
+    <t>Stockholder.Repurchase</t>
+  </si>
+  <si>
+    <t>Stockholder.StockUnlock</t>
+  </si>
+  <si>
+    <t>stock_identity, unlock_date, holder_name</t>
+  </si>
+  <si>
+    <t>stock_identity, period, analyzer</t>
+  </si>
+  <si>
+    <t>stock_identity, ann_date, stock_holder</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>StockAnalysisSystem</t>
+  </si>
+  <si>
+    <t>StockDaily</t>
+  </si>
+  <si>
+    <t>SasCache</t>
+  </si>
+  <si>
+    <t>股票数据</t>
+  </si>
+  <si>
+    <t>指数数据</t>
+  </si>
+  <si>
+    <t>交易日历</t>
+  </si>
+  <si>
+    <t>证监会问询</t>
+  </si>
+  <si>
+    <t>证监会调查</t>
+  </si>
+  <si>
+    <t>更名历史</t>
+  </si>
+  <si>
+    <t>股票标签（概念）</t>
+  </si>
+  <si>
+    <t>审计意见</t>
+  </si>
+  <si>
+    <t>资产负债表</t>
+  </si>
+  <si>
+    <t>现金流量表</t>
+  </si>
+  <si>
+    <t>利润表</t>
+  </si>
+  <si>
+    <t>业务构成</t>
+  </si>
+  <si>
+    <t>股东统计</t>
+  </si>
+  <si>
+    <t>股票质押情况</t>
+  </si>
+  <si>
+    <t>股票质押历史</t>
+  </si>
+  <si>
+    <t>股票增减持</t>
+  </si>
+  <si>
+    <t>股票日线数据</t>
+  </si>
+  <si>
+    <t>指数日线数据</t>
+  </si>
+  <si>
+    <t>股票价格指标</t>
+  </si>
+  <si>
+    <t>因子计算：财务因子</t>
+  </si>
+  <si>
+    <t>缓存：分析结果</t>
+  </si>
+  <si>
+    <t>股票回购</t>
+  </si>
+  <si>
+    <t>股票解禁</t>
+  </si>
+  <si>
+    <t>[End]</t>
+  </si>
+  <si>
+    <t>ts文档</t>
+  </si>
+  <si>
+    <t>数据转换</t>
+  </si>
+  <si>
+    <t>trade_cal</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=26</t>
+  </si>
+  <si>
+    <t>namechange</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=100</t>
+  </si>
+  <si>
+    <t>repurchase</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>cashflow</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=33</t>
+  </si>
+  <si>
+    <t>balancesheet</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=36</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=44</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=80</t>
+  </si>
+  <si>
+    <t>fina_audit</t>
+  </si>
+  <si>
+    <t>fina_mainbz</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=81</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=27
+https://tushare.pro/document/2?doc_id=28</t>
+  </si>
+  <si>
+    <t>daily
+adj_factor</t>
+  </si>
+  <si>
+    <t>必须存储未复权价格和复权因子
+字段名必须为open, close, high, low, adj_factor</t>
+  </si>
+  <si>
+    <t>从tushare库获取下列数据，注意：ts_code必须转成stock identity格式；时间日期需要转成datatime.datetime格式</t>
+  </si>
+  <si>
+    <t>top10_holders
+top10_floatholders
+stk_holdernumber</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=61
+https://tushare.pro/document/2?doc_id=62
+https://tushare.pro/document/2?doc_id=166</t>
+  </si>
+  <si>
+    <t>concept_detail</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=126</t>
+  </si>
+  <si>
+    <t>pledge_stat</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=110</t>
+  </si>
+  <si>
+    <t>pledge_detail</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=111</t>
+  </si>
+  <si>
+    <t>stk_holdertrade</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=175</t>
+  </si>
+  <si>
+    <t>index_daily</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=95</t>
+  </si>
+  <si>
+    <t>daily_basic</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=32</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=124</t>
+  </si>
+  <si>
+    <t>share_float</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=160</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +1267,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -907,10 +1295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -924,8 +1313,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1207,10 +1604,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H88"/>
+  <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1231,42 +1628,42 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30">
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:8" outlineLevel="1">
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" outlineLevel="2">
@@ -1274,30 +1671,30 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:8" outlineLevel="2">
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" outlineLevel="2">
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:8" outlineLevel="2">
@@ -1305,10 +1702,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:8" outlineLevel="2">
@@ -1316,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:8" outlineLevel="2">
@@ -1327,15 +1724,15 @@
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="2:8" outlineLevel="1">
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" outlineLevel="2">
@@ -1343,42 +1740,42 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:8" outlineLevel="2">
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="2:8" outlineLevel="2">
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:8" outlineLevel="1">
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:8" outlineLevel="2">
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="4:7" outlineLevel="2">
@@ -1386,71 +1783,71 @@
         <v>6</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="4:7" outlineLevel="1">
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="4:7" outlineLevel="2">
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="4:7" outlineLevel="2">
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="4:7" outlineLevel="2">
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="4:7" outlineLevel="2">
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="4:7" outlineLevel="1">
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="4:7" outlineLevel="2">
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="4:7" outlineLevel="2">
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="4:7" outlineLevel="2">
@@ -1458,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="4:7" outlineLevel="2">
@@ -1466,55 +1863,55 @@
         <v>8</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="4:7" outlineLevel="1">
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="4:7" outlineLevel="2">
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="4:7" outlineLevel="2">
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="4:7" outlineLevel="2">
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="4:7" outlineLevel="2">
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="3:8" outlineLevel="1">
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="3:8" outlineLevel="2">
@@ -1522,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="30" outlineLevel="2">
@@ -1533,13 +1930,13 @@
         <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="3:8" outlineLevel="2">
@@ -1547,13 +1944,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="60" outlineLevel="2">
@@ -1561,93 +1958,93 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="3:8" outlineLevel="1">
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="3:8" outlineLevel="2">
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="3:8" outlineLevel="2">
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="3:8" outlineLevel="2">
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="3:8" outlineLevel="2">
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="3:8" outlineLevel="2">
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="3:8" outlineLevel="2">
       <c r="E44" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="3:8" outlineLevel="1">
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" outlineLevel="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="3:8" outlineLevel="1">
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="3:8" outlineLevel="2">
@@ -1655,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="4:7" outlineLevel="2">
@@ -1663,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="4:7" outlineLevel="2">
@@ -1671,52 +2068,52 @@
         <v>15</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="4:7" outlineLevel="2">
       <c r="E51" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="4:7" outlineLevel="2">
       <c r="E52" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="4:7" outlineLevel="2">
       <c r="E53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="4:7" outlineLevel="2">
       <c r="E54" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="4:7" outlineLevel="1">
       <c r="D55" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="4:7" outlineLevel="2">
       <c r="E56" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="4:7" outlineLevel="2">
@@ -1724,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="4:7" outlineLevel="2">
@@ -1732,250 +2129,251 @@
         <v>17</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="4:7" outlineLevel="1">
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="4:7" outlineLevel="2">
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="4:7" outlineLevel="2">
       <c r="E61" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="4:7" outlineLevel="2">
       <c r="E62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="4:7" outlineLevel="2">
       <c r="E63" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="4:7" outlineLevel="2">
       <c r="E64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="4:8" outlineLevel="1">
       <c r="D65" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="4:8" outlineLevel="2">
       <c r="E66" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="4:8" outlineLevel="2">
       <c r="E67" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="4:8" outlineLevel="2">
       <c r="E68" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="4:8" outlineLevel="1">
       <c r="D69" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="4:8" outlineLevel="2">
       <c r="E70" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="4:8" outlineLevel="2">
       <c r="E71" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="4:8" outlineLevel="2">
       <c r="E72" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="4:8" outlineLevel="2">
       <c r="E73" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="4:8" outlineLevel="2">
       <c r="F74" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="4:8" outlineLevel="2">
       <c r="F75" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="4:8" outlineLevel="2">
       <c r="F76" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="4:8" outlineLevel="2">
       <c r="E77" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="4:8" outlineLevel="2">
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="4:8" outlineLevel="2">
       <c r="F79" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="4:8" outlineLevel="2">
       <c r="F80" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="3:8" outlineLevel="2">
       <c r="F81" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="3:8" outlineLevel="1">
       <c r="D82" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="3:8" outlineLevel="2">
       <c r="E83" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="3:8" outlineLevel="2">
       <c r="E84" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="3:8" outlineLevel="2">
       <c r="E85" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G85" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="86" spans="3:8" outlineLevel="2">
       <c r="E86" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="3:8" outlineLevel="2">
       <c r="E87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" outlineLevel="1">
-      <c r="C88" s="3" t="s">
-        <v>58</v>
+    </row>
+    <row r="88" spans="3:8" outlineLevel="1"/>
+    <row r="89" spans="3:8" outlineLevel="1">
+      <c r="C89" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1990,10 +2388,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:G137"/>
+  <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -2003,779 +2401,1056 @@
     <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" outlineLevel="1">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" outlineLevel="1">
       <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" outlineLevel="2">
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="2">
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="2">
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="45" outlineLevel="2">
+      <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" outlineLevel="2">
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="2">
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G8" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="45" outlineLevel="2">
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" outlineLevel="2">
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="45" outlineLevel="2">
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" outlineLevel="1">
+      <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="11" spans="2:8" outlineLevel="2">
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="45" outlineLevel="2">
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" outlineLevel="2">
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="45" outlineLevel="2">
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" outlineLevel="2">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" outlineLevel="1">
-      <c r="D10" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" outlineLevel="2">
+      <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" outlineLevel="2">
-      <c r="E11" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" outlineLevel="2">
+      <c r="E16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" outlineLevel="2">
+      <c r="E17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" outlineLevel="1">
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="4:7" outlineLevel="2">
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="45" outlineLevel="2">
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" outlineLevel="1">
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" outlineLevel="2">
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" outlineLevel="2">
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" outlineLevel="2">
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" outlineLevel="2">
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" outlineLevel="1">
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" outlineLevel="2">
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" outlineLevel="2">
+      <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="45" outlineLevel="2">
-      <c r="E12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" outlineLevel="2">
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" outlineLevel="2">
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" outlineLevel="2">
-      <c r="E15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" outlineLevel="2">
-      <c r="E16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" outlineLevel="2">
-      <c r="E17" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" outlineLevel="1">
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" outlineLevel="2">
-      <c r="E19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="45" outlineLevel="2">
-      <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" outlineLevel="1">
-      <c r="D21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" outlineLevel="2">
-      <c r="E22" s="1" t="s">
+      <c r="G28" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" outlineLevel="1">
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" outlineLevel="2">
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" outlineLevel="2">
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" outlineLevel="2">
+      <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" outlineLevel="2">
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" outlineLevel="2">
-      <c r="E24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" outlineLevel="2">
-      <c r="E25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" outlineLevel="1">
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" outlineLevel="2">
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" outlineLevel="2">
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" outlineLevel="1">
-      <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" outlineLevel="2">
-      <c r="E30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" outlineLevel="2">
-      <c r="E31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" outlineLevel="2">
-      <c r="E32" s="1" t="s">
-        <v>101</v>
+      <c r="G32" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="4:7" outlineLevel="2">
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="4:7" outlineLevel="2">
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="4:7" outlineLevel="2">
       <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="4:7" outlineLevel="1">
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="4:7" outlineLevel="2">
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="4:7" outlineLevel="2">
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="4:7" outlineLevel="2">
       <c r="E39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="4:7" outlineLevel="1">
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="4:7" ht="45" outlineLevel="2">
       <c r="E41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>114</v>
+      <c r="G41" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="4:7" ht="75" outlineLevel="2">
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="4:7" ht="30" outlineLevel="2">
       <c r="E43" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="4:7" outlineLevel="1">
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="4:7" outlineLevel="2">
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="4:7" outlineLevel="2">
       <c r="E46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="4:7" outlineLevel="2">
       <c r="E47" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="4:7" outlineLevel="3">
       <c r="F48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" outlineLevel="3">
+      <c r="F49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" outlineLevel="3">
+      <c r="F50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" outlineLevel="3">
+      <c r="F51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" outlineLevel="3">
+      <c r="F52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" outlineLevel="3">
+      <c r="F53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="30" outlineLevel="3">
+      <c r="F54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" outlineLevel="3">
+      <c r="F55" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="4:8" outlineLevel="3">
+      <c r="E56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" outlineLevel="1">
+      <c r="D57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" outlineLevel="2">
+      <c r="E58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" outlineLevel="2">
+      <c r="E59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" outlineLevel="2">
+      <c r="E60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" outlineLevel="2">
+      <c r="E61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" outlineLevel="2">
+      <c r="E62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" outlineLevel="2">
+      <c r="E63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" outlineLevel="1">
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" outlineLevel="2">
+      <c r="E65" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="4:7" outlineLevel="3">
-      <c r="F49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" outlineLevel="3">
-      <c r="F50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" outlineLevel="3">
-      <c r="F51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" outlineLevel="3">
-      <c r="F52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" outlineLevel="3">
-      <c r="F53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" outlineLevel="3">
-      <c r="E54" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" outlineLevel="1">
-      <c r="D55" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" outlineLevel="2">
-      <c r="E56" s="1" t="s">
+      <c r="G65" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" outlineLevel="2">
+      <c r="E66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" outlineLevel="2">
+      <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="4:7" outlineLevel="2">
-      <c r="E57" s="1" t="s">
+    <row r="68" spans="4:7" outlineLevel="2">
+      <c r="E68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="4:7" outlineLevel="2">
-      <c r="E58" s="1" t="s">
+    <row r="69" spans="4:7" outlineLevel="2">
+      <c r="E69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="4:7" outlineLevel="2">
-      <c r="E59" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" outlineLevel="1">
-      <c r="D60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="4:7" outlineLevel="2">
-      <c r="E61" s="1" t="s">
+    <row r="70" spans="4:7" outlineLevel="2">
+      <c r="E70" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="4:7" outlineLevel="2">
-      <c r="E62" s="1" t="s">
+    <row r="71" spans="4:7" outlineLevel="2">
+      <c r="E71" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="4:7" outlineLevel="2">
-      <c r="E63" s="1" t="s">
+    <row r="72" spans="4:7" outlineLevel="2">
+      <c r="E72" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="4:7" outlineLevel="2">
-      <c r="E64" s="1" t="s">
+    <row r="73" spans="4:7" outlineLevel="2">
+      <c r="E73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" outlineLevel="1">
+      <c r="D74" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" outlineLevel="2">
+      <c r="E75" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" outlineLevel="2">
+      <c r="E76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" outlineLevel="2">
+      <c r="E77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" outlineLevel="2">
-      <c r="E65" s="1" t="s">
+    </row>
+    <row r="78" spans="4:7" outlineLevel="3">
+      <c r="F78" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="4:6" outlineLevel="2">
-      <c r="E66" s="1" t="s">
+    <row r="79" spans="4:7" outlineLevel="3">
+      <c r="F79" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="4:6" outlineLevel="2">
-      <c r="E67" s="1" t="s">
+    <row r="80" spans="4:7" outlineLevel="3">
+      <c r="F80" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="4:6" outlineLevel="2">
-      <c r="E68" s="1" t="s">
+    <row r="81" spans="4:6" outlineLevel="1">
+      <c r="D81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" outlineLevel="2">
+      <c r="E82" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" outlineLevel="2">
+      <c r="E83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" outlineLevel="3">
+      <c r="F84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="4:6" outlineLevel="1">
-      <c r="D69" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" outlineLevel="2">
-      <c r="E70" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" outlineLevel="2">
-      <c r="E71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" outlineLevel="2">
-      <c r="E72" s="1" t="s">
+    <row r="85" spans="4:6" outlineLevel="3">
+      <c r="F85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="4:6" outlineLevel="3">
-      <c r="F73" s="1" t="s">
+    <row r="86" spans="4:6" outlineLevel="3">
+      <c r="F86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="4:6" outlineLevel="3">
-      <c r="F74" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" outlineLevel="3">
-      <c r="F75" s="1" t="s">
+    <row r="87" spans="4:6" outlineLevel="3">
+      <c r="F87" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="4:6" outlineLevel="1">
-      <c r="D76" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" outlineLevel="2">
-      <c r="E77" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" outlineLevel="2">
-      <c r="E78" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" outlineLevel="3">
-      <c r="F79" s="1" t="s">
+    <row r="88" spans="4:6" outlineLevel="3">
+      <c r="F88" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="4:6" outlineLevel="3">
-      <c r="F80" s="1" t="s">
+    <row r="89" spans="4:6" outlineLevel="3">
+      <c r="F89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="3:6" outlineLevel="3">
-      <c r="F81" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" outlineLevel="3">
-      <c r="F82" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" outlineLevel="3">
-      <c r="F83" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" outlineLevel="3">
-      <c r="F84" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" outlineLevel="2">
-      <c r="E85" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" outlineLevel="1">
-      <c r="D86" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" outlineLevel="2">
-      <c r="E87" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" outlineLevel="2">
-      <c r="E88" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" outlineLevel="2">
-      <c r="E89" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" outlineLevel="2">
+    <row r="90" spans="4:6" outlineLevel="2">
       <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="3:6" outlineLevel="2">
-      <c r="E91" s="1" t="s">
+    <row r="91" spans="4:6" outlineLevel="1">
+      <c r="D91" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" outlineLevel="2">
+      <c r="E92" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" outlineLevel="2">
+      <c r="E93" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" outlineLevel="2">
+      <c r="E94" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" outlineLevel="2">
+      <c r="E95" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" outlineLevel="2">
+      <c r="E96" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" outlineLevel="1">
+      <c r="D97" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" outlineLevel="2">
+      <c r="E98" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" outlineLevel="2">
+      <c r="E99" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" outlineLevel="1">
+      <c r="C100" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" outlineLevel="1">
+      <c r="D102" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" outlineLevel="2">
+      <c r="E103" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" outlineLevel="2">
+      <c r="E104" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="3:6" outlineLevel="1">
-      <c r="D92" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" outlineLevel="2">
-      <c r="E93" s="1" t="s">
+    <row r="105" spans="3:6" outlineLevel="2">
+      <c r="E105" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="3:6" outlineLevel="2">
-      <c r="E94" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" outlineLevel="1">
-      <c r="C95" s="3" t="s">
+    <row r="106" spans="3:6" outlineLevel="2">
+      <c r="E106" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" outlineLevel="2">
+      <c r="F107" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" outlineLevel="2">
+      <c r="F108" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" outlineLevel="2">
+      <c r="F109" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" outlineLevel="2">
+      <c r="E110" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" outlineLevel="2">
+      <c r="E111" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" outlineLevel="2">
+      <c r="E112" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" outlineLevel="2">
+      <c r="E113" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" outlineLevel="2">
+      <c r="E114" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" outlineLevel="2">
+      <c r="E115" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" outlineLevel="1">
+      <c r="D116" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" outlineLevel="2">
+      <c r="E117" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" outlineLevel="1">
+      <c r="D118" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="3:6" outlineLevel="1">
-      <c r="C96" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" outlineLevel="1">
-      <c r="D97" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" outlineLevel="2">
-      <c r="E98" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" outlineLevel="2">
-      <c r="E99" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" outlineLevel="2">
-      <c r="E100" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" outlineLevel="2">
-      <c r="E101" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" outlineLevel="3">
-      <c r="F102" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" outlineLevel="3">
-      <c r="F103" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" outlineLevel="3">
-      <c r="F104" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" outlineLevel="2">
-      <c r="E105" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" outlineLevel="2">
-      <c r="E106" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" outlineLevel="2">
-      <c r="E107" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" outlineLevel="2">
-      <c r="E108" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" outlineLevel="2">
-      <c r="E109" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" outlineLevel="2">
-      <c r="E110" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" outlineLevel="1">
-      <c r="D111" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" outlineLevel="2">
-      <c r="E112" s="1" t="s">
+    <row r="119" spans="4:6" outlineLevel="2">
+      <c r="E119" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" outlineLevel="2">
+      <c r="F120" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" outlineLevel="2">
+      <c r="F121" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" outlineLevel="2">
+      <c r="E122" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" outlineLevel="2">
+      <c r="F123" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="4:7" outlineLevel="1">
-      <c r="D113" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" outlineLevel="2">
-      <c r="E114" s="1" t="s">
+    <row r="124" spans="4:6" outlineLevel="2">
+      <c r="F124" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" outlineLevel="2">
+      <c r="F125" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="4:7" outlineLevel="3">
-      <c r="F115" s="1" t="s">
+    <row r="126" spans="4:6" outlineLevel="2">
+      <c r="E126" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="4:7" outlineLevel="3">
-      <c r="F116" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" outlineLevel="2">
-      <c r="E117" s="1" t="s">
+    <row r="127" spans="4:6" outlineLevel="2">
+      <c r="E127" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="118" spans="4:7" outlineLevel="3">
-      <c r="F118" s="1" t="s">
+      <c r="F127" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" outlineLevel="2">
+      <c r="E128" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="119" spans="4:7" outlineLevel="3">
-      <c r="F119" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="4:7" outlineLevel="3">
-      <c r="F120" s="1" t="s">
+    <row r="129" spans="1:7" outlineLevel="2">
+      <c r="E129" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="4:7" outlineLevel="2">
-      <c r="E121" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="4:7" outlineLevel="2">
-      <c r="E122" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" outlineLevel="2">
+      <c r="E130" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F122" s="1" t="s">
+    </row>
+    <row r="131" spans="1:7" outlineLevel="1">
+      <c r="D131" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" outlineLevel="2">
+      <c r="E132" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" outlineLevel="2">
+      <c r="E133" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" outlineLevel="1">
+      <c r="D134" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" outlineLevel="2">
+      <c r="E135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" outlineLevel="2">
+      <c r="E136" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="4:7" outlineLevel="2">
-      <c r="E123" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="4:7" outlineLevel="2">
-      <c r="E124" s="1" t="s">
+      <c r="F136" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" outlineLevel="2">
+      <c r="A137" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7" outlineLevel="2">
-      <c r="E125" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" outlineLevel="1">
-      <c r="D126" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="4:7" outlineLevel="2">
-      <c r="E127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="1:7" outlineLevel="2">
+      <c r="E138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" outlineLevel="2">
+      <c r="E139" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" outlineLevel="2">
+      <c r="F140" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7" outlineLevel="2">
+      <c r="A141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="4:7" outlineLevel="2">
-      <c r="E128" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" outlineLevel="2">
+      <c r="A142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" outlineLevel="2">
-      <c r="A129" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" outlineLevel="1">
-      <c r="F130" s="1" t="s">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" outlineLevel="2">
+      <c r="E143" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" outlineLevel="2">
+      <c r="F144" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" outlineLevel="2">
+      <c r="F145" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" outlineLevel="2">
+      <c r="F146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" outlineLevel="1">
+      <c r="A147" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" outlineLevel="2">
+      <c r="E148" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" outlineLevel="1">
-      <c r="A131" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" outlineLevel="1">
-      <c r="A132" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" outlineLevel="1">
-      <c r="A133" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" outlineLevel="1">
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" outlineLevel="1">
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" outlineLevel="1">
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" outlineLevel="1">
-      <c r="C137" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G137" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" outlineLevel="2">
+      <c r="E149" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" outlineLevel="1">
+      <c r="D150" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" outlineLevel="2">
+      <c r="E151" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" outlineLevel="2">
+      <c r="E152" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" outlineLevel="1">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" outlineLevel="1">
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" outlineLevel="1">
+      <c r="C155" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2786,38 +3461,678 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AE49E6-E03A-4CA9-98BE-12D36B2D5635}">
-  <dimension ref="B2:D8"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="D8" t="s">
-        <v>21</v>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" outlineLevel="1">
+      <c r="F6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" outlineLevel="1"/>
+    <row r="8" spans="1:12" outlineLevel="1">
+      <c r="F8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="1">
+      <c r="F9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" outlineLevel="1">
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" outlineLevel="1">
+      <c r="F11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" outlineLevel="1">
+      <c r="F12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" t="s">
+        <v>312</v>
+      </c>
+      <c r="I12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" outlineLevel="1">
+      <c r="F13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" outlineLevel="1">
+      <c r="F14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="1">
+      <c r="F15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" outlineLevel="1">
+      <c r="F16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" t="s">
+        <v>312</v>
+      </c>
+      <c r="I16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" outlineLevel="1">
+      <c r="F17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" t="s">
+        <v>312</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" outlineLevel="1">
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" outlineLevel="1">
+      <c r="F19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" outlineLevel="1">
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" outlineLevel="1">
+      <c r="F21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" outlineLevel="1">
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" outlineLevel="1">
+      <c r="F23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" outlineLevel="1">
+      <c r="F24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" t="s">
+        <v>312</v>
+      </c>
+      <c r="I24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="30" outlineLevel="1">
+      <c r="F25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" t="s">
+        <v>313</v>
+      </c>
+      <c r="I25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" outlineLevel="1">
+      <c r="F26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" t="s">
+        <v>313</v>
+      </c>
+      <c r="I26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" outlineLevel="1">
+      <c r="F27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" t="s">
+        <v>313</v>
+      </c>
+      <c r="I27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" outlineLevel="1">
+      <c r="F28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" t="s">
+        <v>312</v>
+      </c>
+      <c r="I28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" outlineLevel="1">
+      <c r="F29" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" t="s">
+        <v>314</v>
+      </c>
+      <c r="I29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" outlineLevel="1">
+      <c r="F30" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" outlineLevel="1">
+      <c r="F31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" outlineLevel="1">
+      <c r="E32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="F34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11">
+      <c r="G36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" t="s">
+        <v>339</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="G37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="5:11">
+      <c r="G38" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="G39" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" t="s">
+        <v>341</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11">
+      <c r="G40" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="G41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11">
+      <c r="G42" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" t="s">
+        <v>353</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11">
+      <c r="G43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" t="s">
+        <v>349</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11">
+      <c r="G44" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11">
+      <c r="G45" t="s">
+        <v>290</v>
+      </c>
+      <c r="H45" t="s">
+        <v>347</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11">
+      <c r="G46" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" ht="45">
+      <c r="G47" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11">
+      <c r="G48" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" t="s">
+        <v>364</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" t="s">
+        <v>366</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" ht="30">
+      <c r="G51" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" t="s">
+        <v>370</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9">
+      <c r="G53" t="s">
+        <v>303</v>
+      </c>
+      <c r="H53" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9">
+      <c r="G54" t="s">
+        <v>306</v>
+      </c>
+      <c r="H54" t="s">
+        <v>345</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
+      <c r="G55" t="s">
+        <v>307</v>
+      </c>
+      <c r="H55" t="s">
+        <v>375</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I37" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I39" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I40" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I51" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I44" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I43" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I45" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I42" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I46" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I47" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I41" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I48" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I49" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I50" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I52" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I53" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I54" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I55" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7A316-610F-455F-8799-678D207B1754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493DBF5-CA07-450D-A70D-0405DE4374D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1995" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="397">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,9 +901,6 @@
     <t>partly</t>
   </si>
   <si>
-    <t>接入数据</t>
-  </si>
-  <si>
     <t>Tushare数据</t>
   </si>
   <si>
@@ -1248,6 +1245,69 @@
   </si>
   <si>
     <t>https://tushare.pro/document/2?doc_id=160</t>
+  </si>
+  <si>
+    <t>数据接入</t>
+  </si>
+  <si>
+    <t>分析器（Analyzer）</t>
+  </si>
+  <si>
+    <t>Collector接口</t>
+  </si>
+  <si>
+    <t>放在工程目录/Collector下</t>
+  </si>
+  <si>
+    <t>插件管理器</t>
+  </si>
+  <si>
+    <t>一个.py文件能被识别成plug-in，需要实现以下函数</t>
+  </si>
+  <si>
+    <t>plugin_prob() -&gt; dict</t>
+  </si>
+  <si>
+    <t>plugin_capacities() -&gt; list</t>
+  </si>
+  <si>
+    <t>plugin_name</t>
+  </si>
+  <si>
+    <t>以dict返回该plug-in的信息，至少包括以下键：</t>
+  </si>
+  <si>
+    <t>插件的名字，类型：str</t>
+  </si>
+  <si>
+    <t>plugin_version</t>
+  </si>
+  <si>
+    <t>插件的版本，类型：str</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>插件的标签，类型：list of str</t>
+  </si>
+  <si>
+    <t>plugin_adapt(_id: str) -&gt; bool</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>如果能处理传入的id对应的功能，则返回true，否则false</t>
+  </si>
+  <si>
+    <t>返回支持的功能id列表</t>
+  </si>
+  <si>
+    <t>通常为UUID字符串，视具体用途表达不同含义</t>
+  </si>
+  <si>
+    <t>id通常为UUID字符串</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1667,7 @@
   <dimension ref="B2:H89"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2390,7 +2450,7 @@
   </sheetPr>
   <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3464,17 +3524,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -3485,13 +3545,13 @@
     <col min="13" max="13" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3499,7 +3559,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -3507,630 +3567,807 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="F9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="F12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="F13" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" outlineLevel="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="F16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" outlineLevel="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" collapsed="1">
+      <c r="E23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" outlineLevel="1"/>
+    <row r="26" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I26" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" t="s">
+        <v>268</v>
+      </c>
+      <c r="L26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" t="s">
+        <v>270</v>
+      </c>
+      <c r="H28" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" t="s">
+        <v>311</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" t="s">
+        <v>311</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" t="s">
+        <v>311</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" t="s">
+        <v>311</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" ht="30" hidden="1" outlineLevel="1">
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>312</v>
+      </c>
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" t="s">
+        <v>312</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H46" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" t="s">
+        <v>313</v>
+      </c>
+      <c r="I47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" hidden="1" outlineLevel="1">
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" t="s">
+        <v>311</v>
+      </c>
+      <c r="I49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="E50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" collapsed="1">
+      <c r="E51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="E5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" outlineLevel="1">
-      <c r="F6" t="s">
+    <row r="52" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" hidden="1" outlineLevel="1"/>
+    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" t="s">
+        <v>267</v>
+      </c>
+      <c r="I54" t="s">
+        <v>338</v>
+      </c>
+      <c r="J54" t="s">
+        <v>339</v>
+      </c>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G55" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" t="s">
+        <v>264</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G57" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" t="s">
+        <v>340</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G58" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" t="s">
+        <v>342</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G59" t="s">
+        <v>284</v>
+      </c>
+      <c r="H59" t="s">
+        <v>361</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G60" t="s">
+        <v>285</v>
+      </c>
+      <c r="H60" t="s">
+        <v>352</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" t="s">
+        <v>348</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G62" t="s">
+        <v>288</v>
+      </c>
+      <c r="H62" t="s">
+        <v>345</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G63" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H64" t="s">
+        <v>353</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" ht="45" hidden="1" outlineLevel="1">
+      <c r="G65" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" outlineLevel="1"/>
-    <row r="8" spans="1:12" outlineLevel="1">
-      <c r="F8" t="s">
+      <c r="H65" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G66" t="s">
         <v>294</v>
       </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" outlineLevel="1">
-      <c r="F9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" outlineLevel="1">
-      <c r="F10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" t="s">
-        <v>312</v>
-      </c>
-      <c r="I10" t="s">
-        <v>276</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" outlineLevel="1">
-      <c r="F11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" t="s">
-        <v>312</v>
-      </c>
-      <c r="I11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" outlineLevel="1">
-      <c r="F12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" t="s">
-        <v>312</v>
-      </c>
-      <c r="I12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" outlineLevel="1">
-      <c r="F13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" outlineLevel="1">
-      <c r="F14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" outlineLevel="1">
-      <c r="F15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" t="s">
-        <v>312</v>
-      </c>
-      <c r="I15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" outlineLevel="1">
-      <c r="F16" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" outlineLevel="1">
-      <c r="F17" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" t="s">
-        <v>312</v>
-      </c>
-      <c r="I17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" outlineLevel="1">
-      <c r="F18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" t="s">
-        <v>289</v>
-      </c>
-      <c r="H18" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" outlineLevel="1">
-      <c r="F19" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" outlineLevel="1">
-      <c r="F20" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" t="s">
-        <v>312</v>
-      </c>
-      <c r="I20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" outlineLevel="1">
-      <c r="F21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" t="s">
-        <v>312</v>
-      </c>
-      <c r="I21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" outlineLevel="1">
-      <c r="F22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H66" t="s">
+        <v>363</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G67" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="23" spans="5:10" outlineLevel="1">
-      <c r="F23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H67" t="s">
+        <v>365</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G68" t="s">
         <v>297</v>
       </c>
-      <c r="H23" t="s">
-        <v>312</v>
-      </c>
-      <c r="I23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" outlineLevel="1">
-      <c r="F24" t="s">
-        <v>330</v>
-      </c>
-      <c r="G24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" ht="30" outlineLevel="1">
-      <c r="F25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G25" t="s">
-        <v>300</v>
-      </c>
-      <c r="H25" t="s">
-        <v>313</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H68" t="s">
+        <v>367</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9" ht="30" hidden="1" outlineLevel="1">
+      <c r="G69" t="s">
+        <v>299</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G70" t="s">
         <v>301</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" outlineLevel="1">
-      <c r="F26" t="s">
-        <v>332</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H70" t="s">
+        <v>369</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="H26" t="s">
-        <v>313</v>
-      </c>
-      <c r="I26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" outlineLevel="1">
-      <c r="F27" t="s">
-        <v>333</v>
-      </c>
-      <c r="G27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H27" t="s">
-        <v>313</v>
-      </c>
-      <c r="I27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" outlineLevel="1">
-      <c r="F28" t="s">
-        <v>334</v>
-      </c>
-      <c r="G28" t="s">
-        <v>304</v>
-      </c>
-      <c r="H28" t="s">
-        <v>312</v>
-      </c>
-      <c r="I28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" outlineLevel="1">
-      <c r="F29" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H71" t="s">
+        <v>371</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G72" t="s">
         <v>305</v>
       </c>
-      <c r="H29" t="s">
-        <v>314</v>
-      </c>
-      <c r="I29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" outlineLevel="1">
-      <c r="F30" t="s">
-        <v>336</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H72" t="s">
+        <v>344</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G73" t="s">
         <v>306</v>
       </c>
-      <c r="H30" t="s">
-        <v>312</v>
-      </c>
-      <c r="I30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" outlineLevel="1">
-      <c r="F31" t="s">
+      <c r="H73" t="s">
+        <v>374</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="E74" t="s">
         <v>337</v>
       </c>
-      <c r="G31" t="s">
-        <v>307</v>
-      </c>
-      <c r="H31" t="s">
-        <v>312</v>
-      </c>
-      <c r="I31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" outlineLevel="1">
-      <c r="E32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11">
-      <c r="E33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11">
-      <c r="F34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="5:11">
-      <c r="G36" t="s">
-        <v>267</v>
-      </c>
-      <c r="H36" t="s">
-        <v>268</v>
-      </c>
-      <c r="I36" t="s">
-        <v>339</v>
-      </c>
-      <c r="J36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="5:11">
-      <c r="G37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" t="s">
-        <v>265</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="5:11">
-      <c r="G38" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="5:11">
-      <c r="G39" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" t="s">
-        <v>341</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="5:11">
-      <c r="G40" t="s">
-        <v>283</v>
-      </c>
-      <c r="H40" t="s">
-        <v>343</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="5:11">
-      <c r="G41" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="5:11">
-      <c r="G42" t="s">
-        <v>286</v>
-      </c>
-      <c r="H42" t="s">
-        <v>353</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="5:11">
-      <c r="G43" t="s">
-        <v>288</v>
-      </c>
-      <c r="H43" t="s">
-        <v>349</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="5:11">
-      <c r="G44" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" t="s">
-        <v>346</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="5:11">
-      <c r="G45" t="s">
-        <v>290</v>
-      </c>
-      <c r="H45" t="s">
-        <v>347</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="5:11">
-      <c r="G46" t="s">
-        <v>291</v>
-      </c>
-      <c r="H46" t="s">
-        <v>354</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="47" spans="5:11" ht="45">
-      <c r="G47" t="s">
-        <v>293</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="5:11">
-      <c r="G48" t="s">
-        <v>295</v>
-      </c>
-      <c r="H48" t="s">
-        <v>364</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="G49" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49" t="s">
-        <v>366</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="7:9">
-      <c r="G50" t="s">
-        <v>298</v>
-      </c>
-      <c r="H50" t="s">
-        <v>368</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" ht="30">
-      <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9">
-      <c r="G52" t="s">
-        <v>302</v>
-      </c>
-      <c r="H52" t="s">
-        <v>370</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9">
-      <c r="G53" t="s">
-        <v>303</v>
-      </c>
-      <c r="H53" t="s">
-        <v>372</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9">
-      <c r="G54" t="s">
-        <v>306</v>
-      </c>
-      <c r="H54" t="s">
-        <v>345</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9">
-      <c r="G55" t="s">
-        <v>307</v>
-      </c>
-      <c r="H55" t="s">
-        <v>375</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>376</v>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="D75" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I37" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
-    <hyperlink ref="I39" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
-    <hyperlink ref="I40" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
-    <hyperlink ref="I51" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
-    <hyperlink ref="I44" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
-    <hyperlink ref="I43" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
-    <hyperlink ref="I45" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
-    <hyperlink ref="I42" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
-    <hyperlink ref="I46" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
-    <hyperlink ref="I47" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
-    <hyperlink ref="I41" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
-    <hyperlink ref="I48" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
-    <hyperlink ref="I49" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
-    <hyperlink ref="I50" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
-    <hyperlink ref="I52" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
-    <hyperlink ref="I53" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
-    <hyperlink ref="I54" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
-    <hyperlink ref="I55" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I55" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I57" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I58" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I69" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I62" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I61" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I63" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I60" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I64" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I65" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I59" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I66" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I67" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I68" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I70" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I71" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I72" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I73" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493DBF5-CA07-450D-A70D-0405DE4374D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4840AF-367A-498C-85A2-C3D93EC86B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="407">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,18 +1253,9 @@
     <t>分析器（Analyzer）</t>
   </si>
   <si>
-    <t>Collector接口</t>
-  </si>
-  <si>
-    <t>放在工程目录/Collector下</t>
-  </si>
-  <si>
     <t>插件管理器</t>
   </si>
   <si>
-    <t>一个.py文件能被识别成plug-in，需要实现以下函数</t>
-  </si>
-  <si>
     <t>plugin_prob() -&gt; dict</t>
   </si>
   <si>
@@ -1308,6 +1299,45 @@
   </si>
   <si>
     <t>id通常为UUID字符串</t>
+  </si>
+  <si>
+    <t>工程目录/Collector</t>
+  </si>
+  <si>
+    <t>一个.py文件能被识别为Collector，除了实现plug-in所要求的接口外，还需要实现以下函数</t>
+  </si>
+  <si>
+    <t>一个.py文件能被识别为plug-in，需要实现以下函数</t>
+  </si>
+  <si>
+    <t>query(**kwargs) -&gt; pd.DataFrame or None</t>
+  </si>
+  <si>
+    <t>validate(**kwargs) -&gt; bool</t>
+  </si>
+  <si>
+    <t>fields() -&gt; dict</t>
+  </si>
+  <si>
+    <t>以DataFrame返回采集到的数据</t>
+  </si>
+  <si>
+    <t>输入参数和系统的query()接口一致</t>
+  </si>
+  <si>
+    <t>验证该数据源是否有效（Reserved）</t>
+  </si>
+  <si>
+    <t>以dict返回字段 - 可读名的映射</t>
+  </si>
+  <si>
+    <t>可选功能，如果不提供可读化可以直接返回空dict</t>
+  </si>
+  <si>
+    <t>Collector插件目录</t>
+  </si>
+  <si>
+    <t>返回的内容必须符合该uri的数据定义（见下一节）</t>
   </si>
 </sst>
 </file>
@@ -3524,10 +3554,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3567,135 +3597,135 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" collapsed="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" outlineLevel="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" outlineLevel="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" outlineLevel="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" outlineLevel="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" outlineLevel="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" outlineLevel="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" outlineLevel="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" outlineLevel="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" outlineLevel="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" t="s">
         <v>392</v>
       </c>
-      <c r="G13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" outlineLevel="1">
+    </row>
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" outlineLevel="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" outlineLevel="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" outlineLevel="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3703,7 +3733,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:6" collapsed="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3711,344 +3741,309 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>405</v>
+      </c>
+      <c r="F19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="F20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="E20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" collapsed="1">
-      <c r="E23" t="s">
+      <c r="F22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="F26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="F29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" collapsed="1">
+      <c r="E31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F24" t="s">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="F32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" outlineLevel="1"/>
-    <row r="26" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F26" t="s">
+    <row r="33" spans="6:12" hidden="1" outlineLevel="1"/>
+    <row r="34" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="F34" t="s">
         <v>293</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G34" t="s">
         <v>266</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H34" t="s">
         <v>310</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I34" t="s">
         <v>273</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J34" t="s">
         <v>268</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F27" t="s">
+    <row r="35" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="F35" t="s">
         <v>314</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G35" t="s">
         <v>269</v>
-      </c>
-      <c r="H27" t="s">
-        <v>311</v>
-      </c>
-      <c r="I27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H28" t="s">
-        <v>311</v>
-      </c>
-      <c r="I28" t="s">
-        <v>275</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F29" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>311</v>
-      </c>
-      <c r="I29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F30" t="s">
-        <v>317</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="H30" t="s">
-        <v>311</v>
-      </c>
-      <c r="I30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" t="s">
-        <v>311</v>
-      </c>
-      <c r="I31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" outlineLevel="1">
-      <c r="F32" t="s">
-        <v>319</v>
-      </c>
-      <c r="G32" t="s">
-        <v>282</v>
-      </c>
-      <c r="H32" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" hidden="1" outlineLevel="1">
-      <c r="F33" t="s">
-        <v>320</v>
-      </c>
-      <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" t="s">
-        <v>311</v>
-      </c>
-      <c r="I33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" hidden="1" outlineLevel="1">
-      <c r="F34" t="s">
-        <v>321</v>
-      </c>
-      <c r="G34" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" t="s">
-        <v>311</v>
-      </c>
-      <c r="I34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" hidden="1" outlineLevel="1">
-      <c r="F35" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" t="s">
-        <v>287</v>
       </c>
       <c r="H35" t="s">
         <v>311</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" hidden="1" outlineLevel="1">
+        <v>274</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
         <v>311</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" hidden="1" outlineLevel="1">
+        <v>275</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F37" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="H37" t="s">
         <v>311</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" hidden="1" outlineLevel="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F38" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H38" t="s">
         <v>311</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" hidden="1" outlineLevel="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F39" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s">
         <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" hidden="1" outlineLevel="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F40" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H40" t="s">
         <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" hidden="1" outlineLevel="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F41" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H41" t="s">
         <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" hidden="1" outlineLevel="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F42" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H42" t="s">
         <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" ht="30" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F43" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F45" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F46" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H46" t="s">
         <v>311</v>
@@ -4057,317 +4052,432 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="6:10" hidden="1" outlineLevel="1">
+    <row r="47" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F47" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="6:10" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12" hidden="1" outlineLevel="1">
       <c r="F48" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H48" t="s">
         <v>311</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F49" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G49" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H49" t="s">
         <v>311</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="E50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="5:11" collapsed="1">
-      <c r="E51" t="s">
-        <v>263</v>
+      <c r="F50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="30" hidden="1" outlineLevel="1">
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" t="s">
+        <v>299</v>
+      </c>
+      <c r="H51" t="s">
+        <v>312</v>
+      </c>
+      <c r="I51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H52" t="s">
+        <v>312</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F53" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" t="s">
+        <v>312</v>
+      </c>
+      <c r="I53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F54" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" t="s">
+        <v>303</v>
+      </c>
+      <c r="H54" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F55" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" t="s">
+        <v>304</v>
+      </c>
+      <c r="H55" t="s">
+        <v>313</v>
+      </c>
+      <c r="I55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F56" t="s">
+        <v>335</v>
+      </c>
+      <c r="G56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H56" t="s">
+        <v>311</v>
+      </c>
+      <c r="I56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F57" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" t="s">
+        <v>311</v>
+      </c>
+      <c r="I57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="E58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" collapsed="1">
+      <c r="E59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F60" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="5:11" hidden="1" outlineLevel="1"/>
-    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" t="s">
-        <v>267</v>
-      </c>
-      <c r="I54" t="s">
-        <v>338</v>
-      </c>
-      <c r="J54" t="s">
-        <v>339</v>
-      </c>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G55" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" t="s">
-        <v>264</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G57" t="s">
-        <v>272</v>
-      </c>
-      <c r="H57" t="s">
-        <v>340</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G58" t="s">
-        <v>282</v>
-      </c>
-      <c r="H58" t="s">
-        <v>342</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G59" t="s">
-        <v>284</v>
-      </c>
-      <c r="H59" t="s">
-        <v>361</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" t="s">
-        <v>352</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G61" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61" t="s">
-        <v>348</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
+    <row r="61" spans="5:11" hidden="1" outlineLevel="1"/>
     <row r="62" spans="5:11" hidden="1" outlineLevel="1">
       <c r="G62" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>347</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>338</v>
+      </c>
+      <c r="J62" t="s">
+        <v>339</v>
+      </c>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="5:11" hidden="1" outlineLevel="1">
       <c r="G63" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="5:11" hidden="1" outlineLevel="1">
       <c r="G64" t="s">
+        <v>270</v>
+      </c>
+      <c r="H64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G65" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65" t="s">
+        <v>340</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G66" t="s">
+        <v>282</v>
+      </c>
+      <c r="H66" t="s">
+        <v>342</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G67" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" t="s">
+        <v>361</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" t="s">
+        <v>352</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G69" t="s">
+        <v>287</v>
+      </c>
+      <c r="H69" t="s">
+        <v>348</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H70" t="s">
+        <v>345</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G71" t="s">
+        <v>289</v>
+      </c>
+      <c r="H71" t="s">
+        <v>346</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G72" t="s">
         <v>290</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H72" t="s">
         <v>353</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="4:9" ht="45" hidden="1" outlineLevel="1">
-      <c r="G65" t="s">
+    <row r="73" spans="7:9" ht="45" hidden="1" outlineLevel="1">
+      <c r="G73" t="s">
         <v>292</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G66" t="s">
+    <row r="74" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G74" t="s">
         <v>294</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H74" t="s">
         <v>363</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="67" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G67" t="s">
+    <row r="75" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H75" t="s">
         <v>365</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G68" t="s">
+    <row r="76" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G76" t="s">
         <v>297</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H76" t="s">
         <v>367</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="4:9" ht="30" hidden="1" outlineLevel="1">
-      <c r="G69" t="s">
+    <row r="77" spans="7:9" ht="30" hidden="1" outlineLevel="1">
+      <c r="G77" t="s">
         <v>299</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G70" t="s">
+    <row r="78" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G78" t="s">
         <v>301</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H78" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G71" t="s">
+    <row r="79" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G79" t="s">
         <v>302</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H79" t="s">
         <v>371</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G72" t="s">
+    <row r="80" spans="7:9" hidden="1" outlineLevel="1">
+      <c r="G80" t="s">
         <v>305</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H80" t="s">
         <v>344</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G73" t="s">
+    <row r="81" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="G81" t="s">
         <v>306</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H81" t="s">
         <v>374</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="E74" t="s">
+    <row r="82" spans="4:9" hidden="1" outlineLevel="1">
+      <c r="E82" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="75" spans="4:9">
-      <c r="D75" t="s">
+    <row r="83" spans="4:9">
+      <c r="D83" t="s">
         <v>377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I55" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
-    <hyperlink ref="I57" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
-    <hyperlink ref="I58" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
-    <hyperlink ref="I69" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
-    <hyperlink ref="I62" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
-    <hyperlink ref="I61" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
-    <hyperlink ref="I63" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
-    <hyperlink ref="I60" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
-    <hyperlink ref="I64" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
-    <hyperlink ref="I65" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
-    <hyperlink ref="I59" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
-    <hyperlink ref="I66" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
-    <hyperlink ref="I67" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
-    <hyperlink ref="I68" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
-    <hyperlink ref="I70" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
-    <hyperlink ref="I71" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
-    <hyperlink ref="I72" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
-    <hyperlink ref="I73" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I63" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I65" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I66" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I77" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I70" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I69" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I71" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I68" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I72" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I73" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I67" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I74" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I75" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I76" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I78" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I79" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I80" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I81" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4840AF-367A-498C-85A2-C3D93EC86B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E47386-DDB6-4F8C-847B-E10421FF2E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="459">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1319,25 +1319,181 @@
     <t>fields() -&gt; dict</t>
   </si>
   <si>
-    <t>以DataFrame返回采集到的数据</t>
-  </si>
-  <si>
-    <t>输入参数和系统的query()接口一致</t>
-  </si>
-  <si>
-    <t>验证该数据源是否有效（Reserved）</t>
-  </si>
-  <si>
-    <t>以dict返回字段 - 可读名的映射</t>
-  </si>
-  <si>
-    <t>可选功能，如果不提供可读化可以直接返回空dict</t>
-  </si>
-  <si>
     <t>Collector插件目录</t>
   </si>
   <si>
-    <t>返回的内容必须符合该uri的数据定义（见下一节）</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=94</t>
+  </si>
+  <si>
+    <t>BaoStock数据</t>
+  </si>
+  <si>
+    <t>自抓取数据</t>
+  </si>
+  <si>
+    <t>网页改变，爬虫失效</t>
+  </si>
+  <si>
+    <t>Analyzer目录</t>
+  </si>
+  <si>
+    <t>工程目录/Analyzer</t>
+  </si>
+  <si>
+    <t>一个.py文件能被识别为Analyzer，除了实现plug-in所要求的接口外，还需要实现以下函数</t>
+  </si>
+  <si>
+    <t>analysis(methods: [str], securities: [str], time_serial: tuple, data_hub: DataHubEntry, database: DatabaseEntry, **kwargs) -&gt; [AnalysisResult]</t>
+  </si>
+  <si>
+    <t>输入：和系统的query()接口一致</t>
+  </si>
+  <si>
+    <t>输出：以DataFrame返回采集到的数据；返回的内容必须符合该uri的数据定义（见下一节）</t>
+  </si>
+  <si>
+    <t>定义：实现此函数以返回采集的数据</t>
+  </si>
+  <si>
+    <t>输入：TBD</t>
+  </si>
+  <si>
+    <t>输出：True如果此Collector仍有效否则False</t>
+  </si>
+  <si>
+    <t>定义：实现此函数以验证该数据源是否有效（Reserved）</t>
+  </si>
+  <si>
+    <t>定义：实现此函数以dict返回字段 - 可读名的映射</t>
+  </si>
+  <si>
+    <t>输入：无</t>
+  </si>
+  <si>
+    <t>输出：字段 - 可读名的映射；如果不提供可读化可以直接返回空dict</t>
+  </si>
+  <si>
+    <t>定义：实现此函数以返回分析的结果</t>
+  </si>
+  <si>
+    <t>输入：</t>
+  </si>
+  <si>
+    <t>输出：AnalysisResult实例的列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      time_serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      data_hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      kwargs</t>
+  </si>
+  <si>
+    <t>分析算法id</t>
+  </si>
+  <si>
+    <t>需要分析的股票代码</t>
+  </si>
+  <si>
+    <t>需要分析的时间段</t>
+  </si>
+  <si>
+    <t>DataHub实例</t>
+  </si>
+  <si>
+    <t>DataBase实例</t>
+  </si>
+  <si>
+    <t>其它参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      注：</t>
+  </si>
+  <si>
+    <t>需重构：不应该传入data_hub及database，而应传入AnalyzerContext，其中包含api及interface层</t>
+  </si>
+  <si>
+    <t>分析算法</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>标准意见得分为100，反之为0</t>
+  </si>
+  <si>
+    <t>财报非标</t>
+  </si>
+  <si>
+    <t>连续亏损</t>
+  </si>
+  <si>
+    <t>非主营业务过高</t>
+  </si>
+  <si>
+    <t>存贷双高</t>
+  </si>
+  <si>
+    <t>流动速动</t>
+  </si>
+  <si>
+    <t>资产收益</t>
+  </si>
+  <si>
+    <t>黑名单</t>
+  </si>
+  <si>
+    <t>上市不足三年</t>
+  </si>
+  <si>
+    <t>地域限制</t>
+  </si>
+  <si>
+    <t>行业限制</t>
+  </si>
+  <si>
+    <t>现金流肖像</t>
+  </si>
+  <si>
+    <t>货币资金分析</t>
+  </si>
+  <si>
+    <t>应收预付分析</t>
+  </si>
+  <si>
+    <t>资产构成分析</t>
+  </si>
+  <si>
+    <t>利润表分析</t>
+  </si>
+  <si>
+    <t>交易所问询</t>
+  </si>
+  <si>
+    <t>股权质押过高</t>
+  </si>
+  <si>
+    <t>股权分散</t>
+  </si>
+  <si>
+    <t>限售股解禁</t>
+  </si>
+  <si>
+    <t>减持/增持</t>
   </si>
 </sst>
 </file>
@@ -1696,21 +1852,21 @@
   </sheetPr>
   <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -1736,7 +1892,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30">
+    <row r="3" spans="2:8" ht="28.8">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1756,7 +1912,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="60" outlineLevel="2">
+    <row r="5" spans="2:8" ht="57.6" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +1932,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" outlineLevel="2">
+    <row r="7" spans="2:8" ht="28.8" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1981,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" outlineLevel="2">
+    <row r="12" spans="2:8" ht="28.8" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2171,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="30" outlineLevel="2">
+    <row r="35" spans="3:8" ht="28.8" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2199,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="60" outlineLevel="2">
+    <row r="37" spans="3:8" ht="57.6" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2480,20 +2636,20 @@
   </sheetPr>
   <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -2553,7 +2709,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="45" outlineLevel="2">
+    <row r="8" spans="2:8" ht="43.2" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2564,7 +2720,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45" outlineLevel="2">
+    <row r="9" spans="2:8" ht="43.2" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
@@ -2588,7 +2744,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="45" outlineLevel="2">
+    <row r="12" spans="2:8" ht="43.2" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
@@ -2662,7 +2818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="45" outlineLevel="2">
+    <row r="20" spans="4:7" ht="43.2" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
@@ -2827,7 +2983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="45" outlineLevel="2">
+    <row r="41" spans="4:7" ht="43.2" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2838,7 +2994,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="75" outlineLevel="2">
+    <row r="42" spans="4:7" ht="72" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>110</v>
       </c>
@@ -2849,7 +3005,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="30" outlineLevel="2">
+    <row r="43" spans="4:7" ht="28.8" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2937,7 +3093,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="30" outlineLevel="3">
+    <row r="54" spans="4:8" ht="28.8" outlineLevel="3">
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
@@ -3554,25 +3710,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
-    <col min="10" max="10" width="52.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5546875" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3733,7 +3889,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" collapsed="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3741,19 +3897,19 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:6" outlineLevel="2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:6" outlineLevel="2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3762,288 +3918,284 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:6" outlineLevel="2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" outlineLevel="1">
+    </row>
+    <row r="22" spans="1:6" outlineLevel="2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="E22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="F25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="F26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="1">
+    </row>
+    <row r="27" spans="1:6" outlineLevel="2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" outlineLevel="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" collapsed="1">
+      <c r="D30" s="1"/>
+      <c r="F30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="F32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" outlineLevel="2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="F33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" outlineLevel="2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="F34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" outlineLevel="2" collapsed="1">
+      <c r="E35" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="1">
-      <c r="F32" t="s">
+    <row r="36" spans="1:12" hidden="1" outlineLevel="3">
+      <c r="F36" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="6:12" hidden="1" outlineLevel="1"/>
-    <row r="34" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F34" t="s">
+    <row r="37" spans="1:12" hidden="1" outlineLevel="3"/>
+    <row r="38" spans="1:12" hidden="1" outlineLevel="3">
+      <c r="F38" t="s">
         <v>293</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>266</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H38" t="s">
         <v>310</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" t="s">
         <v>273</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J38" t="s">
         <v>268</v>
       </c>
-      <c r="L34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F35" t="s">
+      <c r="K38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" outlineLevel="3">
+      <c r="F39" t="s">
         <v>314</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G39" t="s">
         <v>269</v>
-      </c>
-      <c r="H35" t="s">
-        <v>311</v>
-      </c>
-      <c r="I35" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F36" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" t="s">
-        <v>311</v>
-      </c>
-      <c r="I36" t="s">
-        <v>275</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F37" t="s">
-        <v>316</v>
-      </c>
-      <c r="G37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H37" t="s">
-        <v>311</v>
-      </c>
-      <c r="I37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F38" t="s">
-        <v>317</v>
-      </c>
-      <c r="G38" t="s">
-        <v>277</v>
-      </c>
-      <c r="H38" t="s">
-        <v>311</v>
-      </c>
-      <c r="I38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="6:12" hidden="1" outlineLevel="1">
-      <c r="F39" t="s">
-        <v>318</v>
-      </c>
-      <c r="G39" t="s">
-        <v>280</v>
       </c>
       <c r="H39" t="s">
         <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12" hidden="1" outlineLevel="1">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
         <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12" hidden="1" outlineLevel="1">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H41" t="s">
         <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="6:12" hidden="1" outlineLevel="1">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F42" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H42" t="s">
         <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="6:12" hidden="1" outlineLevel="1">
+        <v>278</v>
+      </c>
+      <c r="K42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F43" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H43" t="s">
         <v>311</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="6:12" hidden="1" outlineLevel="1">
+        <v>281</v>
+      </c>
+      <c r="K43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F44" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H44" t="s">
         <v>311</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="6:12" hidden="1" outlineLevel="1">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F45" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G45" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H45" t="s">
         <v>311</v>
       </c>
       <c r="I45" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="6:12" hidden="1" outlineLevel="1">
+        <v>274</v>
+      </c>
+      <c r="K45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F46" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
         <v>311</v>
@@ -4051,13 +4203,16 @@
       <c r="I46" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="47" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="K46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F47" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H47" t="s">
         <v>311</v>
@@ -4065,421 +4220,863 @@
       <c r="I47" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="48" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="K47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" outlineLevel="3">
       <c r="F48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H48" t="s">
         <v>311</v>
       </c>
       <c r="I48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F49" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H49" t="s">
         <v>311</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="5:11" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G50" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H50" t="s">
         <v>311</v>
       </c>
       <c r="I50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="5:11" ht="30" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+      <c r="K50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F51" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G51" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="5:11" hidden="1" outlineLevel="1">
+        <v>286</v>
+      </c>
+      <c r="K51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F52" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G52" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="5:11" hidden="1" outlineLevel="1">
+        <v>295</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F53" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
+        <v>295</v>
+      </c>
+      <c r="K53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" hidden="1" outlineLevel="3">
       <c r="F54" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G54" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H54" t="s">
         <v>311</v>
       </c>
       <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" ht="43.2" hidden="1" outlineLevel="3">
+      <c r="F55" t="s">
+        <v>330</v>
+      </c>
+      <c r="G55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" t="s">
+        <v>300</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F56" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" t="s">
+        <v>301</v>
+      </c>
+      <c r="H56" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" t="s">
+        <v>300</v>
+      </c>
+      <c r="K56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" t="s">
+        <v>312</v>
+      </c>
+      <c r="I57" t="s">
+        <v>300</v>
+      </c>
+      <c r="K57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F58" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" t="s">
+        <v>303</v>
+      </c>
+      <c r="H58" t="s">
+        <v>311</v>
+      </c>
+      <c r="I58" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="F55" t="s">
+      <c r="K58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F59" t="s">
         <v>334</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G59" t="s">
         <v>304</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H59" t="s">
         <v>313</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I59" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="F56" t="s">
+      <c r="K59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F60" t="s">
         <v>335</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G60" t="s">
         <v>305</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H60" t="s">
         <v>311</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I60" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="57" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="F57" t="s">
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F61" t="s">
         <v>336</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G61" t="s">
         <v>306</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H61" t="s">
         <v>311</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I61" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="E58" t="s">
+      <c r="K61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="E62" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="5:11" collapsed="1">
-      <c r="E59" t="s">
+    <row r="63" spans="5:11" outlineLevel="2" collapsed="1">
+      <c r="E63" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="F60" t="s">
+    <row r="64" spans="5:11" hidden="1" outlineLevel="3">
+      <c r="F64" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="5:11" hidden="1" outlineLevel="1"/>
-    <row r="62" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G62" t="s">
+    <row r="65" spans="7:11" hidden="1" outlineLevel="3"/>
+    <row r="66" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G66" t="s">
         <v>266</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H66" t="s">
         <v>267</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I66" t="s">
         <v>338</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J66" t="s">
         <v>339</v>
       </c>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G63" t="s">
+      <c r="K66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H67" t="s">
         <v>264</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="5:11" hidden="1" outlineLevel="1">
-      <c r="G64" t="s">
+      <c r="K67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G68" t="s">
         <v>270</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H68" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="65" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G65" t="s">
+      <c r="I68" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G69" t="s">
         <v>272</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H69" t="s">
         <v>340</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="66" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G66" t="s">
+      <c r="K69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G70" t="s">
         <v>282</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H70" t="s">
         <v>342</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="67" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G67" t="s">
+      <c r="K70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G71" t="s">
         <v>284</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H71" t="s">
         <v>361</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="68" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G68" t="s">
+      <c r="K71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G72" t="s">
         <v>285</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H72" t="s">
         <v>352</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="69" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G69" t="s">
+      <c r="K72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G73" t="s">
         <v>287</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H73" t="s">
         <v>348</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="70" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G70" t="s">
+      <c r="K73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G74" t="s">
         <v>288</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H74" t="s">
         <v>345</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="71" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G71" t="s">
+      <c r="K74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G75" t="s">
         <v>289</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H75" t="s">
         <v>346</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="72" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G72" t="s">
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G76" t="s">
         <v>290</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H76" t="s">
         <v>353</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="73" spans="7:9" ht="45" hidden="1" outlineLevel="1">
-      <c r="G73" t="s">
+      <c r="K76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11" ht="43.2" hidden="1" outlineLevel="3">
+      <c r="G77" t="s">
         <v>292</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G74" t="s">
+      <c r="K77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G78" t="s">
         <v>294</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H78" t="s">
         <v>363</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="75" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G75" t="s">
+      <c r="K78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G79" t="s">
         <v>296</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H79" t="s">
         <v>365</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="76" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G76" t="s">
+      <c r="K79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11" hidden="1" outlineLevel="3">
+      <c r="G80" t="s">
         <v>297</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H80" t="s">
         <v>367</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="77" spans="7:9" ht="30" hidden="1" outlineLevel="1">
-      <c r="G77" t="s">
+      <c r="K80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" ht="28.8" hidden="1" outlineLevel="3">
+      <c r="G81" t="s">
         <v>299</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="78" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G78" t="s">
+      <c r="K81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G82" t="s">
         <v>301</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H82" t="s">
         <v>369</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="79" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G79" t="s">
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G83" t="s">
         <v>302</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H83" t="s">
         <v>371</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="80" spans="7:9" hidden="1" outlineLevel="1">
-      <c r="G80" t="s">
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G84" t="s">
         <v>305</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H84" t="s">
         <v>344</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="81" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="G81" t="s">
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G85" t="s">
         <v>306</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H85" t="s">
         <v>374</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="82" spans="4:9" hidden="1" outlineLevel="1">
-      <c r="E82" t="s">
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="E86" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="4:9">
-      <c r="D83" t="s">
+    <row r="87" spans="4:11" outlineLevel="2" collapsed="1">
+      <c r="E87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="E88" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" outlineLevel="2" collapsed="1">
+      <c r="E89" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G90" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" t="s">
+        <v>268</v>
+      </c>
+      <c r="K90" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="G91" t="s">
+        <v>277</v>
+      </c>
+      <c r="H91" t="s">
+        <v>405</v>
+      </c>
+      <c r="K91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" hidden="1" outlineLevel="3">
+      <c r="E92" t="s">
+        <v>337</v>
+      </c>
+      <c r="G92" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" t="s">
+        <v>405</v>
+      </c>
+      <c r="K92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" outlineLevel="2">
+      <c r="D93" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11">
+      <c r="D94" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11">
+      <c r="E95" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11">
+      <c r="E96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="98" spans="5:9">
+      <c r="E98" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9">
+      <c r="F99" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9">
+      <c r="F100" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="5:9">
+      <c r="F101" t="s">
+        <v>422</v>
+      </c>
+      <c r="G101" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="5:9">
+      <c r="F102" t="s">
+        <v>423</v>
+      </c>
+      <c r="G102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="5:9">
+      <c r="F103" t="s">
+        <v>424</v>
+      </c>
+      <c r="G103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="5:9">
+      <c r="F104" t="s">
+        <v>425</v>
+      </c>
+      <c r="G104" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105" spans="5:9">
+      <c r="F105" t="s">
+        <v>426</v>
+      </c>
+      <c r="G105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="5:9">
+      <c r="F106" t="s">
+        <v>427</v>
+      </c>
+      <c r="G106" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="5:9">
+      <c r="F107" t="s">
+        <v>434</v>
+      </c>
+      <c r="G107" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="108" spans="5:9">
+      <c r="F108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="5:9">
+      <c r="E109" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="5:9">
+      <c r="F110" t="s">
+        <v>437</v>
+      </c>
+      <c r="H110" t="s">
+        <v>268</v>
+      </c>
+      <c r="I110" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="5:9">
+      <c r="F111" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="5:9">
+      <c r="F112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8">
+      <c r="F113" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8">
+      <c r="F114" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8">
+      <c r="F115" t="s">
+        <v>439</v>
+      </c>
+      <c r="H115" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8">
+      <c r="F116" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8">
+      <c r="F117" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8">
+      <c r="F118" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8">
+      <c r="F119" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8">
+      <c r="F120" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
+      <c r="F121" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8">
+      <c r="F122" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8">
+      <c r="F123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8">
+      <c r="F124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8">
+      <c r="F125" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8">
+      <c r="F126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8">
+      <c r="F127" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8">
+      <c r="F128" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="F129" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="F130" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="F131" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="F132" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="D133" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I63" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
-    <hyperlink ref="I65" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
-    <hyperlink ref="I66" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
-    <hyperlink ref="I77" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
-    <hyperlink ref="I70" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
-    <hyperlink ref="I69" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
-    <hyperlink ref="I71" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
-    <hyperlink ref="I68" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
-    <hyperlink ref="I72" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
-    <hyperlink ref="I73" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
-    <hyperlink ref="I67" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
-    <hyperlink ref="I74" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
-    <hyperlink ref="I75" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
-    <hyperlink ref="I76" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
-    <hyperlink ref="I78" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
-    <hyperlink ref="I79" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
-    <hyperlink ref="I80" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
-    <hyperlink ref="I81" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I67" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I69" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I70" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I81" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I74" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I73" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I75" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I72" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I76" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I77" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I71" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I78" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I79" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I80" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I82" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I83" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I84" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I85" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I68" r:id="rId19" xr:uid="{4A6EFE1E-BCD5-4C01-88B9-6F2138782F64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E47386-DDB6-4F8C-847B-E10421FF2E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B8B5E-4D63-402F-B1E4-4A88BF5BF8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1395" windowWidth="23925" windowHeight="12570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="468">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1433,9 +1433,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>标准意见得分为100，反之为0</t>
-  </si>
-  <si>
     <t>财报非标</t>
   </si>
   <si>
@@ -1494,6 +1491,37 @@
   </si>
   <si>
     <t>减持/增持</t>
+  </si>
+  <si>
+    <t>农林牧渔得分为0，反之100</t>
+  </si>
+  <si>
+    <t>上市三年以下得分为0，反之100</t>
+  </si>
+  <si>
+    <t>非标准意见得分为0，反之100</t>
+  </si>
+  <si>
+    <t>如果在黑名单上得分为0，反之100；
+依赖Stock Memo模块的Black List数据</t>
+  </si>
+  <si>
+    <t>连续两年以上（含）净利润为负得分为0；反之100</t>
+  </si>
+  <si>
+    <t>量价分析</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>需要提供默认的接口调用延时（以520积分为准），同时可以在配置文件中配置各接口调用延时；配置文件优先</t>
+  </si>
+  <si>
+    <t>当前在程序中写死（5000分），导致新用户需要重新配置</t>
+  </si>
+  <si>
+    <t>插件</t>
   </si>
 </sst>
 </file>
@@ -1524,12 +1552,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1545,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1566,6 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1856,17 +1891,17 @@
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -1892,7 +1927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28.8">
+    <row r="3" spans="2:8" ht="30">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1912,7 +1947,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="57.6" outlineLevel="2">
+    <row r="5" spans="2:8" ht="60" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +1967,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="28.8" outlineLevel="2">
+    <row r="7" spans="2:8" ht="30" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +2016,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="28.8" outlineLevel="2">
+    <row r="12" spans="2:8" ht="30" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="28.8" outlineLevel="2">
+    <row r="35" spans="3:8" ht="30" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="57.6" outlineLevel="2">
+    <row r="37" spans="3:8" ht="60" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2640,16 +2675,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -2709,7 +2744,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="43.2" outlineLevel="2">
+    <row r="8" spans="2:8" ht="45" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2720,7 +2755,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="43.2" outlineLevel="2">
+    <row r="9" spans="2:8" ht="45" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="43.2" outlineLevel="2">
+    <row r="12" spans="2:8" ht="45" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="43.2" outlineLevel="2">
+    <row r="20" spans="4:7" ht="45" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="43.2" outlineLevel="2">
+    <row r="41" spans="4:7" ht="45" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2994,7 +3029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="72" outlineLevel="2">
+    <row r="42" spans="4:7" ht="75" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>110</v>
       </c>
@@ -3005,7 +3040,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="28.8" outlineLevel="2">
+    <row r="43" spans="4:7" ht="30" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3093,7 +3128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="28.8" outlineLevel="3">
+    <row r="54" spans="4:8" ht="30" outlineLevel="3">
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
@@ -3710,25 +3745,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5546875" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3753,7 +3788,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" collapsed="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -3761,7 +3796,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:7" outlineLevel="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -3770,7 +3805,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:7" outlineLevel="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3779,7 +3814,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:7" outlineLevel="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -3788,7 +3823,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:7" outlineLevel="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -3800,7 +3835,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:7" outlineLevel="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -3812,7 +3847,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:7" outlineLevel="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3824,7 +3859,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:7" outlineLevel="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -3833,7 +3868,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:7" outlineLevel="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3842,7 +3877,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:7" outlineLevel="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3854,7 +3889,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:7" outlineLevel="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3863,7 +3898,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:7" outlineLevel="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3872,7 +3907,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:7" outlineLevel="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3881,7 +3916,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:7" outlineLevel="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3889,7 +3924,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3897,339 +3932,323 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:6" outlineLevel="2">
+    <row r="19" spans="1:7" collapsed="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" outlineLevel="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" outlineLevel="2">
+      <c r="F20" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" outlineLevel="2">
+      <c r="F21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" outlineLevel="2">
+    </row>
+    <row r="23" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" outlineLevel="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="F24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="2">
+      <c r="G24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="F25" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="2">
+      <c r="G25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" outlineLevel="2">
+      <c r="G26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" outlineLevel="2">
+    </row>
+    <row r="28" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" outlineLevel="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="F29" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" outlineLevel="2">
+      <c r="G29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" outlineLevel="2">
+      <c r="G30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" outlineLevel="2">
+      <c r="G31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" outlineLevel="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" outlineLevel="2">
+      <c r="G33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="G35" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:12" outlineLevel="2" collapsed="1">
-      <c r="E35" t="s">
+    <row r="36" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" collapsed="1">
+      <c r="E37" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" outlineLevel="3">
-      <c r="F36" t="s">
+    <row r="38" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F38" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" outlineLevel="3"/>
-    <row r="38" spans="1:12" hidden="1" outlineLevel="3">
-      <c r="F38" t="s">
+    <row r="39" spans="1:12" hidden="1" outlineLevel="1"/>
+    <row r="40" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F40" t="s">
         <v>293</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>266</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>310</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I40" t="s">
         <v>273</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J40" t="s">
         <v>268</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K40" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" outlineLevel="3">
-      <c r="F39" t="s">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="F41" t="s">
         <v>314</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>269</v>
-      </c>
-      <c r="H39" t="s">
-        <v>311</v>
-      </c>
-      <c r="I39" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" hidden="1" outlineLevel="3">
-      <c r="F40" t="s">
-        <v>315</v>
-      </c>
-      <c r="G40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I40" t="s">
-        <v>275</v>
-      </c>
-      <c r="K40" t="s">
-        <v>214</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" outlineLevel="3">
-      <c r="F41" t="s">
-        <v>316</v>
-      </c>
-      <c r="G41" t="s">
-        <v>272</v>
       </c>
       <c r="H41" t="s">
         <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" outlineLevel="3">
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s">
         <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" outlineLevel="3">
+        <v>214</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
         <v>311</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" outlineLevel="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H44" t="s">
         <v>311</v>
       </c>
       <c r="I44" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" outlineLevel="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
         <v>311</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" outlineLevel="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H46" t="s">
         <v>311</v>
       </c>
       <c r="I46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" outlineLevel="3">
+    <row r="47" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H47" t="s">
         <v>311</v>
       </c>
       <c r="I47" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" outlineLevel="3">
+    <row r="48" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H48" t="s">
         <v>311</v>
@@ -4241,12 +4260,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="49" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H49" t="s">
         <v>311</v>
@@ -4258,12 +4277,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="50" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H50" t="s">
         <v>311</v>
@@ -4275,12 +4294,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="51" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G51" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H51" t="s">
         <v>311</v>
@@ -4292,100 +4311,97 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="52" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H52" t="s">
         <v>311</v>
       </c>
       <c r="I52" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K52" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="53" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G53" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s">
         <v>311</v>
       </c>
       <c r="I53" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K53" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G54" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H54" t="s">
         <v>311</v>
       </c>
       <c r="I54" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F55" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" t="s">
+        <v>311</v>
+      </c>
+      <c r="I55" t="s">
+        <v>295</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F56" t="s">
+        <v>329</v>
+      </c>
+      <c r="G56" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" t="s">
+        <v>311</v>
+      </c>
+      <c r="I56" t="s">
         <v>309</v>
       </c>
-      <c r="K54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="5:11" ht="43.2" hidden="1" outlineLevel="3">
-      <c r="F55" t="s">
+      <c r="K56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" ht="45" hidden="1" outlineLevel="1">
+      <c r="F57" t="s">
         <v>330</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G57" t="s">
         <v>299</v>
-      </c>
-      <c r="H55" t="s">
-        <v>312</v>
-      </c>
-      <c r="I55" t="s">
-        <v>300</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F56" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" t="s">
-        <v>301</v>
-      </c>
-      <c r="H56" t="s">
-        <v>312</v>
-      </c>
-      <c r="I56" t="s">
-        <v>300</v>
-      </c>
-      <c r="K56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F57" t="s">
-        <v>332</v>
-      </c>
-      <c r="G57" t="s">
-        <v>302</v>
       </c>
       <c r="H57" t="s">
         <v>312</v>
@@ -4393,688 +4409,833 @@
       <c r="I57" t="s">
         <v>300</v>
       </c>
+      <c r="J57" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="K57" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="5:11" hidden="1" outlineLevel="3">
+    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
       <c r="F58" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" t="s">
+        <v>312</v>
+      </c>
+      <c r="I58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s">
+        <v>302</v>
+      </c>
+      <c r="H59" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" t="s">
+        <v>300</v>
+      </c>
+      <c r="K59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F60" t="s">
         <v>333</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G60" t="s">
         <v>303</v>
-      </c>
-      <c r="H58" t="s">
-        <v>311</v>
-      </c>
-      <c r="I58" t="s">
-        <v>286</v>
-      </c>
-      <c r="K58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F59" t="s">
-        <v>334</v>
-      </c>
-      <c r="G59" t="s">
-        <v>304</v>
-      </c>
-      <c r="H59" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" t="s">
-        <v>308</v>
-      </c>
-      <c r="K59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F60" t="s">
-        <v>335</v>
-      </c>
-      <c r="G60" t="s">
-        <v>305</v>
       </c>
       <c r="H60" t="s">
         <v>311</v>
       </c>
       <c r="I60" t="s">
+        <v>286</v>
+      </c>
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F61" t="s">
+        <v>334</v>
+      </c>
+      <c r="G61" t="s">
+        <v>304</v>
+      </c>
+      <c r="H61" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" t="s">
+        <v>308</v>
+      </c>
+      <c r="K61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G62" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" t="s">
+        <v>311</v>
+      </c>
+      <c r="I62" t="s">
         <v>298</v>
       </c>
-      <c r="K60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F61" t="s">
+      <c r="K62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F63" t="s">
         <v>336</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G63" t="s">
         <v>306</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H63" t="s">
         <v>311</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I63" t="s">
         <v>307</v>
       </c>
-      <c r="K61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="E62" t="s">
+      <c r="K63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="E64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="5:11" outlineLevel="2" collapsed="1">
-      <c r="E63" t="s">
+    <row r="65" spans="5:11" collapsed="1">
+      <c r="E65" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="5:11" hidden="1" outlineLevel="3">
-      <c r="F64" t="s">
+    <row r="66" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F66" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="7:11" hidden="1" outlineLevel="3"/>
-    <row r="66" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G66" t="s">
+    <row r="67" spans="5:11" hidden="1" outlineLevel="1"/>
+    <row r="68" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G68" t="s">
         <v>266</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H68" t="s">
         <v>267</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I68" t="s">
         <v>338</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J68" t="s">
         <v>339</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K68" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G67" t="s">
+    <row r="69" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G69" t="s">
         <v>269</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H69" t="s">
         <v>264</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G68" t="s">
+      <c r="K69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>271</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G69" t="s">
+      <c r="K70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G71" t="s">
         <v>272</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H71" t="s">
         <v>340</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="K69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G70" t="s">
+      <c r="K71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G72" t="s">
         <v>282</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" t="s">
         <v>342</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G71" t="s">
+      <c r="K72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G73" t="s">
         <v>284</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" t="s">
         <v>361</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G72" t="s">
+      <c r="K73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G74" t="s">
         <v>285</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H74" t="s">
         <v>352</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="K72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G73" t="s">
+      <c r="K74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H75" t="s">
         <v>348</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G74" t="s">
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G76" t="s">
         <v>288</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H76" t="s">
         <v>345</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G75" t="s">
+      <c r="K76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G77" t="s">
         <v>289</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H77" t="s">
         <v>346</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K75" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G76" t="s">
+      <c r="K77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H78" t="s">
         <v>353</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="K76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="7:11" ht="43.2" hidden="1" outlineLevel="3">
-      <c r="G77" t="s">
+      <c r="K78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" ht="45" hidden="1" outlineLevel="1">
+      <c r="G79" t="s">
         <v>292</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I79" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G78" t="s">
+      <c r="K79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G80" t="s">
         <v>294</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H80" t="s">
         <v>363</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="K78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G79" t="s">
+      <c r="K80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G81" t="s">
         <v>296</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H81" t="s">
         <v>365</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="7:11" hidden="1" outlineLevel="3">
-      <c r="G80" t="s">
+      <c r="K81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G82" t="s">
         <v>297</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H82" t="s">
         <v>367</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K80" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="4:11" ht="28.8" hidden="1" outlineLevel="3">
-      <c r="G81" t="s">
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" ht="30" hidden="1" outlineLevel="1">
+      <c r="G83" t="s">
         <v>299</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="K81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G82" t="s">
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G84" t="s">
         <v>301</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H84" t="s">
         <v>369</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G83" t="s">
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G85" t="s">
         <v>302</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H85" t="s">
         <v>371</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="K83" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G84" t="s">
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G86" t="s">
         <v>305</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H86" t="s">
         <v>344</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K84" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G85" t="s">
+      <c r="K86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H87" t="s">
         <v>374</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="K85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="E86" t="s">
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="F89" t="s">
+        <v>465</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="K89" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="E90" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="4:11" outlineLevel="2" collapsed="1">
-      <c r="E87" t="s">
+    <row r="91" spans="5:11" collapsed="1">
+      <c r="E91" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="E88" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="89" spans="4:11" outlineLevel="2" collapsed="1">
-      <c r="E89" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="90" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G90" t="s">
-        <v>266</v>
-      </c>
-      <c r="H90" t="s">
-        <v>268</v>
-      </c>
-      <c r="K90" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="91" spans="4:11" hidden="1" outlineLevel="3">
-      <c r="G91" t="s">
-        <v>277</v>
-      </c>
-      <c r="H91" t="s">
-        <v>405</v>
-      </c>
-      <c r="K91" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="4:11" hidden="1" outlineLevel="3">
+    <row r="92" spans="5:11" hidden="1" outlineLevel="1">
       <c r="E92" t="s">
         <v>337</v>
       </c>
-      <c r="G92" t="s">
+    </row>
+    <row r="93" spans="5:11" collapsed="1">
+      <c r="E93" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G94" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" t="s">
+        <v>268</v>
+      </c>
+      <c r="K94" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="G95" t="s">
+        <v>277</v>
+      </c>
+      <c r="H95" t="s">
+        <v>405</v>
+      </c>
+      <c r="K95" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" hidden="1" outlineLevel="1">
+      <c r="E96" t="s">
+        <v>337</v>
+      </c>
+      <c r="G96" t="s">
         <v>280</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H96" t="s">
         <v>405</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K96" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="4:11" outlineLevel="2">
-      <c r="D93" t="s">
+    <row r="97" spans="4:7">
+      <c r="D97" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="4:11">
-      <c r="D94" t="s">
+    <row r="98" spans="4:7">
+      <c r="D98" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="95" spans="4:11">
-      <c r="E95" t="s">
+    <row r="99" spans="4:7" outlineLevel="1">
+      <c r="E99" t="s">
         <v>406</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F99" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="4:11">
-      <c r="E96" t="s">
+    <row r="100" spans="4:7" outlineLevel="1">
+      <c r="E100" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="5:9">
-      <c r="E98" t="s">
+    <row r="101" spans="4:7" outlineLevel="1"/>
+    <row r="102" spans="4:7" outlineLevel="1">
+      <c r="E102" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="99" spans="5:9">
-      <c r="F99" t="s">
+    <row r="103" spans="4:7" outlineLevel="1">
+      <c r="F103" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="100" spans="5:9">
-      <c r="F100" t="s">
+    <row r="104" spans="4:7" outlineLevel="1">
+      <c r="F104" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="5:9">
-      <c r="F101" t="s">
+    <row r="105" spans="4:7" outlineLevel="1">
+      <c r="F105" t="s">
         <v>422</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G105" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="5:9">
-      <c r="F102" t="s">
+    <row r="106" spans="4:7" outlineLevel="1">
+      <c r="F106" t="s">
         <v>423</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G106" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="103" spans="5:9">
-      <c r="F103" t="s">
+    <row r="107" spans="4:7" outlineLevel="1">
+      <c r="F107" t="s">
         <v>424</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G107" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="104" spans="5:9">
-      <c r="F104" t="s">
+    <row r="108" spans="4:7" outlineLevel="1">
+      <c r="F108" t="s">
         <v>425</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G108" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="5:9">
-      <c r="F105" t="s">
+    <row r="109" spans="4:7" outlineLevel="1">
+      <c r="F109" t="s">
         <v>426</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G109" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="5:9">
-      <c r="F106" t="s">
+    <row r="110" spans="4:7" outlineLevel="1">
+      <c r="F110" t="s">
         <v>427</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G110" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="5:9">
-      <c r="F107" t="s">
+    <row r="111" spans="4:7" outlineLevel="1">
+      <c r="F111" t="s">
         <v>434</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G111" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="5:9">
-      <c r="F108" t="s">
+    <row r="112" spans="4:7" outlineLevel="1">
+      <c r="F112" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="5:9">
-      <c r="E109" t="s">
+    <row r="113" spans="5:9" outlineLevel="1">
+      <c r="E113" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="110" spans="5:9">
-      <c r="F110" t="s">
+    <row r="114" spans="5:9" outlineLevel="2">
+      <c r="F114" t="s">
         <v>437</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H114" t="s">
         <v>268</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I114" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="111" spans="5:9">
-      <c r="F111" t="s">
+    <row r="115" spans="5:9" ht="30" outlineLevel="2">
+      <c r="F115" t="s">
+        <v>444</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="5:9" outlineLevel="2">
+      <c r="F116" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="112" spans="5:9">
-      <c r="F112" t="s">
+      <c r="H116" t="s">
+        <v>459</v>
+      </c>
+      <c r="I116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="5:9" outlineLevel="2">
+      <c r="F117" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="113" spans="6:8">
-      <c r="F113" t="s">
+      <c r="I117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="5:9" outlineLevel="2">
+      <c r="F118" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="114" spans="6:8">
-      <c r="F114" t="s">
+      <c r="H118" t="s">
+        <v>458</v>
+      </c>
+      <c r="I118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="5:9" outlineLevel="2">
+      <c r="F119" t="s">
+        <v>438</v>
+      </c>
+      <c r="H119" t="s">
+        <v>460</v>
+      </c>
+      <c r="I119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="5:9" outlineLevel="2">
+      <c r="F120" t="s">
+        <v>439</v>
+      </c>
+      <c r="H120" t="s">
+        <v>462</v>
+      </c>
+      <c r="I120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9" outlineLevel="2">
+      <c r="F121" t="s">
+        <v>440</v>
+      </c>
+      <c r="I121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="5:9" outlineLevel="2">
+      <c r="F122" t="s">
+        <v>441</v>
+      </c>
+      <c r="I122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="5:9" outlineLevel="2">
+      <c r="F123" t="s">
+        <v>442</v>
+      </c>
+      <c r="I123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="5:9" outlineLevel="2">
+      <c r="F124" t="s">
+        <v>443</v>
+      </c>
+      <c r="I124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="5:9" outlineLevel="2">
+      <c r="F125" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="115" spans="6:8">
-      <c r="F115" t="s">
-        <v>439</v>
-      </c>
-      <c r="H115" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="6:8">
-      <c r="F116" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="6:8">
-      <c r="F117" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="6:8">
-      <c r="F118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="6:8">
-      <c r="F119" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="120" spans="6:8">
-      <c r="F120" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="6:8">
-      <c r="F121" t="s">
+      <c r="I125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="5:9" outlineLevel="2">
+      <c r="F126" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="122" spans="6:8">
-      <c r="F122" t="s">
+      <c r="I126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="5:9" outlineLevel="2">
+      <c r="F127" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="123" spans="6:8">
-      <c r="F123" t="s">
+      <c r="I127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="5:9" outlineLevel="2">
+      <c r="F128" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="124" spans="6:8">
-      <c r="F124" t="s">
+      <c r="I128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" outlineLevel="2">
+      <c r="F129" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="125" spans="6:8">
-      <c r="F125" t="s">
+      <c r="I129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" outlineLevel="2">
+      <c r="F130" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="126" spans="6:8">
-      <c r="F126" t="s">
+      <c r="I130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" outlineLevel="2">
+      <c r="F131" t="s">
+        <v>318</v>
+      </c>
+      <c r="I131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" outlineLevel="2">
+      <c r="F132" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="127" spans="6:8">
-      <c r="F127" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="6:8">
-      <c r="F128" t="s">
+      <c r="I132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" outlineLevel="2">
+      <c r="F133" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="129" spans="4:6">
-      <c r="F129" t="s">
+      <c r="I133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" outlineLevel="2">
+      <c r="F134" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="130" spans="4:6">
-      <c r="F130" t="s">
+      <c r="I134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" outlineLevel="2">
+      <c r="F135" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="131" spans="4:6">
-      <c r="F131" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6">
-      <c r="F132" t="s">
+      <c r="I135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" outlineLevel="2">
+      <c r="F136" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" t="s">
+      <c r="I136" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9" outlineLevel="2">
+      <c r="F137" t="s">
+        <v>463</v>
+      </c>
+      <c r="H137" t="s">
+        <v>464</v>
+      </c>
+      <c r="I137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="4:9" outlineLevel="2">
+      <c r="E138" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" outlineLevel="1"/>
+    <row r="140" spans="4:9" outlineLevel="1">
+      <c r="D140" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I67" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
-    <hyperlink ref="I69" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
-    <hyperlink ref="I70" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
-    <hyperlink ref="I81" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
-    <hyperlink ref="I74" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
-    <hyperlink ref="I73" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
-    <hyperlink ref="I75" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
-    <hyperlink ref="I72" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
-    <hyperlink ref="I76" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
-    <hyperlink ref="I77" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
-    <hyperlink ref="I71" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
-    <hyperlink ref="I78" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
-    <hyperlink ref="I79" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
-    <hyperlink ref="I80" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
-    <hyperlink ref="I82" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
-    <hyperlink ref="I83" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
-    <hyperlink ref="I84" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
-    <hyperlink ref="I85" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
-    <hyperlink ref="I68" r:id="rId19" xr:uid="{4A6EFE1E-BCD5-4C01-88B9-6F2138782F64}"/>
+    <hyperlink ref="I69" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I71" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I72" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I83" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I76" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I75" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I77" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I74" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I78" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I79" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I73" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I80" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I81" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I82" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I84" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I85" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I86" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I87" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I70" r:id="rId19" xr:uid="{4A6EFE1E-BCD5-4C01-88B9-6F2138782F64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B8B5E-4D63-402F-B1E4-4A88BF5BF8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8DBFA-1735-4CAF-81F5-6A1FCCF4481F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1395" windowWidth="23925" windowHeight="12570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="527">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,9 +1337,6 @@
     <t>网页改变，爬虫失效</t>
   </si>
   <si>
-    <t>Analyzer目录</t>
-  </si>
-  <si>
     <t>工程目录/Analyzer</t>
   </si>
   <si>
@@ -1522,6 +1519,186 @@
   </si>
   <si>
     <t>插件</t>
+  </si>
+  <si>
+    <t>财务因子</t>
+  </si>
+  <si>
+    <t>量价因子</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>因子之间有依赖关系，需要计算先后顺序</t>
+  </si>
+  <si>
+    <t>设计一个引擎处理通用的计算过程，包括可读化和依赖关系计算</t>
+  </si>
+  <si>
+    <t>Factor插件目录</t>
+  </si>
+  <si>
+    <t>工程目录/Factor</t>
+  </si>
+  <si>
+    <t>一个.py文件能被识别为Factor，除了实现plug-in所要求的接口外，还需要实现以下函数</t>
+  </si>
+  <si>
+    <t>calculate(factor: str, identity: str or [str], time_serial: tuple, mapping: dict, data_hub: DataHubEntry, database: DatabaseEntry, extra: dict) -&gt; pd.DataFrame or None</t>
+  </si>
+  <si>
+    <t>定义：实现此函数以计算用户指定的因子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      extra</t>
+  </si>
+  <si>
+    <t>Analyzer插件目录</t>
+  </si>
+  <si>
+    <t>需要计算的因子id，通常为uuid字符串</t>
+  </si>
+  <si>
+    <t>输出：以DataFrame返回因子的计算结果；如果不支持该因子的计算，返回None</t>
+  </si>
+  <si>
+    <t>需要计算因子的股票代码</t>
+  </si>
+  <si>
+    <t>有两种实现方式：</t>
+  </si>
+  <si>
+    <t>（1）.传入需要计算的股票，由插件根据需要自行获取数据</t>
+  </si>
+  <si>
+    <t>（2）.将数据准备好，传入插件中计算（插件仅计算数据的序列）</t>
+  </si>
+  <si>
+    <t>prob信息（TODO）</t>
+  </si>
+  <si>
+    <t>当前实现方式为（1）；（2）可通过传入数据或Mock实现（TBD）</t>
+  </si>
+  <si>
+    <t>流动比率</t>
+  </si>
+  <si>
+    <t>流动资产合计 / 流动负债合计</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>速动比率</t>
+  </si>
+  <si>
+    <t>(流动资产合计 - 存货 - 预付款项 - 待摊费用) / 流动负债合计</t>
+  </si>
+  <si>
+    <t>资本收益率</t>
+  </si>
+  <si>
+    <t>息税前利润 / (净营运资本 + 固定资产)</t>
+  </si>
+  <si>
+    <t>应收账款 + 其他应收款 + 预付款项 + 存货 - 无息流动负债 + 长期股权投资 + 投资性房地产</t>
+  </si>
+  <si>
+    <t>应付账款 + 预收款项 + 应付职工薪酬 + 应交税费 + 其他应付款 + 预提费用 + 递延收益 + 其他流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    净营运资本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    无息流动负债</t>
+  </si>
+  <si>
+    <t>净资产收益率</t>
+  </si>
+  <si>
+    <t>净利润(含少数股东损益) / (资产总计 - 负债合计)</t>
+  </si>
+  <si>
+    <t>总资产收益率</t>
+  </si>
+  <si>
+    <t>净利润(含少数股东损益) / 资产总计</t>
+  </si>
+  <si>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>(营业收入 - 减:营业成本)  / 营业收入</t>
+  </si>
+  <si>
+    <t>营业利润率</t>
+  </si>
+  <si>
+    <t>营业利润 / 营业收入</t>
+  </si>
+  <si>
+    <t>净利润率</t>
+  </si>
+  <si>
+    <t>净利润(含少数股东损益) / (营业收入 - 其他业务收入)</t>
+  </si>
+  <si>
+    <t>货币资金/有息负债</t>
+  </si>
+  <si>
+    <t>货币资金/短期负债</t>
+  </si>
+  <si>
+    <t>货币资金 / 短期负债</t>
+  </si>
+  <si>
+    <t>货币资金 / 有息负债</t>
+  </si>
+  <si>
+    <t>有息负债/资产总计</t>
+  </si>
+  <si>
+    <t>有息负债 / 资产总计</t>
+  </si>
+  <si>
+    <t>有息负债/货币金融资产</t>
+  </si>
+  <si>
+    <t>有息负债 / 货币金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    短期负债</t>
+  </si>
+  <si>
+    <t>短期借款 + 一年内到期的非流动负债 + 其他流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    有息负债</t>
+  </si>
+  <si>
+    <t>短期负债 + 长期借款 + 应付债券 + 其他非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    金融资产</t>
+  </si>
+  <si>
+    <t>交易性金融资产 + 可供出售金融资产</t>
   </si>
 </sst>
 </file>
@@ -2671,8 +2848,8 @@
   </sheetPr>
   <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -3745,10 +3922,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -3788,7 +3965,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" collapsed="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -3796,7 +3973,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:7" outlineLevel="1">
+    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -3805,7 +3982,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:7" outlineLevel="1">
+    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3814,7 +3991,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:7" outlineLevel="1">
+    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -3823,7 +4000,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:7" outlineLevel="1">
+    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -3835,7 +4012,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:7" outlineLevel="1">
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -3847,7 +4024,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:7" outlineLevel="1">
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3859,7 +4036,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7" outlineLevel="1">
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -3868,7 +4045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:7" outlineLevel="1">
+    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3877,7 +4054,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:7" outlineLevel="1">
+    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3889,7 +4066,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:7" outlineLevel="1">
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3898,7 +4075,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" outlineLevel="1">
+    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3907,7 +4084,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:7" outlineLevel="1">
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3916,7 +4093,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:7" outlineLevel="1">
+    <row r="17" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3932,16 +4109,16 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:7" collapsed="1">
+    <row r="19" spans="1:7" outlineLevel="1" collapsed="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" outlineLevel="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3953,7 +4130,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3962,13 +4139,13 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3977,40 +4154,40 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" outlineLevel="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" outlineLevel="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4019,34 +4196,34 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="G29" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" outlineLevel="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="G30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" outlineLevel="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="G31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" outlineLevel="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4055,34 +4232,34 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" outlineLevel="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="G34" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" outlineLevel="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" outlineLevel="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4091,18 +4268,18 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:12" collapsed="1">
+    <row r="37" spans="1:12" outlineLevel="1" collapsed="1">
       <c r="E37" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F38" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" outlineLevel="1"/>
-    <row r="40" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:12" hidden="1" outlineLevel="2"/>
+    <row r="40" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F40" t="s">
         <v>293</v>
       </c>
@@ -4122,7 +4299,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F41" t="s">
         <v>314</v>
       </c>
@@ -4140,7 +4317,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F42" t="s">
         <v>315</v>
       </c>
@@ -4158,7 +4335,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F43" t="s">
         <v>316</v>
       </c>
@@ -4175,7 +4352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F44" t="s">
         <v>317</v>
       </c>
@@ -4192,7 +4369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F45" t="s">
         <v>318</v>
       </c>
@@ -4209,7 +4386,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F46" t="s">
         <v>319</v>
       </c>
@@ -4226,7 +4403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="47" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F47" t="s">
         <v>320</v>
       </c>
@@ -4243,7 +4420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F48" t="s">
         <v>321</v>
       </c>
@@ -4260,7 +4437,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="49" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F49" t="s">
         <v>322</v>
       </c>
@@ -4277,7 +4454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="50" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F50" t="s">
         <v>324</v>
       </c>
@@ -4294,7 +4471,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="51" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F51" t="s">
         <v>323</v>
       </c>
@@ -4311,7 +4488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="52" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F52" t="s">
         <v>325</v>
       </c>
@@ -4328,7 +4505,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="53" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F53" t="s">
         <v>326</v>
       </c>
@@ -4345,7 +4522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="54" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F54" t="s">
         <v>327</v>
       </c>
@@ -4362,7 +4539,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="55" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F55" t="s">
         <v>328</v>
       </c>
@@ -4379,7 +4556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="56" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F56" t="s">
         <v>329</v>
       </c>
@@ -4396,7 +4573,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="5:11" ht="45" hidden="1" outlineLevel="1">
+    <row r="57" spans="5:11" ht="45" hidden="1" outlineLevel="2">
       <c r="F57" t="s">
         <v>330</v>
       </c>
@@ -4416,7 +4593,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="58" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F58" t="s">
         <v>331</v>
       </c>
@@ -4433,7 +4610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="59" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F59" t="s">
         <v>332</v>
       </c>
@@ -4450,7 +4627,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="60" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F60" t="s">
         <v>333</v>
       </c>
@@ -4467,7 +4644,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="61" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F61" t="s">
         <v>334</v>
       </c>
@@ -4484,7 +4661,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="62" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F62" t="s">
         <v>335</v>
       </c>
@@ -4501,7 +4678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="63" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F63" t="s">
         <v>336</v>
       </c>
@@ -4518,23 +4695,23 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="64" spans="5:11" hidden="1" outlineLevel="2">
       <c r="E64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="5:11" collapsed="1">
+    <row r="65" spans="5:11" outlineLevel="1" collapsed="1">
       <c r="E65" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="66" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F66" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="5:11" hidden="1" outlineLevel="1"/>
-    <row r="68" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="67" spans="5:11" hidden="1" outlineLevel="2"/>
+    <row r="68" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G68" t="s">
         <v>266</v>
       </c>
@@ -4551,7 +4728,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="69" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G69" t="s">
         <v>269</v>
       </c>
@@ -4565,7 +4742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="70" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G70" t="s">
         <v>270</v>
       </c>
@@ -4579,7 +4756,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="71" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G71" t="s">
         <v>272</v>
       </c>
@@ -4593,7 +4770,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="72" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G72" t="s">
         <v>282</v>
       </c>
@@ -4607,7 +4784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="73" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G73" t="s">
         <v>284</v>
       </c>
@@ -4621,7 +4798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="74" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G74" t="s">
         <v>285</v>
       </c>
@@ -4635,7 +4812,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="75" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G75" t="s">
         <v>287</v>
       </c>
@@ -4649,7 +4826,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="76" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G76" t="s">
         <v>288</v>
       </c>
@@ -4663,7 +4840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="77" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G77" t="s">
         <v>289</v>
       </c>
@@ -4677,7 +4854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="78" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G78" t="s">
         <v>290</v>
       </c>
@@ -4691,7 +4868,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="5:11" ht="45" hidden="1" outlineLevel="1">
+    <row r="79" spans="5:11" ht="45" hidden="1" outlineLevel="2">
       <c r="G79" t="s">
         <v>292</v>
       </c>
@@ -4705,7 +4882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="80" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G80" t="s">
         <v>294</v>
       </c>
@@ -4719,7 +4896,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="81" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G81" t="s">
         <v>296</v>
       </c>
@@ -4733,7 +4910,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="82" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G82" t="s">
         <v>297</v>
       </c>
@@ -4747,7 +4924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="5:11" ht="30" hidden="1" outlineLevel="1">
+    <row r="83" spans="5:11" ht="30" hidden="1" outlineLevel="2">
       <c r="G83" t="s">
         <v>299</v>
       </c>
@@ -4761,7 +4938,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="84" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G84" t="s">
         <v>301</v>
       </c>
@@ -4775,7 +4952,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="85" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G85" t="s">
         <v>302</v>
       </c>
@@ -4789,7 +4966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="86" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G86" t="s">
         <v>305</v>
       </c>
@@ -4803,7 +4980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="87" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G87" t="s">
         <v>306</v>
       </c>
@@ -4817,39 +4994,39 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="88" spans="5:11" hidden="1" outlineLevel="2">
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="89" spans="5:11" hidden="1" outlineLevel="2">
       <c r="F89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I89" s="5"/>
       <c r="K89" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="90" spans="5:11" hidden="1" outlineLevel="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" hidden="1" outlineLevel="2">
       <c r="E90" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="5:11" collapsed="1">
+    <row r="91" spans="5:11" outlineLevel="1" collapsed="1">
       <c r="E91" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="92" spans="5:11" hidden="1" outlineLevel="2">
       <c r="E92" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="5:11" collapsed="1">
+    <row r="93" spans="5:11" outlineLevel="1" collapsed="1">
       <c r="E93" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="94" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G94" t="s">
         <v>266</v>
       </c>
@@ -4860,7 +5037,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="95" spans="5:11" hidden="1" outlineLevel="2">
       <c r="G95" t="s">
         <v>277</v>
       </c>
@@ -4871,7 +5048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="5:11" hidden="1" outlineLevel="1">
+    <row r="96" spans="5:11" hidden="1" outlineLevel="2">
       <c r="E96" t="s">
         <v>337</v>
       </c>
@@ -4885,155 +5062,142 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="4:7">
-      <c r="D97" t="s">
+    <row r="97" spans="4:8" outlineLevel="1"/>
+    <row r="98" spans="4:8" outlineLevel="1">
+      <c r="D98" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="4:7">
-      <c r="D98" t="s">
+    <row r="99" spans="4:8">
+      <c r="D99" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="4:7" outlineLevel="1">
-      <c r="E99" t="s">
+    <row r="100" spans="4:8" outlineLevel="1">
+      <c r="E100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" outlineLevel="2">
+      <c r="F101" t="s">
+        <v>482</v>
+      </c>
+      <c r="G101" t="s">
         <v>406</v>
       </c>
-      <c r="F99" t="s">
+    </row>
+    <row r="102" spans="4:8" outlineLevel="2">
+      <c r="F102" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="4:7" outlineLevel="1">
-      <c r="E100" t="s">
+    <row r="103" spans="4:8" outlineLevel="2"/>
+    <row r="104" spans="4:8" outlineLevel="2">
+      <c r="F104" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="101" spans="4:7" outlineLevel="1"/>
-    <row r="102" spans="4:7" outlineLevel="1">
-      <c r="E102" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" outlineLevel="1">
-      <c r="F103" t="s">
+    <row r="105" spans="4:8" outlineLevel="2">
+      <c r="G105" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" outlineLevel="2">
+      <c r="G106" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="4:7" outlineLevel="1">
-      <c r="F104" t="s">
+    <row r="107" spans="4:8" outlineLevel="2">
+      <c r="G107" t="s">
+        <v>421</v>
+      </c>
+      <c r="H107" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" outlineLevel="2">
+      <c r="G108" t="s">
+        <v>422</v>
+      </c>
+      <c r="H108" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" outlineLevel="2">
+      <c r="G109" t="s">
+        <v>423</v>
+      </c>
+      <c r="H109" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" outlineLevel="2">
+      <c r="G110" t="s">
+        <v>424</v>
+      </c>
+      <c r="H110" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" outlineLevel="2">
+      <c r="G111" t="s">
+        <v>425</v>
+      </c>
+      <c r="H111" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" outlineLevel="2">
+      <c r="G112" t="s">
+        <v>426</v>
+      </c>
+      <c r="H112" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9" outlineLevel="2">
+      <c r="G113" t="s">
+        <v>433</v>
+      </c>
+      <c r="H113" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9" outlineLevel="2">
+      <c r="G114" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="4:7" outlineLevel="1">
-      <c r="F105" t="s">
-        <v>422</v>
-      </c>
-      <c r="G105" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" outlineLevel="1">
-      <c r="F106" t="s">
-        <v>423</v>
-      </c>
-      <c r="G106" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="107" spans="4:7" outlineLevel="1">
-      <c r="F107" t="s">
-        <v>424</v>
-      </c>
-      <c r="G107" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" outlineLevel="1">
-      <c r="F108" t="s">
-        <v>425</v>
-      </c>
-      <c r="G108" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" outlineLevel="1">
-      <c r="F109" t="s">
-        <v>426</v>
-      </c>
-      <c r="G109" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" outlineLevel="1">
-      <c r="F110" t="s">
-        <v>427</v>
-      </c>
-      <c r="G110" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" outlineLevel="1">
-      <c r="F111" t="s">
-        <v>434</v>
-      </c>
-      <c r="G111" t="s">
+    <row r="115" spans="5:9" outlineLevel="1" collapsed="1">
+      <c r="E115" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="4:7" outlineLevel="1">
-      <c r="F112" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="113" spans="5:9" outlineLevel="1">
-      <c r="E113" t="s">
+    <row r="116" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F116" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="114" spans="5:9" outlineLevel="2">
-      <c r="F114" t="s">
-        <v>437</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="H116" t="s">
         <v>268</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I116" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="5:9" ht="30" outlineLevel="2">
-      <c r="F115" t="s">
+    <row r="117" spans="5:9" ht="30" hidden="1" outlineLevel="2">
+      <c r="F117" t="s">
+        <v>443</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F118" t="s">
         <v>444</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="5:9" outlineLevel="2">
-      <c r="F116" t="s">
-        <v>445</v>
-      </c>
-      <c r="H116" t="s">
-        <v>459</v>
-      </c>
-      <c r="I116" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="5:9" outlineLevel="2">
-      <c r="F117" t="s">
-        <v>446</v>
-      </c>
-      <c r="I117" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="118" spans="5:9" outlineLevel="2">
-      <c r="F118" t="s">
-        <v>447</v>
       </c>
       <c r="H118" t="s">
         <v>458</v>
@@ -5042,176 +5206,480 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="5:9" outlineLevel="2">
+    <row r="119" spans="5:9" hidden="1" outlineLevel="2">
       <c r="F119" t="s">
+        <v>445</v>
+      </c>
+      <c r="I119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F120" t="s">
+        <v>446</v>
+      </c>
+      <c r="H120" t="s">
+        <v>457</v>
+      </c>
+      <c r="I120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F121" t="s">
+        <v>437</v>
+      </c>
+      <c r="H121" t="s">
+        <v>459</v>
+      </c>
+      <c r="I121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F122" t="s">
         <v>438</v>
       </c>
-      <c r="H119" t="s">
-        <v>460</v>
-      </c>
-      <c r="I119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="5:9" outlineLevel="2">
-      <c r="F120" t="s">
+      <c r="H122" t="s">
+        <v>461</v>
+      </c>
+      <c r="I122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F123" t="s">
         <v>439</v>
       </c>
-      <c r="H120" t="s">
-        <v>462</v>
-      </c>
-      <c r="I120" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" spans="5:9" outlineLevel="2">
-      <c r="F121" t="s">
+      <c r="I123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F124" t="s">
         <v>440</v>
       </c>
-      <c r="I121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="5:9" outlineLevel="2">
-      <c r="F122" t="s">
+      <c r="I124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F125" t="s">
         <v>441</v>
       </c>
-      <c r="I122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="5:9" outlineLevel="2">
-      <c r="F123" t="s">
+      <c r="I125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F126" t="s">
         <v>442</v>
       </c>
-      <c r="I123" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="5:9" outlineLevel="2">
-      <c r="F124" t="s">
-        <v>443</v>
-      </c>
-      <c r="I124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="5:9" outlineLevel="2">
-      <c r="F125" t="s">
+      <c r="I126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F127" t="s">
+        <v>447</v>
+      </c>
+      <c r="I127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="5:9" hidden="1" outlineLevel="2">
+      <c r="F128" t="s">
         <v>448</v>
       </c>
-      <c r="I125" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="5:9" outlineLevel="2">
-      <c r="F126" t="s">
+      <c r="I128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F129" t="s">
         <v>449</v>
       </c>
-      <c r="I126" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="5:9" outlineLevel="2">
-      <c r="F127" t="s">
+      <c r="I129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F130" t="s">
         <v>450</v>
       </c>
-      <c r="I127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="5:9" outlineLevel="2">
-      <c r="F128" t="s">
+      <c r="I130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F131" t="s">
         <v>451</v>
       </c>
-      <c r="I128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" outlineLevel="2">
-      <c r="F129" t="s">
+      <c r="I131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F132" t="s">
         <v>452</v>
       </c>
-      <c r="I129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" outlineLevel="2">
-      <c r="F130" t="s">
+      <c r="I132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F133" t="s">
+        <v>318</v>
+      </c>
+      <c r="I133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F134" t="s">
         <v>453</v>
       </c>
-      <c r="I130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" outlineLevel="2">
-      <c r="F131" t="s">
-        <v>318</v>
-      </c>
-      <c r="I131" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" outlineLevel="2">
-      <c r="F132" t="s">
+      <c r="I134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F135" t="s">
         <v>454</v>
       </c>
-      <c r="I132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" outlineLevel="2">
-      <c r="F133" t="s">
+      <c r="I135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F136" t="s">
         <v>455</v>
-      </c>
-      <c r="I133" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="134" spans="4:9" outlineLevel="2">
-      <c r="F134" t="s">
-        <v>456</v>
-      </c>
-      <c r="I134" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" outlineLevel="2">
-      <c r="F135" t="s">
-        <v>457</v>
-      </c>
-      <c r="I135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" outlineLevel="2">
-      <c r="F136" t="s">
-        <v>335</v>
       </c>
       <c r="I136" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="4:9" outlineLevel="2">
+    <row r="137" spans="4:9" hidden="1" outlineLevel="2">
       <c r="F137" t="s">
-        <v>463</v>
-      </c>
-      <c r="H137" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="I137" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="4:9" outlineLevel="2">
-      <c r="E138" t="s">
+    <row r="138" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F138" t="s">
+        <v>335</v>
+      </c>
+      <c r="I138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="F139" t="s">
+        <v>462</v>
+      </c>
+      <c r="H139" t="s">
+        <v>463</v>
+      </c>
+      <c r="I139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="4:9" hidden="1" outlineLevel="2">
+      <c r="E140" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="4:9" outlineLevel="1"/>
-    <row r="140" spans="4:9" outlineLevel="1">
-      <c r="D140" t="s">
+    <row r="141" spans="4:9" outlineLevel="1"/>
+    <row r="142" spans="4:9" outlineLevel="1">
+      <c r="D142" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="143" spans="4:9">
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="4:9">
+      <c r="E144" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="F145" t="s">
+        <v>472</v>
+      </c>
+      <c r="G145" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8">
+      <c r="F146" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8">
+      <c r="F148" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8">
+      <c r="G149" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8">
+      <c r="G150" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8">
+      <c r="G151" t="s">
+        <v>478</v>
+      </c>
+      <c r="H151" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8">
+      <c r="G152" t="s">
+        <v>479</v>
+      </c>
+      <c r="H152" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8">
+      <c r="G153" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8">
+      <c r="G154" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8">
+      <c r="G155" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8">
+      <c r="G156" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8">
+      <c r="G157" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8">
+      <c r="G158" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8">
+      <c r="G159" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="F164" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="F165" s="7"/>
+      <c r="G165" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="F166" s="7"/>
+      <c r="G166" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="F167" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="F168" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="F169" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="F170" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="F172" t="s">
+        <v>493</v>
+      </c>
+      <c r="G172" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="F173" t="s">
+        <v>491</v>
+      </c>
+      <c r="G173" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="F174" t="s">
+        <v>495</v>
+      </c>
+      <c r="G174" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="F176" t="s">
+        <v>497</v>
+      </c>
+      <c r="G176" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="F177" t="s">
+        <v>501</v>
+      </c>
+      <c r="G177" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7">
+      <c r="F178" t="s">
+        <v>502</v>
+      </c>
+      <c r="G178" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7">
+      <c r="F179" t="s">
+        <v>503</v>
+      </c>
+      <c r="G179" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7">
+      <c r="F180" t="s">
+        <v>505</v>
+      </c>
+      <c r="G180" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7">
+      <c r="F181" t="s">
+        <v>507</v>
+      </c>
+      <c r="G181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7">
+      <c r="F182" t="s">
+        <v>509</v>
+      </c>
+      <c r="G182" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7">
+      <c r="F183" t="s">
+        <v>511</v>
+      </c>
+      <c r="G183" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7">
+      <c r="F185" t="s">
+        <v>513</v>
+      </c>
+      <c r="G185" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7">
+      <c r="F186" t="s">
+        <v>514</v>
+      </c>
+      <c r="G186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7">
+      <c r="F187" t="s">
+        <v>517</v>
+      </c>
+      <c r="G187" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7">
+      <c r="F188" t="s">
+        <v>519</v>
+      </c>
+      <c r="G188" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7">
+      <c r="F189" t="s">
+        <v>521</v>
+      </c>
+      <c r="G189" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7">
+      <c r="F190" t="s">
+        <v>523</v>
+      </c>
+      <c r="G190" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7">
+      <c r="F191" t="s">
+        <v>525</v>
+      </c>
+      <c r="G191" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7">
+      <c r="E192" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8DBFA-1735-4CAF-81F5-6A1FCCF4481F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8924AFE-53E3-45F4-ABEC-B722D122B93C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="583">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1551,9 +1551,6 @@
     <t>定义：实现此函数以计算用户指定的因子</t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
     <t xml:space="preserve">      factor</t>
   </si>
   <si>
@@ -1699,23 +1696,250 @@
   </si>
   <si>
     <t>交易性金融资产 + 可供出售金融资产</t>
+  </si>
+  <si>
+    <t>Economic.CPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic.GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic.M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic.PPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民消费价格指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业生产者出厂价格指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币供应量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国民生产总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">无 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.Shibor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.Libor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.LPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.Hibor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海银行间同业拆放利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦同业拆借利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款基础利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港银行同行业拆借利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州民间借贷利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.WZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州民间借贷利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate.GZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shibor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shibor_lpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wz_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gz_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_gdp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_cpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_ppi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tushare.pro/document/2?doc_id=242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要计算因子的时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可读名到字段名的映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需重构：不应该传入data_hub及database，而应传入FactorContext，其中包含api及interface层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[End]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盯盘服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1724,7 +1948,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1780,8 +2004,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2064,24 +2288,24 @@
   </sheetPr>
   <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30">
+    <row r="3" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -2115,7 +2339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:8" outlineLevel="1">
+    <row r="4" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2348,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="60" outlineLevel="2">
+    <row r="5" spans="2:8" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2135,7 +2359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:8" outlineLevel="2">
+    <row r="6" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2144,7 +2368,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" outlineLevel="2">
+    <row r="7" spans="2:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2379,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" outlineLevel="2">
+    <row r="8" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" outlineLevel="2">
+    <row r="9" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2401,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:8" outlineLevel="2">
+    <row r="10" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2409,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:8" outlineLevel="1">
+    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2193,7 +2417,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" outlineLevel="2">
+    <row r="12" spans="2:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2428,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:8" outlineLevel="2">
+    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2436,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:8" outlineLevel="2">
+    <row r="14" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2220,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:8" outlineLevel="1">
+    <row r="15" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2452,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="2:8" outlineLevel="2">
+    <row r="16" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2236,7 +2460,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="4:7" outlineLevel="2">
+    <row r="17" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="4:7" outlineLevel="1">
+    <row r="18" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2252,7 +2476,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="4:7" outlineLevel="2">
+    <row r="19" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2260,7 +2484,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" outlineLevel="2">
+    <row r="20" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,7 +2492,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="4:7" outlineLevel="2">
+    <row r="21" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2276,7 +2500,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="4:7" outlineLevel="2">
+    <row r="22" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2284,7 +2508,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="4:7" outlineLevel="1">
+    <row r="23" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2292,7 +2516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="4:7" outlineLevel="2">
+    <row r="24" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2300,7 +2524,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="4:7" outlineLevel="2">
+    <row r="25" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2308,7 +2532,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:7" outlineLevel="2">
+    <row r="26" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="4:7" outlineLevel="2">
+    <row r="27" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2324,7 +2548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="4:7" outlineLevel="1">
+    <row r="28" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2332,7 +2556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="4:7" outlineLevel="2">
+    <row r="29" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
@@ -2340,7 +2564,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="4:7" outlineLevel="2">
+    <row r="30" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
@@ -2348,7 +2572,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="4:7" outlineLevel="2">
+    <row r="31" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
@@ -2356,7 +2580,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="4:7" outlineLevel="2">
+    <row r="32" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>121</v>
       </c>
@@ -2364,7 +2588,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="3:8" outlineLevel="1">
+    <row r="33" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2372,7 +2596,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="3:8" outlineLevel="2">
+    <row r="34" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2607,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="30" outlineLevel="2">
+    <row r="35" spans="3:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2621,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="3:8" outlineLevel="2">
+    <row r="36" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2411,7 +2635,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="60" outlineLevel="2">
+    <row r="37" spans="3:8" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2649,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="3:8" outlineLevel="1">
+    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="3:8" outlineLevel="2">
+    <row r="39" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2665,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="3:8" outlineLevel="2">
+    <row r="40" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2449,7 +2673,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="3:8" outlineLevel="2">
+    <row r="41" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2457,7 +2681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="3:8" outlineLevel="2">
+    <row r="42" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,7 +2689,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="3:8" outlineLevel="2">
+    <row r="43" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2473,7 +2697,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="3:8" outlineLevel="2">
+    <row r="44" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="3:8" outlineLevel="1">
+    <row r="45" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
@@ -2489,7 +2713,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="3:8">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2497,7 +2721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="3:8" outlineLevel="1">
+    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>54</v>
       </c>
@@ -2505,7 +2729,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="3:8" outlineLevel="2">
+    <row r="48" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2513,7 +2737,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="4:7" outlineLevel="2">
+    <row r="49" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2745,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="4:7" outlineLevel="2">
+    <row r="50" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2529,7 +2753,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="4:7" outlineLevel="2">
+    <row r="51" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2537,7 +2761,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="4:7" outlineLevel="2">
+    <row r="52" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2545,7 +2769,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="4:7" outlineLevel="2">
+    <row r="53" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2777,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="4:7" outlineLevel="2">
+    <row r="54" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>60</v>
       </c>
@@ -2561,12 +2785,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="4:7" outlineLevel="1">
+    <row r="55" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="4:7" outlineLevel="2">
+    <row r="56" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>181</v>
       </c>
@@ -2574,7 +2798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="4:7" outlineLevel="2">
+    <row r="57" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="4:7" outlineLevel="2">
+    <row r="58" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
@@ -2590,7 +2814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="4:7" outlineLevel="1">
+    <row r="59" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="4:7" outlineLevel="2">
+    <row r="60" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2606,7 +2830,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="4:7" outlineLevel="2">
+    <row r="61" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,7 +2838,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="4:7" outlineLevel="2">
+    <row r="62" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2622,7 +2846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="4:7" outlineLevel="2">
+    <row r="63" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +2854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="4:7" outlineLevel="2">
+    <row r="64" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2638,7 +2862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="4:8" outlineLevel="1">
+    <row r="65" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2870,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="4:8" outlineLevel="2">
+    <row r="66" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>188</v>
       </c>
@@ -2657,7 +2881,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="4:8" outlineLevel="2">
+    <row r="67" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2665,7 +2889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="4:8" outlineLevel="2">
+    <row r="68" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
         <v>182</v>
       </c>
@@ -2673,7 +2897,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="4:8" outlineLevel="1">
+    <row r="69" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
         <v>189</v>
       </c>
@@ -2681,7 +2905,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="4:8" outlineLevel="2">
+    <row r="70" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
         <v>191</v>
       </c>
@@ -2692,7 +2916,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="4:8" outlineLevel="2">
+    <row r="71" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>198</v>
       </c>
@@ -2700,7 +2924,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="4:8" outlineLevel="2">
+    <row r="72" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
         <v>194</v>
       </c>
@@ -2708,7 +2932,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="4:8" outlineLevel="2">
+    <row r="73" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
         <v>195</v>
       </c>
@@ -2716,7 +2940,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="4:8" outlineLevel="2">
+    <row r="74" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F74" s="1" t="s">
         <v>197</v>
       </c>
@@ -2724,7 +2948,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="4:8" outlineLevel="2">
+    <row r="75" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F75" s="1" t="s">
         <v>203</v>
       </c>
@@ -2732,7 +2956,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="4:8" outlineLevel="2">
+    <row r="76" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F76" s="1" t="s">
         <v>202</v>
       </c>
@@ -2740,7 +2964,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="4:8" outlineLevel="2">
+    <row r="77" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
         <v>196</v>
       </c>
@@ -2748,7 +2972,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="4:8" outlineLevel="2">
+    <row r="78" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F78" s="1" t="s">
         <v>199</v>
       </c>
@@ -2756,7 +2980,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="4:8" outlineLevel="2">
+    <row r="79" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F79" s="1" t="s">
         <v>200</v>
       </c>
@@ -2764,7 +2988,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="4:8" outlineLevel="2">
+    <row r="80" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F80" s="1" t="s">
         <v>201</v>
       </c>
@@ -2772,7 +2996,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="3:8" outlineLevel="2">
+    <row r="81" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F81" s="1" t="s">
         <v>204</v>
       </c>
@@ -2780,12 +3004,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="3:8" outlineLevel="1">
+    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D82" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="3:8" outlineLevel="2">
+    <row r="83" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
         <v>192</v>
       </c>
@@ -2793,7 +3017,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="3:8" outlineLevel="2">
+    <row r="84" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
         <v>218</v>
       </c>
@@ -2801,7 +3025,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="3:8" outlineLevel="2">
+    <row r="85" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
         <v>219</v>
       </c>
@@ -2812,7 +3036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="3:8" outlineLevel="2">
+    <row r="86" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
         <v>194</v>
       </c>
@@ -2820,7 +3044,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="3:8" outlineLevel="2">
+    <row r="87" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
         <v>205</v>
       </c>
@@ -2828,8 +3052,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="3:8" outlineLevel="1"/>
-    <row r="89" spans="3:8" outlineLevel="1">
+    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
         <v>55</v>
       </c>
@@ -2848,23 +3072,23 @@
   </sheetPr>
   <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E39"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +3099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -2883,7 +3107,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:8" outlineLevel="1">
+    <row r="4" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2891,7 +3115,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" outlineLevel="2">
+    <row r="5" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2902,7 +3126,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:8" outlineLevel="2">
+    <row r="6" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
@@ -2913,7 +3137,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" outlineLevel="2">
+    <row r="7" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
@@ -2921,7 +3145,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="45" outlineLevel="2">
+    <row r="8" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2932,7 +3156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45" outlineLevel="2">
+    <row r="9" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
@@ -2943,12 +3167,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:8" outlineLevel="1">
+    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" outlineLevel="2">
+    <row r="11" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2956,7 +3180,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="45" outlineLevel="2">
+    <row r="12" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,7 +3191,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:8" outlineLevel="2">
+    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2978,7 +3202,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:8" outlineLevel="2">
+    <row r="14" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
@@ -2989,7 +3213,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:8" outlineLevel="2">
+    <row r="15" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3000,7 +3224,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="2:8" outlineLevel="2">
+    <row r="16" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
@@ -3008,7 +3232,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="4:7" outlineLevel="2">
+    <row r="17" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>105</v>
       </c>
@@ -3016,13 +3240,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="4:7" outlineLevel="1">
+    <row r="18" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" outlineLevel="2">
+    <row r="19" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
@@ -3030,7 +3254,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="45" outlineLevel="2">
+    <row r="20" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
@@ -3041,7 +3265,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="4:7" outlineLevel="1">
+    <row r="21" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3273,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="4:7" outlineLevel="2">
+    <row r="22" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
@@ -3057,7 +3281,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="4:7" outlineLevel="2">
+    <row r="23" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
@@ -3065,7 +3289,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="4:7" outlineLevel="2">
+    <row r="24" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
@@ -3073,7 +3297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="4:7" outlineLevel="2">
+    <row r="25" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3081,12 +3305,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:7" outlineLevel="1">
+    <row r="26" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="4:7" outlineLevel="2">
+    <row r="27" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
@@ -3094,7 +3318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="4:7" outlineLevel="2">
+    <row r="28" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
@@ -3102,12 +3326,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="4:7" outlineLevel="1">
+    <row r="29" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="4:7" outlineLevel="2">
+    <row r="30" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>96</v>
       </c>
@@ -3115,7 +3339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="4:7" outlineLevel="2">
+    <row r="31" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>97</v>
       </c>
@@ -3123,7 +3347,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="4:7" outlineLevel="2">
+    <row r="32" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
@@ -3131,7 +3355,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="4:7" outlineLevel="2">
+    <row r="33" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3139,7 +3363,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:7" outlineLevel="2">
+    <row r="34" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>100</v>
       </c>
@@ -3147,7 +3371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="4:7" outlineLevel="2">
+    <row r="35" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3155,7 +3379,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="4:7" outlineLevel="1">
+    <row r="36" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3163,7 +3387,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="4:7" outlineLevel="2">
+    <row r="37" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3171,7 +3395,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="4:7" outlineLevel="2">
+    <row r="38" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
@@ -3179,7 +3403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="4:7" outlineLevel="2">
+    <row r="39" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>105</v>
       </c>
@@ -3187,7 +3411,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="4:7" outlineLevel="1">
+    <row r="40" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3419,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="45" outlineLevel="2">
+    <row r="41" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3206,7 +3430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="75" outlineLevel="2">
+    <row r="42" spans="4:7" ht="69" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>110</v>
       </c>
@@ -3217,7 +3441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="30" outlineLevel="2">
+    <row r="43" spans="4:7" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3228,7 +3452,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="4:7" outlineLevel="1">
+    <row r="44" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
@@ -3236,12 +3460,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="4:7" outlineLevel="2">
+    <row r="45" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="4:7" outlineLevel="2">
+    <row r="46" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
@@ -3249,7 +3473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="4:7" outlineLevel="2">
+    <row r="47" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
         <v>122</v>
       </c>
@@ -3257,7 +3481,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="4:7" outlineLevel="3">
+    <row r="48" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>107</v>
       </c>
@@ -3265,7 +3489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="4:8" outlineLevel="3">
+    <row r="49" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>113</v>
       </c>
@@ -3273,7 +3497,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="4:8" outlineLevel="3">
+    <row r="50" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>114</v>
       </c>
@@ -3281,7 +3505,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="4:8" outlineLevel="3">
+    <row r="51" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>115</v>
       </c>
@@ -3289,7 +3513,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="4:8" outlineLevel="3">
+    <row r="52" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
         <v>254</v>
       </c>
@@ -3297,7 +3521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="4:8" outlineLevel="3">
+    <row r="53" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
         <v>255</v>
       </c>
@@ -3305,7 +3529,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="30" outlineLevel="3">
+    <row r="54" spans="4:8" ht="27.6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
@@ -3316,7 +3540,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="4:8" outlineLevel="3">
+    <row r="55" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
         <v>257</v>
       </c>
@@ -3325,7 +3549,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="4:8" outlineLevel="3">
+    <row r="56" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>179</v>
       </c>
@@ -3333,7 +3557,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="4:8" outlineLevel="1">
+    <row r="57" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3341,7 +3565,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="4:8" outlineLevel="2">
+    <row r="58" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>125</v>
       </c>
@@ -3349,7 +3573,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="4:8" outlineLevel="2">
+    <row r="59" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
         <v>126</v>
       </c>
@@ -3357,7 +3581,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="4:8" outlineLevel="2">
+    <row r="60" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>127</v>
       </c>
@@ -3365,7 +3589,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="4:8" outlineLevel="2">
+    <row r="61" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
         <v>128</v>
       </c>
@@ -3373,7 +3597,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="4:8" outlineLevel="2">
+    <row r="62" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
         <v>258</v>
       </c>
@@ -3381,7 +3605,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="4:8" outlineLevel="2">
+    <row r="63" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
         <v>259</v>
       </c>
@@ -3389,12 +3613,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="4:8" outlineLevel="1">
+    <row r="64" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="4:7" outlineLevel="2">
+    <row r="65" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E65" s="1" t="s">
         <v>129</v>
       </c>
@@ -3402,7 +3626,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="4:7" outlineLevel="2">
+    <row r="66" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>260</v>
       </c>
@@ -3413,17 +3637,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="4:7" outlineLevel="2">
+    <row r="67" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="4:7" outlineLevel="2">
+    <row r="68" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="4:7" outlineLevel="2">
+    <row r="69" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
         <v>133</v>
       </c>
@@ -3431,37 +3655,37 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="4:7" outlineLevel="2">
+    <row r="70" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="4:7" outlineLevel="2">
+    <row r="71" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="4:7" outlineLevel="2">
+    <row r="72" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="4:7" outlineLevel="2">
+    <row r="73" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="4:7" outlineLevel="1">
+    <row r="74" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="4:7" outlineLevel="2">
+    <row r="75" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="4:7" outlineLevel="2">
+    <row r="76" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
         <v>151</v>
       </c>
@@ -3469,257 +3693,257 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="4:7" outlineLevel="2">
+    <row r="77" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="4:7" outlineLevel="3">
+    <row r="78" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F78" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="4:7" outlineLevel="3">
+    <row r="79" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F79" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="4:7" outlineLevel="3">
+    <row r="80" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F80" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="4:6" outlineLevel="1">
+    <row r="81" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="4:6" outlineLevel="2">
+    <row r="82" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="4:6" outlineLevel="2">
+    <row r="83" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="4:6" outlineLevel="3">
+    <row r="84" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="4:6" outlineLevel="3">
+    <row r="85" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="4:6" outlineLevel="3">
+    <row r="86" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="4:6" outlineLevel="3">
+    <row r="87" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F87" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="4:6" outlineLevel="3">
+    <row r="88" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F88" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="4:6" outlineLevel="3">
+    <row r="89" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="4:6" outlineLevel="2">
+    <row r="90" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="4:6" outlineLevel="1">
+    <row r="91" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="4:6" outlineLevel="2">
+    <row r="92" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="4:6" outlineLevel="2">
+    <row r="93" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="4:6" outlineLevel="2">
+    <row r="94" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E94" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="4:6" outlineLevel="2">
+    <row r="95" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="4:6" outlineLevel="2">
+    <row r="96" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="3:6" outlineLevel="1">
+    <row r="97" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="3:6" outlineLevel="2">
+    <row r="98" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E98" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="3:6" outlineLevel="2">
+    <row r="99" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="3:6" outlineLevel="1">
+    <row r="100" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="3:6" outlineLevel="1">
+    <row r="102" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="3:6" outlineLevel="2">
+    <row r="103" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E103" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="3:6" outlineLevel="2">
+    <row r="104" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E104" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="3:6" outlineLevel="2">
+    <row r="105" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E105" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="3:6" outlineLevel="2">
+    <row r="106" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E106" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="3:6" outlineLevel="2">
+    <row r="107" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F107" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="3:6" outlineLevel="2">
+    <row r="108" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F108" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="3:6" outlineLevel="2">
+    <row r="109" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F109" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="3:6" outlineLevel="2">
+    <row r="110" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E110" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="3:6" outlineLevel="2">
+    <row r="111" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E111" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="3:6" outlineLevel="2">
+    <row r="112" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E112" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="4:6" outlineLevel="2">
+    <row r="113" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E113" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="4:6" outlineLevel="2">
+    <row r="114" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E114" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="4:6" outlineLevel="2">
+    <row r="115" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E115" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="4:6" outlineLevel="1">
+    <row r="116" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D116" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="4:6" outlineLevel="2">
+    <row r="117" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="4:6" outlineLevel="1">
+    <row r="118" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D118" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="4:6" outlineLevel="2">
+    <row r="119" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E119" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="4:6" outlineLevel="2">
+    <row r="120" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F120" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="4:6" outlineLevel="2">
+    <row r="121" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F121" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="4:6" outlineLevel="2">
+    <row r="122" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E122" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="4:6" outlineLevel="2">
+    <row r="123" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F123" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="4:6" outlineLevel="2">
+    <row r="124" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F124" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="4:6" outlineLevel="2">
+    <row r="125" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F125" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="4:6" outlineLevel="2">
+    <row r="126" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E126" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="4:6" outlineLevel="2">
+    <row r="127" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E127" s="1" t="s">
         <v>232</v>
       </c>
@@ -3727,7 +3951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="4:6" outlineLevel="2">
+    <row r="128" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E128" s="1" t="s">
         <v>233</v>
       </c>
@@ -3735,7 +3959,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="1:7" outlineLevel="2">
+    <row r="129" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E129" s="1" t="s">
         <v>234</v>
       </c>
@@ -3743,27 +3967,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="130" spans="1:7" outlineLevel="2">
+    <row r="130" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E130" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:7" outlineLevel="1">
+    <row r="131" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" outlineLevel="2">
+    <row r="132" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E132" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:7" outlineLevel="2">
+    <row r="133" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:7" outlineLevel="1">
+    <row r="134" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="s">
         <v>221</v>
       </c>
@@ -3772,7 +3996,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" outlineLevel="2">
+    <row r="135" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E135" s="1" t="s">
         <v>222</v>
       </c>
@@ -3781,7 +4005,7 @@
       </c>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" outlineLevel="2">
+    <row r="136" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E136" s="1" t="s">
         <v>240</v>
       </c>
@@ -3790,7 +4014,7 @@
       </c>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" outlineLevel="2">
+    <row r="137" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>239</v>
       </c>
@@ -3799,25 +4023,25 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" outlineLevel="2">
+    <row r="138" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E138" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" outlineLevel="2">
+    <row r="139" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E139" s="1" t="s">
         <v>195</v>
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" outlineLevel="2">
+    <row r="140" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F140" s="1" t="s">
         <v>245</v>
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" outlineLevel="2">
+    <row r="141" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>239</v>
       </c>
@@ -3826,7 +4050,7 @@
       </c>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" outlineLevel="2">
+    <row r="142" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>239</v>
       </c>
@@ -3835,31 +4059,31 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" outlineLevel="2">
+    <row r="143" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E143" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" outlineLevel="2">
+    <row r="144" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F144" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" outlineLevel="2">
+    <row r="145" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F145" s="1" t="s">
         <v>253</v>
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" outlineLevel="2">
+    <row r="146" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F146" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" outlineLevel="1">
+    <row r="147" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>239</v>
       </c>
@@ -3868,43 +4092,43 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" outlineLevel="2">
+    <row r="148" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E148" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" outlineLevel="2">
+    <row r="149" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E149" s="1" t="s">
         <v>223</v>
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" outlineLevel="1">
+    <row r="150" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" outlineLevel="2">
+    <row r="151" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E151" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" outlineLevel="2">
+    <row r="152" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E152" s="1" t="s">
         <v>223</v>
       </c>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" outlineLevel="1">
+    <row r="153" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7" outlineLevel="1">
+    <row r="154" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7" outlineLevel="1">
+    <row r="155" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C155" s="3" t="s">
         <v>55</v>
       </c>
@@ -3922,34 +4146,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3957,7 +4181,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -3965,7 +4189,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" collapsed="1">
+    <row r="4" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -3973,7 +4197,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -3982,7 +4206,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3991,7 +4215,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -4000,7 +4224,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -4012,7 +4236,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -4024,7 +4248,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -4036,7 +4260,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -4045,7 +4269,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -4054,7 +4278,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -4066,7 +4290,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -4075,7 +4299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -4084,7 +4308,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -4093,7 +4317,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -4101,7 +4325,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4109,7 +4333,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:7" outlineLevel="1" collapsed="1">
+    <row r="19" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4118,7 +4342,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="20" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4130,7 +4354,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="21" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4139,13 +4363,13 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="22" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4154,7 +4378,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="24" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4163,7 +4387,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="25" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4172,7 +4396,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4181,13 +4405,13 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4196,7 +4420,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4205,7 +4429,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4214,7 +4438,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4223,7 +4447,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4232,7 +4456,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4241,7 +4465,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="34" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4250,7 +4474,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4259,7 +4483,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="36" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4268,18 +4492,18 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:12" outlineLevel="1" collapsed="1">
+    <row r="37" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="38" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" outlineLevel="2"/>
-    <row r="40" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="39" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>293</v>
       </c>
@@ -4293,13 +4517,16 @@
         <v>273</v>
       </c>
       <c r="J40" t="s">
+        <v>531</v>
+      </c>
+      <c r="K40" t="s">
         <v>268</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>314</v>
       </c>
@@ -4312,12 +4539,14 @@
       <c r="I41" t="s">
         <v>274</v>
       </c>
-      <c r="K41" t="s">
-        <v>214</v>
-      </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" outlineLevel="2">
+      <c r="J41" t="s">
+        <v>539</v>
+      </c>
+      <c r="L41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>315</v>
       </c>
@@ -4330,12 +4559,14 @@
       <c r="I42" t="s">
         <v>275</v>
       </c>
-      <c r="K42" t="s">
-        <v>214</v>
-      </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" outlineLevel="2">
+      <c r="J42" t="s">
+        <v>539</v>
+      </c>
+      <c r="L42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>316</v>
       </c>
@@ -4348,11 +4579,14 @@
       <c r="I43" t="s">
         <v>276</v>
       </c>
-      <c r="K43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" outlineLevel="2">
+      <c r="J43" t="s">
+        <v>539</v>
+      </c>
+      <c r="L43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>317</v>
       </c>
@@ -4365,11 +4599,14 @@
       <c r="I44" t="s">
         <v>278</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
+        <v>539</v>
+      </c>
+      <c r="L44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="45" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>318</v>
       </c>
@@ -4382,11 +4619,14 @@
       <c r="I45" t="s">
         <v>281</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" t="s">
+        <v>540</v>
+      </c>
+      <c r="L45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" outlineLevel="2">
+    <row r="46" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>319</v>
       </c>
@@ -4399,11 +4639,14 @@
       <c r="I46" t="s">
         <v>283</v>
       </c>
-      <c r="K46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" outlineLevel="2">
+      <c r="J46" t="s">
+        <v>539</v>
+      </c>
+      <c r="L46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>320</v>
       </c>
@@ -4416,11 +4659,11 @@
       <c r="I47" t="s">
         <v>274</v>
       </c>
-      <c r="K47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" outlineLevel="2">
+      <c r="L47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>321</v>
       </c>
@@ -4433,11 +4676,14 @@
       <c r="I48" t="s">
         <v>286</v>
       </c>
-      <c r="K48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J48" t="s">
+        <v>535</v>
+      </c>
+      <c r="L48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>322</v>
       </c>
@@ -4450,11 +4696,14 @@
       <c r="I49" t="s">
         <v>286</v>
       </c>
-      <c r="K49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J49" t="s">
+        <v>535</v>
+      </c>
+      <c r="L49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>324</v>
       </c>
@@ -4467,11 +4716,14 @@
       <c r="I50" t="s">
         <v>286</v>
       </c>
-      <c r="K50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J50" t="s">
+        <v>535</v>
+      </c>
+      <c r="L50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>323</v>
       </c>
@@ -4484,11 +4736,14 @@
       <c r="I51" t="s">
         <v>286</v>
       </c>
-      <c r="K51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J51" t="s">
+        <v>535</v>
+      </c>
+      <c r="L51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>325</v>
       </c>
@@ -4501,11 +4756,14 @@
       <c r="I52" t="s">
         <v>286</v>
       </c>
-      <c r="K52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J52" t="s">
+        <v>535</v>
+      </c>
+      <c r="L52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>326</v>
       </c>
@@ -4518,11 +4776,14 @@
       <c r="I53" t="s">
         <v>286</v>
       </c>
-      <c r="K53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J53" t="s">
+        <v>535</v>
+      </c>
+      <c r="L53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>327</v>
       </c>
@@ -4535,11 +4796,11 @@
       <c r="I54" t="s">
         <v>295</v>
       </c>
-      <c r="K54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="L54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>328</v>
       </c>
@@ -4552,11 +4813,11 @@
       <c r="I55" t="s">
         <v>295</v>
       </c>
-      <c r="K55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="L55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>329</v>
       </c>
@@ -4569,11 +4830,11 @@
       <c r="I56" t="s">
         <v>309</v>
       </c>
-      <c r="K56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="5:11" ht="45" hidden="1" outlineLevel="2">
+      <c r="L56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>330</v>
       </c>
@@ -4586,14 +4847,14 @@
       <c r="I57" t="s">
         <v>300</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="L57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>331</v>
       </c>
@@ -4606,11 +4867,14 @@
       <c r="I58" t="s">
         <v>300</v>
       </c>
-      <c r="K58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J58" t="s">
+        <v>538</v>
+      </c>
+      <c r="L58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>332</v>
       </c>
@@ -4623,11 +4887,14 @@
       <c r="I59" t="s">
         <v>300</v>
       </c>
-      <c r="K59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J59" t="s">
+        <v>538</v>
+      </c>
+      <c r="L59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>333</v>
       </c>
@@ -4640,11 +4907,14 @@
       <c r="I60" t="s">
         <v>286</v>
       </c>
-      <c r="K60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="J60" t="s">
+        <v>538</v>
+      </c>
+      <c r="L60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>334</v>
       </c>
@@ -4657,11 +4927,11 @@
       <c r="I61" t="s">
         <v>308</v>
       </c>
-      <c r="K61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="L61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>335</v>
       </c>
@@ -4674,11 +4944,11 @@
       <c r="I62" t="s">
         <v>298</v>
       </c>
-      <c r="K62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="5:11" hidden="1" outlineLevel="2">
+      <c r="L62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>336</v>
       </c>
@@ -4691,1021 +4961,1427 @@
       <c r="I63" t="s">
         <v>307</v>
       </c>
-      <c r="K63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="E64" t="s">
+      <c r="L63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>527</v>
+      </c>
+      <c r="H65" t="s">
+        <v>311</v>
+      </c>
+      <c r="I65" t="s">
+        <v>553</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="L65" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>530</v>
+      </c>
+      <c r="G66" t="s">
+        <v>526</v>
+      </c>
+      <c r="H66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" t="s">
+        <v>553</v>
+      </c>
+      <c r="J66" t="s">
+        <v>532</v>
+      </c>
+      <c r="L66" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>533</v>
+      </c>
+      <c r="G67" t="s">
+        <v>529</v>
+      </c>
+      <c r="H67" t="s">
+        <v>311</v>
+      </c>
+      <c r="I67" t="s">
+        <v>553</v>
+      </c>
+      <c r="J67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L67" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G68" t="s">
+        <v>528</v>
+      </c>
+      <c r="H68" t="s">
+        <v>311</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="L68" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+      <c r="G70" t="s">
+        <v>541</v>
+      </c>
+      <c r="H70" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" t="s">
+        <v>553</v>
+      </c>
+      <c r="J70" t="s">
+        <v>538</v>
+      </c>
+      <c r="L70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71" t="s">
+        <v>311</v>
+      </c>
+      <c r="I71" t="s">
+        <v>553</v>
+      </c>
+      <c r="J71" t="s">
+        <v>538</v>
+      </c>
+      <c r="L71" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>544</v>
+      </c>
+      <c r="H72" t="s">
+        <v>311</v>
+      </c>
+      <c r="I72" t="s">
+        <v>553</v>
+      </c>
+      <c r="J72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
+        <v>543</v>
+      </c>
+      <c r="H73" t="s">
+        <v>311</v>
+      </c>
+      <c r="I73" t="s">
+        <v>553</v>
+      </c>
+      <c r="J73" t="s">
+        <v>537</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" t="s">
+        <v>550</v>
+      </c>
+      <c r="H74" t="s">
+        <v>311</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>551</v>
+      </c>
+      <c r="G75" t="s">
+        <v>552</v>
+      </c>
+      <c r="H75" t="s">
+        <v>311</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="5:11" outlineLevel="1" collapsed="1">
-      <c r="E65" t="s">
+    <row r="78" spans="5:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="F66" t="s">
+    <row r="79" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="5:11" hidden="1" outlineLevel="2"/>
-    <row r="68" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G68" t="s">
+    <row r="80" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
         <v>266</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H81" t="s">
         <v>267</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I81" t="s">
         <v>338</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J81" t="s">
         <v>339</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K81" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G69" t="s">
+    <row r="82" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
         <v>269</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H82" t="s">
         <v>264</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G70" t="s">
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H83" t="s">
         <v>271</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G71" t="s">
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
         <v>272</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H84" t="s">
         <v>340</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="K71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G72" t="s">
+      <c r="K84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
         <v>282</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H85" t="s">
         <v>342</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G73" t="s">
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
         <v>284</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H86" t="s">
         <v>361</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G74" t="s">
+      <c r="K86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
         <v>285</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H87" t="s">
         <v>352</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="K74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G75" t="s">
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
         <v>287</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H88" t="s">
         <v>348</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K75" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G76" t="s">
+      <c r="K88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H89" t="s">
         <v>345</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G77" t="s">
+      <c r="K89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
         <v>289</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H90" t="s">
         <v>346</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G78" t="s">
+      <c r="K90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
         <v>290</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H91" t="s">
         <v>353</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="K78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="5:11" ht="45" hidden="1" outlineLevel="2">
-      <c r="G79" t="s">
+      <c r="K91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11" ht="41.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
         <v>292</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G80" t="s">
+      <c r="K92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
         <v>294</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H93" t="s">
         <v>363</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="K80" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G81" t="s">
+      <c r="K93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H94" t="s">
         <v>365</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G82" t="s">
+      <c r="K94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
         <v>297</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H95" t="s">
         <v>367</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="5:11" ht="30" hidden="1" outlineLevel="2">
-      <c r="G83" t="s">
+      <c r="K95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="7:11" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I96" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="K83" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G84" t="s">
+      <c r="K96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
         <v>301</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H97" t="s">
         <v>369</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K84" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G85" t="s">
+      <c r="K97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
         <v>302</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H98" t="s">
         <v>371</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="K85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G86" t="s">
+      <c r="K98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
         <v>305</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H99" t="s">
         <v>344</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G87" t="s">
+      <c r="K99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
         <v>306</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H100" t="s">
         <v>374</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="K87" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="F89" t="s">
+      <c r="K100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>527</v>
+      </c>
+      <c r="H102" t="s">
+        <v>566</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="K102" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>526</v>
+      </c>
+      <c r="H103" t="s">
+        <v>568</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="K103" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>529</v>
+      </c>
+      <c r="H104" t="s">
+        <v>570</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="K104" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>528</v>
+      </c>
+      <c r="H105" t="s">
+        <v>572</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="K105" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="106" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>541</v>
+      </c>
+      <c r="H107" t="s">
+        <v>554</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K107" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="108" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>542</v>
+      </c>
+      <c r="H108" t="s">
+        <v>556</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K108" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="109" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>544</v>
+      </c>
+      <c r="H109" t="s">
+        <v>558</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="K109" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="110" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>543</v>
+      </c>
+      <c r="H110" t="s">
+        <v>560</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K110" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="111" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>550</v>
+      </c>
+      <c r="H111" t="s">
+        <v>563</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K111" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="112" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>552</v>
+      </c>
+      <c r="H112" t="s">
+        <v>564</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="K112" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="113" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
         <v>464</v>
       </c>
-      <c r="I89" s="5"/>
-      <c r="K89" s="8" t="s">
+      <c r="I114" s="5"/>
+      <c r="K114" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="E90" t="s">
+    <row r="115" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="5:11" outlineLevel="1" collapsed="1">
-      <c r="E91" t="s">
+    <row r="116" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="92" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="E92" t="s">
+    <row r="117" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="5:11" outlineLevel="1" collapsed="1">
-      <c r="E93" t="s">
+    <row r="118" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G94" t="s">
+    <row r="119" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
         <v>266</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H119" t="s">
         <v>268</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K119" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="G95" t="s">
+    <row r="120" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
         <v>277</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H120" t="s">
         <v>405</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K120" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="5:11" hidden="1" outlineLevel="2">
-      <c r="E96" t="s">
+    <row r="121" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
         <v>337</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G121" t="s">
         <v>280</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H121" t="s">
         <v>405</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K121" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="4:8" outlineLevel="1"/>
-    <row r="98" spans="4:8" outlineLevel="1">
-      <c r="D98" t="s">
+    <row r="122" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="4:8">
-      <c r="D99" t="s">
+    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="100" spans="4:8" outlineLevel="1">
-      <c r="E100" t="s">
+    <row r="125" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="4:8" outlineLevel="2">
-      <c r="F101" t="s">
+    <row r="126" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>481</v>
+      </c>
+      <c r="G126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="132" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>421</v>
+      </c>
+      <c r="H132" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>422</v>
+      </c>
+      <c r="H133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>423</v>
+      </c>
+      <c r="H134" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>424</v>
+      </c>
+      <c r="H135" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>425</v>
+      </c>
+      <c r="H136" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>426</v>
+      </c>
+      <c r="H137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>433</v>
+      </c>
+      <c r="H138" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="139" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="140" spans="5:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>436</v>
+      </c>
+      <c r="H141" t="s">
+        <v>268</v>
+      </c>
+      <c r="I141" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="5:9" ht="55.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>443</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>444</v>
+      </c>
+      <c r="H143" t="s">
+        <v>458</v>
+      </c>
+      <c r="I143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>445</v>
+      </c>
+      <c r="I144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>446</v>
+      </c>
+      <c r="H145" t="s">
+        <v>457</v>
+      </c>
+      <c r="I145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>437</v>
+      </c>
+      <c r="H146" t="s">
+        <v>459</v>
+      </c>
+      <c r="I146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>438</v>
+      </c>
+      <c r="H147" t="s">
+        <v>461</v>
+      </c>
+      <c r="I147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>439</v>
+      </c>
+      <c r="I148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>440</v>
+      </c>
+      <c r="I149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>441</v>
+      </c>
+      <c r="I150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>442</v>
+      </c>
+      <c r="I151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>447</v>
+      </c>
+      <c r="I152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>448</v>
+      </c>
+      <c r="I153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>449</v>
+      </c>
+      <c r="I154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>450</v>
+      </c>
+      <c r="I155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>451</v>
+      </c>
+      <c r="I156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>452</v>
+      </c>
+      <c r="I157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>318</v>
+      </c>
+      <c r="I158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>453</v>
+      </c>
+      <c r="I159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>454</v>
+      </c>
+      <c r="I160" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>455</v>
+      </c>
+      <c r="I161" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>456</v>
+      </c>
+      <c r="I162" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>335</v>
+      </c>
+      <c r="I163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>462</v>
+      </c>
+      <c r="H164" t="s">
+        <v>463</v>
+      </c>
+      <c r="I164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>472</v>
+      </c>
+      <c r="G171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="175" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="176" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>477</v>
+      </c>
+      <c r="H177" t="s">
         <v>482</v>
       </c>
-      <c r="G101" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" outlineLevel="2">
-      <c r="F102" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="4:8" outlineLevel="2"/>
-    <row r="104" spans="4:8" outlineLevel="2">
-      <c r="F104" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="105" spans="4:8" outlineLevel="2">
-      <c r="G105" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106" spans="4:8" outlineLevel="2">
-      <c r="G106" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="4:8" outlineLevel="2">
-      <c r="G107" t="s">
-        <v>421</v>
-      </c>
-      <c r="H107" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="108" spans="4:8" outlineLevel="2">
-      <c r="G108" t="s">
-        <v>422</v>
-      </c>
-      <c r="H108" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="4:8" outlineLevel="2">
-      <c r="G109" t="s">
+    </row>
+    <row r="178" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>478</v>
+      </c>
+      <c r="H178" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="179" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
         <v>423</v>
       </c>
-      <c r="H109" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" outlineLevel="2">
-      <c r="G110" t="s">
+      <c r="H179" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="180" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>479</v>
+      </c>
+      <c r="H180" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="181" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
         <v>424</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H181" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="4:8" outlineLevel="2">
-      <c r="G111" t="s">
+    <row r="182" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
         <v>425</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H182" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="4:8" outlineLevel="2">
-      <c r="G112" t="s">
-        <v>426</v>
-      </c>
-      <c r="H112" t="s">
+    <row r="183" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>480</v>
+      </c>
+      <c r="H183" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="5:9" outlineLevel="2">
-      <c r="G113" t="s">
+    <row r="184" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
         <v>433</v>
       </c>
-      <c r="H113" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="114" spans="5:9" outlineLevel="2">
-      <c r="G114" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="115" spans="5:9" outlineLevel="1" collapsed="1">
-      <c r="E115" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F116" t="s">
-        <v>436</v>
-      </c>
-      <c r="H116" t="s">
-        <v>268</v>
-      </c>
-      <c r="I116" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="117" spans="5:9" ht="30" hidden="1" outlineLevel="2">
-      <c r="F117" t="s">
-        <v>443</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="I117" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="118" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F118" t="s">
-        <v>444</v>
-      </c>
-      <c r="H118" t="s">
-        <v>458</v>
-      </c>
-      <c r="I118" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F119" t="s">
-        <v>445</v>
-      </c>
-      <c r="I119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F120" t="s">
-        <v>446</v>
-      </c>
-      <c r="H120" t="s">
-        <v>457</v>
-      </c>
-      <c r="I120" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F121" t="s">
-        <v>437</v>
-      </c>
-      <c r="H121" t="s">
-        <v>459</v>
-      </c>
-      <c r="I121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F122" t="s">
-        <v>438</v>
-      </c>
-      <c r="H122" t="s">
-        <v>461</v>
-      </c>
-      <c r="I122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F123" t="s">
-        <v>439</v>
-      </c>
-      <c r="I123" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F124" t="s">
-        <v>440</v>
-      </c>
-      <c r="I124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F125" t="s">
-        <v>441</v>
-      </c>
-      <c r="I125" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F126" t="s">
-        <v>442</v>
-      </c>
-      <c r="I126" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F127" t="s">
-        <v>447</v>
-      </c>
-      <c r="I127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="5:9" hidden="1" outlineLevel="2">
-      <c r="F128" t="s">
-        <v>448</v>
-      </c>
-      <c r="I128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F129" t="s">
-        <v>449</v>
-      </c>
-      <c r="I129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F130" t="s">
-        <v>450</v>
-      </c>
-      <c r="I130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F131" t="s">
-        <v>451</v>
-      </c>
-      <c r="I131" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F132" t="s">
-        <v>452</v>
-      </c>
-      <c r="I132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F133" t="s">
-        <v>318</v>
-      </c>
-      <c r="I133" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="134" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F134" t="s">
-        <v>453</v>
-      </c>
-      <c r="I134" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F135" t="s">
-        <v>454</v>
-      </c>
-      <c r="I135" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F136" t="s">
-        <v>455</v>
-      </c>
-      <c r="I136" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F137" t="s">
-        <v>456</v>
-      </c>
-      <c r="I137" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="138" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F138" t="s">
-        <v>335</v>
-      </c>
-      <c r="I138" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="F139" t="s">
-        <v>462</v>
-      </c>
-      <c r="H139" t="s">
-        <v>463</v>
-      </c>
-      <c r="I139" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="140" spans="4:9" hidden="1" outlineLevel="2">
-      <c r="E140" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="4:9" outlineLevel="1"/>
-    <row r="142" spans="4:9" outlineLevel="1">
-      <c r="D142" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="143" spans="4:9">
-      <c r="D143" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="4:9">
-      <c r="E144" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="145" spans="6:8">
-      <c r="F145" t="s">
-        <v>472</v>
-      </c>
-      <c r="G145" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="146" spans="6:8">
-      <c r="F146" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="148" spans="6:8">
-      <c r="F148" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="149" spans="6:8">
-      <c r="G149" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="150" spans="6:8">
-      <c r="G150" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151" spans="6:8">
-      <c r="G151" t="s">
-        <v>478</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="H184" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="6:8">
-      <c r="G152" t="s">
-        <v>479</v>
-      </c>
-      <c r="H152" t="s">
+    <row r="186" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="188" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="7" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="6:8">
-      <c r="G153" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="154" spans="6:8">
-      <c r="G154" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="155" spans="6:8">
-      <c r="G155" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="156" spans="6:8">
-      <c r="G156" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="157" spans="6:8">
-      <c r="G157" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="158" spans="6:8">
-      <c r="G158" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="159" spans="6:8">
-      <c r="G159" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7">
-      <c r="E163" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7">
-      <c r="F164" s="7" t="s">
+    <row r="189" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="7"/>
+      <c r="G189" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="5:7">
-      <c r="F165" s="7"/>
-      <c r="G165" t="s">
+    <row r="190" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="7"/>
+      <c r="G190" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="5:7">
-      <c r="F166" s="7"/>
-      <c r="G166" t="s">
+    <row r="191" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="167" spans="5:7">
-      <c r="F167" t="s">
+    <row r="195" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>492</v>
+      </c>
+      <c r="G196" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="F168" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7">
-      <c r="F169" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="F170" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="E171" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7">
-      <c r="F172" t="s">
-        <v>493</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="G197" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="173" spans="5:7">
-      <c r="F173" t="s">
-        <v>491</v>
-      </c>
-      <c r="G173" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7">
-      <c r="F174" t="s">
+      <c r="G198" t="s">
         <v>495</v>
       </c>
-      <c r="G174" t="s">
+    </row>
+    <row r="199" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="F176" t="s">
+      <c r="G200" t="s">
         <v>497</v>
       </c>
-      <c r="G176" t="s">
+    </row>
+    <row r="201" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>500</v>
+      </c>
+      <c r="G201" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="177" spans="5:7">
-      <c r="F177" t="s">
+    <row r="202" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
         <v>501</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G202" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="178" spans="5:7">
-      <c r="F178" t="s">
+    <row r="203" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
         <v>502</v>
       </c>
-      <c r="G178" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7">
-      <c r="F179" t="s">
+      <c r="G203" t="s">
         <v>503</v>
       </c>
-      <c r="G179" t="s">
+    </row>
+    <row r="204" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="180" spans="5:7">
-      <c r="F180" t="s">
+      <c r="G204" t="s">
         <v>505</v>
       </c>
-      <c r="G180" t="s">
+    </row>
+    <row r="205" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="181" spans="5:7">
-      <c r="F181" t="s">
+      <c r="G205" t="s">
         <v>507</v>
       </c>
-      <c r="G181" t="s">
+    </row>
+    <row r="206" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="182" spans="5:7">
-      <c r="F182" t="s">
+      <c r="G206" t="s">
         <v>509</v>
       </c>
-      <c r="G182" t="s">
+    </row>
+    <row r="207" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="183" spans="5:7">
-      <c r="F183" t="s">
+      <c r="G207" t="s">
         <v>511</v>
       </c>
-      <c r="G183" t="s">
+    </row>
+    <row r="208" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="185" spans="5:7">
-      <c r="F185" t="s">
+      <c r="G209" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
         <v>513</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G210" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="211" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="186" spans="5:7">
-      <c r="F186" t="s">
-        <v>514</v>
-      </c>
-      <c r="G186" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7">
-      <c r="F187" t="s">
+      <c r="G211" t="s">
         <v>517</v>
       </c>
-      <c r="G187" t="s">
+    </row>
+    <row r="212" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="188" spans="5:7">
-      <c r="F188" t="s">
+      <c r="G212" t="s">
         <v>519</v>
       </c>
-      <c r="G188" t="s">
+    </row>
+    <row r="213" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="189" spans="5:7">
-      <c r="F189" t="s">
+      <c r="G213" t="s">
         <v>521</v>
       </c>
-      <c r="G189" t="s">
+    </row>
+    <row r="214" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="190" spans="5:7">
-      <c r="F190" t="s">
+      <c r="G214" t="s">
         <v>523</v>
       </c>
-      <c r="G190" t="s">
+    </row>
+    <row r="215" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="191" spans="5:7">
-      <c r="F191" t="s">
+      <c r="G215" t="s">
         <v>525</v>
       </c>
-      <c r="G191" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7">
-      <c r="E192" t="s">
+    </row>
+    <row r="216" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I69" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
-    <hyperlink ref="I71" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
-    <hyperlink ref="I72" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
-    <hyperlink ref="I83" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
-    <hyperlink ref="I76" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
-    <hyperlink ref="I75" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
-    <hyperlink ref="I77" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
-    <hyperlink ref="I74" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
-    <hyperlink ref="I78" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
-    <hyperlink ref="I79" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
-    <hyperlink ref="I73" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
-    <hyperlink ref="I80" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
-    <hyperlink ref="I81" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
-    <hyperlink ref="I82" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
-    <hyperlink ref="I84" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
-    <hyperlink ref="I85" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
-    <hyperlink ref="I86" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
-    <hyperlink ref="I87" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
-    <hyperlink ref="I70" r:id="rId19" xr:uid="{4A6EFE1E-BCD5-4C01-88B9-6F2138782F64}"/>
+    <hyperlink ref="I82" r:id="rId1" xr:uid="{9360D00A-6133-49CA-8C66-73582FF13A8D}"/>
+    <hyperlink ref="I84" r:id="rId2" xr:uid="{D0136F6C-D180-4E80-A025-E6B7117C618D}"/>
+    <hyperlink ref="I85" r:id="rId3" xr:uid="{FA904ACA-B652-4186-BF44-F8FA301AE0F0}"/>
+    <hyperlink ref="I96" r:id="rId4" display="https://tushare.pro/document/2?doc_id=27" xr:uid="{29B67C58-F107-4307-A0E3-9A8864F06924}"/>
+    <hyperlink ref="I89" r:id="rId5" xr:uid="{7F7F748A-10DB-4B21-9096-B66C543921DF}"/>
+    <hyperlink ref="I88" r:id="rId6" xr:uid="{EB874686-962C-4E4B-91B9-B3B7808995B9}"/>
+    <hyperlink ref="I90" r:id="rId7" xr:uid="{CF0B4EE1-1631-4443-9E52-C031220B66C8}"/>
+    <hyperlink ref="I87" r:id="rId8" xr:uid="{4C6C2FB5-1E6E-4907-9A7E-7A75163055B3}"/>
+    <hyperlink ref="I91" r:id="rId9" xr:uid="{F13759A7-37C5-4868-BE00-A9A2AA1A6427}"/>
+    <hyperlink ref="I92" r:id="rId10" display="https://tushare.pro/document/2?doc_id=61_x000a_" xr:uid="{136A4CA4-2B04-436E-87A5-3625BCE7D1AB}"/>
+    <hyperlink ref="I86" r:id="rId11" xr:uid="{3C8EA0F9-4B8F-420F-92C3-890829EBA0BA}"/>
+    <hyperlink ref="I93" r:id="rId12" xr:uid="{ED473AF4-2385-4784-89D0-8A42591FD7C3}"/>
+    <hyperlink ref="I94" r:id="rId13" xr:uid="{ADFF3E2D-9B92-4909-8F30-F92F4B011C11}"/>
+    <hyperlink ref="I95" r:id="rId14" xr:uid="{CF7E5C1F-E387-4FB0-B0D6-7EAEA78F4A53}"/>
+    <hyperlink ref="I97" r:id="rId15" xr:uid="{0D706059-BC10-4AF2-8F2C-7AECC7C89E02}"/>
+    <hyperlink ref="I98" r:id="rId16" xr:uid="{D239DCD1-E708-47BC-97A3-CC2E31204801}"/>
+    <hyperlink ref="I99" r:id="rId17" xr:uid="{DEA46518-F439-4E6F-A9B3-079F2EDAC849}"/>
+    <hyperlink ref="I100" r:id="rId18" xr:uid="{FB32B6CB-7004-48B5-95AF-9C93562D1F24}"/>
+    <hyperlink ref="I83" r:id="rId19" xr:uid="{4A6EFE1E-BCD5-4C01-88B9-6F2138782F64}"/>
+    <hyperlink ref="I107" r:id="rId20" xr:uid="{66C3D3DB-CDF2-4561-80F9-C32D836FFEF9}"/>
+    <hyperlink ref="I108" r:id="rId21" xr:uid="{5289FC9B-73CE-45E9-8F29-02409CF117AA}"/>
+    <hyperlink ref="I109" r:id="rId22" xr:uid="{6DE0ACB7-EE59-4847-954E-FA5B0625B54C}"/>
+    <hyperlink ref="I110" r:id="rId23" xr:uid="{F3AFE09E-B88B-42AC-B346-786D3B19CA7B}"/>
+    <hyperlink ref="I111" r:id="rId24" xr:uid="{85B50EC9-6BD6-4A30-BA7B-E636E822C8EE}"/>
+    <hyperlink ref="I112" r:id="rId25" xr:uid="{B5D5E581-8BCE-4EB9-993B-9D7475B358B3}"/>
+    <hyperlink ref="I102" r:id="rId26" xr:uid="{361D72E8-CF3F-4F55-A546-0E12783FF0A6}"/>
+    <hyperlink ref="I103" r:id="rId27" xr:uid="{3E142BDC-9822-414E-84EB-23BF910935C5}"/>
+    <hyperlink ref="I104" r:id="rId28" xr:uid="{67015203-45CB-43CC-A981-1B7D9B3ABDB6}"/>
+    <hyperlink ref="I105" r:id="rId29" xr:uid="{4B0BDE94-1F63-4AE0-99D1-AA20D3E1D3E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8924AFE-53E3-45F4-ABEC-B722D122B93C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908EB43D-625C-4427-BA9D-017408E2151F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,26 @@
     <sheet name="Product Requirement - WHAT" sheetId="2" r:id="rId2"/>
     <sheet name="Feature - HOW" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="602">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,9 +783,6 @@
     <t>没有企业号，无法测试</t>
   </si>
   <si>
-    <t>终端服务</t>
-  </si>
-  <si>
     <t>用户可通过某种终端进行交互</t>
   </si>
   <si>
@@ -1922,6 +1928,86 @@
   </si>
   <si>
     <t>盯盘服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分析结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票代码不需要加上后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要输入股票代码的地方可以直接输入股票名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用：直接返回简略的分析结果和评分；同时给出完整分析结果的链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：“分析结果” + 股票代码；“分析结果”可以出现在股票代码或股票名的前面或后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           输入股票代码或股票名，如果正确且唯一，默认返回分析结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：“观察” + 股票代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用：将该股票加入观察列表，并将当前的价格作为基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置基准价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：“设置基准” + 股票代码 + 价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用：为股票设置观察的价格基准；如果该股票没有加入观察列表，则自动加入观察列表；如果没有价格参数，则使用当前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+”号分隔的部分实际应以空格分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置通知价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3072,8 +3158,8 @@
   </sheetPr>
   <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
@@ -3515,7 +3601,7 @@
     </row>
     <row r="52" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>214</v>
@@ -3523,7 +3609,7 @@
     </row>
     <row r="53" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>215</v>
@@ -3537,12 +3623,12 @@
         <v>210</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>215</v>
@@ -3599,7 +3685,7 @@
     </row>
     <row r="62" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>215</v>
@@ -3607,7 +3693,7 @@
     </row>
     <row r="63" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>215</v>
@@ -3628,13 +3714,13 @@
     </row>
     <row r="66" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="67" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3895,7 +3981,7 @@
     </row>
     <row r="117" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3905,71 +3991,71 @@
     </row>
     <row r="119" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E119" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F120" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F121" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E122" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F123" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F124" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F125" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E126" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E127" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E128" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E129" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E130" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3979,53 +4065,53 @@
     </row>
     <row r="132" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E132" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E135" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E136" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E138" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G138" s="4"/>
     </row>
@@ -4037,25 +4123,25 @@
     </row>
     <row r="140" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F140" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G142" s="4"/>
     </row>
@@ -4067,13 +4153,13 @@
     </row>
     <row r="144" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F144" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F145" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G145" s="4"/>
     </row>
@@ -4085,7 +4171,7 @@
     </row>
     <row r="147" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>189</v>
@@ -4094,13 +4180,13 @@
     </row>
     <row r="148" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E148" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E149" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G149" s="4"/>
     </row>
@@ -4112,13 +4198,13 @@
     </row>
     <row r="151" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E151" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E152" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G152" s="4"/>
     </row>
@@ -4146,10 +4232,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L232"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H232" sqref="H232"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4194,7 +4280,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4203,7 +4289,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4298,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4221,7 +4307,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4230,10 +4316,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4242,10 +4328,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" t="s">
         <v>384</v>
-      </c>
-      <c r="G9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4254,10 +4340,10 @@
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" t="s">
         <v>386</v>
-      </c>
-      <c r="G10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4266,7 +4352,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4275,7 +4361,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4284,10 +4370,10 @@
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4296,7 +4382,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4305,7 +4391,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4314,7 +4400,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4322,7 +4408,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,7 +4416,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4339,7 +4425,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4348,10 +4434,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4360,7 +4446,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4375,7 +4461,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4384,7 +4470,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4393,7 +4479,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4402,7 +4488,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4417,7 +4503,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4426,7 +4512,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="G29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4435,7 +4521,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="G30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4444,7 +4530,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="G31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4453,7 +4539,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4462,7 +4548,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4471,7 +4557,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="G34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4480,7 +4566,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4489,58 +4575,58 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L41" t="s">
         <v>214</v>
@@ -4548,19 +4634,19 @@
     </row>
     <row r="42" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L42" t="s">
         <v>214</v>
@@ -4568,19 +4654,19 @@
     </row>
     <row r="43" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L43" t="s">
         <v>214</v>
@@ -4588,19 +4674,19 @@
     </row>
     <row r="44" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G44" t="s">
+        <v>276</v>
+      </c>
+      <c r="H44" t="s">
+        <v>310</v>
+      </c>
+      <c r="I44" t="s">
         <v>277</v>
       </c>
-      <c r="H44" t="s">
-        <v>311</v>
-      </c>
-      <c r="I44" t="s">
-        <v>278</v>
-      </c>
       <c r="J44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L44" t="s">
         <v>215</v>
@@ -4608,19 +4694,19 @@
     </row>
     <row r="45" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
+        <v>279</v>
+      </c>
+      <c r="H45" t="s">
+        <v>310</v>
+      </c>
+      <c r="I45" t="s">
         <v>280</v>
       </c>
-      <c r="H45" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45" t="s">
-        <v>281</v>
-      </c>
       <c r="J45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L45" t="s">
         <v>215</v>
@@ -4628,19 +4714,19 @@
     </row>
     <row r="46" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
+      </c>
+      <c r="I46" t="s">
         <v>282</v>
       </c>
-      <c r="H46" t="s">
-        <v>311</v>
-      </c>
-      <c r="I46" t="s">
-        <v>283</v>
-      </c>
       <c r="J46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L46" t="s">
         <v>214</v>
@@ -4648,16 +4734,16 @@
     </row>
     <row r="47" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s">
         <v>214</v>
@@ -4665,19 +4751,19 @@
     </row>
     <row r="48" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" t="s">
         <v>285</v>
       </c>
-      <c r="H48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I48" t="s">
-        <v>286</v>
-      </c>
       <c r="J48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L48" t="s">
         <v>214</v>
@@ -4685,19 +4771,19 @@
     </row>
     <row r="49" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L49" t="s">
         <v>214</v>
@@ -4705,19 +4791,19 @@
     </row>
     <row r="50" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L50" t="s">
         <v>214</v>
@@ -4725,19 +4811,19 @@
     </row>
     <row r="51" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L51" t="s">
         <v>214</v>
@@ -4745,19 +4831,19 @@
     </row>
     <row r="52" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L52" t="s">
         <v>214</v>
@@ -4765,19 +4851,19 @@
     </row>
     <row r="53" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L53" t="s">
         <v>214</v>
@@ -4785,16 +4871,16 @@
     </row>
     <row r="54" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G54" t="s">
+        <v>293</v>
+      </c>
+      <c r="H54" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" t="s">
         <v>294</v>
-      </c>
-      <c r="H54" t="s">
-        <v>311</v>
-      </c>
-      <c r="I54" t="s">
-        <v>295</v>
       </c>
       <c r="L54" t="s">
         <v>214</v>
@@ -4802,16 +4888,16 @@
     </row>
     <row r="55" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s">
         <v>214</v>
@@ -4819,16 +4905,16 @@
     </row>
     <row r="56" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s">
         <v>214</v>
@@ -4836,19 +4922,19 @@
     </row>
     <row r="57" spans="6:12" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G57" t="s">
+        <v>298</v>
+      </c>
+      <c r="H57" t="s">
+        <v>311</v>
+      </c>
+      <c r="I57" t="s">
         <v>299</v>
       </c>
-      <c r="H57" t="s">
-        <v>312</v>
-      </c>
-      <c r="I57" t="s">
-        <v>300</v>
-      </c>
       <c r="K57" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s">
         <v>214</v>
@@ -4856,19 +4942,19 @@
     </row>
     <row r="58" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L58" t="s">
         <v>214</v>
@@ -4876,19 +4962,19 @@
     </row>
     <row r="59" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J59" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L59" t="s">
         <v>214</v>
@@ -4896,19 +4982,19 @@
     </row>
     <row r="60" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J60" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L60" t="s">
         <v>214</v>
@@ -4916,16 +5002,16 @@
     </row>
     <row r="61" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L61" t="s">
         <v>214</v>
@@ -4933,16 +5019,16 @@
     </row>
     <row r="62" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L62" t="s">
         <v>214</v>
@@ -4950,16 +5036,16 @@
     </row>
     <row r="63" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G63" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" t="s">
         <v>306</v>
-      </c>
-      <c r="H63" t="s">
-        <v>311</v>
-      </c>
-      <c r="I63" t="s">
-        <v>307</v>
       </c>
       <c r="L63" t="s">
         <v>214</v>
@@ -4968,245 +5054,245 @@
     <row r="64" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="65" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J67" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L68" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="70" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G70" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J70" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L70" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
         <v>549</v>
       </c>
-      <c r="G74" t="s">
-        <v>550</v>
-      </c>
       <c r="H74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L74" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
+        <v>550</v>
+      </c>
+      <c r="G75" t="s">
         <v>551</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" t="s">
         <v>552</v>
       </c>
-      <c r="H75" t="s">
-        <v>311</v>
-      </c>
-      <c r="I75" t="s">
-        <v>553</v>
-      </c>
       <c r="J75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="77" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="5:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="81" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" t="s">
         <v>266</v>
       </c>
-      <c r="H81" t="s">
-        <v>267</v>
-      </c>
       <c r="I81" t="s">
+        <v>337</v>
+      </c>
+      <c r="J81" t="s">
         <v>338</v>
       </c>
-      <c r="J81" t="s">
-        <v>339</v>
-      </c>
       <c r="K81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="K82" t="s">
         <v>214</v>
@@ -5214,13 +5300,13 @@
     </row>
     <row r="83" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
+        <v>269</v>
+      </c>
+      <c r="H83" t="s">
         <v>270</v>
       </c>
-      <c r="H83" t="s">
-        <v>271</v>
-      </c>
       <c r="I83" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K83" t="s">
         <v>214</v>
@@ -5228,13 +5314,13 @@
     </row>
     <row r="84" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
+        <v>339</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="K84" t="s">
         <v>214</v>
@@ -5242,13 +5328,13 @@
     </row>
     <row r="85" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H85" t="s">
+        <v>341</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="K85" t="s">
         <v>214</v>
@@ -5256,13 +5342,13 @@
     </row>
     <row r="86" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H86" t="s">
+        <v>360</v>
+      </c>
+      <c r="I86" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="K86" t="s">
         <v>214</v>
@@ -5270,13 +5356,13 @@
     </row>
     <row r="87" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K87" t="s">
         <v>214</v>
@@ -5284,13 +5370,13 @@
     </row>
     <row r="88" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H88" t="s">
+        <v>347</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="K88" t="s">
         <v>214</v>
@@ -5298,13 +5384,13 @@
     </row>
     <row r="89" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K89" t="s">
         <v>214</v>
@@ -5312,13 +5398,13 @@
     </row>
     <row r="90" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K90" t="s">
         <v>214</v>
@@ -5326,13 +5412,13 @@
     </row>
     <row r="91" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H91" t="s">
+        <v>352</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="K91" t="s">
         <v>214</v>
@@ -5340,13 +5426,13 @@
     </row>
     <row r="92" spans="7:11" ht="41.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H92" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I92" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="K92" t="s">
         <v>214</v>
@@ -5354,13 +5440,13 @@
     </row>
     <row r="93" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H93" t="s">
+        <v>362</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="K93" t="s">
         <v>214</v>
@@ -5368,13 +5454,13 @@
     </row>
     <row r="94" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H94" t="s">
+        <v>364</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="K94" t="s">
         <v>214</v>
@@ -5382,13 +5468,13 @@
     </row>
     <row r="95" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H95" t="s">
+        <v>366</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="K95" t="s">
         <v>214</v>
@@ -5396,13 +5482,13 @@
     </row>
     <row r="96" spans="7:11" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K96" t="s">
         <v>214</v>
@@ -5410,13 +5496,13 @@
     </row>
     <row r="97" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H97" t="s">
+        <v>368</v>
+      </c>
+      <c r="I97" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="K97" t="s">
         <v>214</v>
@@ -5424,13 +5510,13 @@
     </row>
     <row r="98" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H98" t="s">
+        <v>370</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="K98" t="s">
         <v>214</v>
@@ -5438,13 +5524,13 @@
     </row>
     <row r="99" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K99" t="s">
         <v>214</v>
@@ -5452,13 +5538,13 @@
     </row>
     <row r="100" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H100" t="s">
+        <v>373</v>
+      </c>
+      <c r="I100" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="K100" t="s">
         <v>214</v>
@@ -5469,58 +5555,58 @@
     </row>
     <row r="102" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H102" t="s">
+        <v>565</v>
+      </c>
+      <c r="I102" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>567</v>
-      </c>
       <c r="K102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H103" t="s">
+        <v>567</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="K103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H104" t="s">
+        <v>569</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>571</v>
-      </c>
       <c r="K104" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H105" t="s">
+        <v>571</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="K105" t="s">
         <v>573</v>
-      </c>
-      <c r="K105" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="106" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5528,86 +5614,86 @@
     </row>
     <row r="107" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H107" t="s">
+        <v>553</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="I107" s="5" t="s">
-        <v>555</v>
-      </c>
       <c r="K107" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H108" t="s">
+        <v>555</v>
+      </c>
+      <c r="I108" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="I108" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="K108" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H109" t="s">
+        <v>557</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="K109" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H110" t="s">
+        <v>559</v>
+      </c>
+      <c r="I110" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="K110" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H112" t="s">
+        <v>563</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="I112" s="5" t="s">
-        <v>565</v>
-      </c>
       <c r="K112" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5615,50 +5701,50 @@
     </row>
     <row r="114" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I114" s="5"/>
       <c r="K114" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K120" t="s">
         <v>215</v>
@@ -5666,13 +5752,13 @@
     </row>
     <row r="121" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K121" t="s">
         <v>215</v>
@@ -5681,131 +5767,131 @@
     <row r="122" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="129" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H134" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H135" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H136" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
+        <v>432</v>
+      </c>
+      <c r="H138" t="s">
         <v>433</v>
-      </c>
-      <c r="H138" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="139" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="5:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H141" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I141" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="5:9" ht="55.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I142" t="s">
         <v>214</v>
@@ -5813,10 +5899,10 @@
     </row>
     <row r="143" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I143" t="s">
         <v>214</v>
@@ -5824,7 +5910,7 @@
     </row>
     <row r="144" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I144" t="s">
         <v>214</v>
@@ -5832,10 +5918,10 @@
     </row>
     <row r="145" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H145" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I145" t="s">
         <v>214</v>
@@ -5843,10 +5929,10 @@
     </row>
     <row r="146" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H146" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I146" t="s">
         <v>214</v>
@@ -5854,10 +5940,10 @@
     </row>
     <row r="147" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H147" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I147" t="s">
         <v>214</v>
@@ -5865,7 +5951,7 @@
     </row>
     <row r="148" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I148" t="s">
         <v>214</v>
@@ -5873,7 +5959,7 @@
     </row>
     <row r="149" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I149" t="s">
         <v>214</v>
@@ -5881,7 +5967,7 @@
     </row>
     <row r="150" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I150" t="s">
         <v>214</v>
@@ -5889,7 +5975,7 @@
     </row>
     <row r="151" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I151" t="s">
         <v>214</v>
@@ -5897,7 +5983,7 @@
     </row>
     <row r="152" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I152" t="s">
         <v>214</v>
@@ -5905,7 +5991,7 @@
     </row>
     <row r="153" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I153" t="s">
         <v>214</v>
@@ -5913,7 +5999,7 @@
     </row>
     <row r="154" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I154" t="s">
         <v>214</v>
@@ -5921,7 +6007,7 @@
     </row>
     <row r="155" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I155" t="s">
         <v>214</v>
@@ -5929,7 +6015,7 @@
     </row>
     <row r="156" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I156" t="s">
         <v>214</v>
@@ -5937,7 +6023,7 @@
     </row>
     <row r="157" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I157" t="s">
         <v>214</v>
@@ -5945,7 +6031,7 @@
     </row>
     <row r="158" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I158" t="s">
         <v>214</v>
@@ -5953,7 +6039,7 @@
     </row>
     <row r="159" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I159" t="s">
         <v>214</v>
@@ -5961,7 +6047,7 @@
     </row>
     <row r="160" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I160" t="s">
         <v>214</v>
@@ -5969,7 +6055,7 @@
     </row>
     <row r="161" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I161" t="s">
         <v>215</v>
@@ -5977,7 +6063,7 @@
     </row>
     <row r="162" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I162" t="s">
         <v>215</v>
@@ -5985,7 +6071,7 @@
     </row>
     <row r="163" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I163" t="s">
         <v>215</v>
@@ -5993,10 +6079,10 @@
     </row>
     <row r="164" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
+        <v>461</v>
+      </c>
+      <c r="H164" t="s">
         <v>462</v>
-      </c>
-      <c r="H164" t="s">
-        <v>463</v>
       </c>
       <c r="I164" t="s">
         <v>215</v>
@@ -6005,13 +6091,13 @@
     <row r="165" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="166" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="4:9" x14ac:dyDescent="0.25">
@@ -6021,331 +6107,426 @@
     </row>
     <row r="170" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
+        <v>471</v>
+      </c>
+      <c r="G171" t="s">
         <v>472</v>
-      </c>
-      <c r="G171" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="172" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H178" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H179" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="180" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G180" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H180" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H181" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H182" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H183" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="184" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H184" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G185" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F188" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F189" s="7"/>
       <c r="G189" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F190" s="7"/>
       <c r="G190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
+        <v>491</v>
+      </c>
+      <c r="G196" t="s">
         <v>492</v>
-      </c>
-      <c r="G196" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="197" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
+        <v>489</v>
+      </c>
+      <c r="G197" t="s">
         <v>490</v>
-      </c>
-      <c r="G197" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="198" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
+        <v>493</v>
+      </c>
+      <c r="G198" t="s">
         <v>494</v>
-      </c>
-      <c r="G198" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="199" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="200" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
+        <v>495</v>
+      </c>
+      <c r="G200" t="s">
         <v>496</v>
-      </c>
-      <c r="G200" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="201" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G201" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G202" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F203" t="s">
+        <v>501</v>
+      </c>
+      <c r="G203" t="s">
         <v>502</v>
-      </c>
-      <c r="G203" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="204" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
+        <v>503</v>
+      </c>
+      <c r="G204" t="s">
         <v>504</v>
-      </c>
-      <c r="G204" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="205" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
+        <v>505</v>
+      </c>
+      <c r="G205" t="s">
         <v>506</v>
-      </c>
-      <c r="G205" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="206" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
+        <v>507</v>
+      </c>
+      <c r="G206" t="s">
         <v>508</v>
-      </c>
-      <c r="G206" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="207" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
+        <v>509</v>
+      </c>
+      <c r="G207" t="s">
         <v>510</v>
-      </c>
-      <c r="G207" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="208" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="209" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G209" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F210" t="s">
+        <v>512</v>
+      </c>
+      <c r="G210" t="s">
         <v>513</v>
-      </c>
-      <c r="G210" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="211" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
+        <v>515</v>
+      </c>
+      <c r="G211" t="s">
         <v>516</v>
-      </c>
-      <c r="G211" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="212" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
+        <v>517</v>
+      </c>
+      <c r="G212" t="s">
         <v>518</v>
-      </c>
-      <c r="G212" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="213" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
+        <v>519</v>
+      </c>
+      <c r="G213" t="s">
         <v>520</v>
-      </c>
-      <c r="G213" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="214" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F214" t="s">
+        <v>521</v>
+      </c>
+      <c r="G214" t="s">
         <v>522</v>
-      </c>
-      <c r="G214" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="215" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
+        <v>523</v>
+      </c>
+      <c r="G215" t="s">
         <v>524</v>
-      </c>
-      <c r="G215" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="216" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="218" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="221" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
-        <v>582</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F259" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F263" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Requirements.xlsx
+++ b/Doc/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Code\git\StockAnalysisSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Private\Code\git\StockAnalysisSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908EB43D-625C-4427-BA9D-017408E2151F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0CFC0-1A09-4CC4-BC48-227790E8577D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Requirement - WHY" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="605">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2010,22 +2009,31 @@
     <t>推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>支持项目</t>
+  </si>
+  <si>
+    <t>格式："支持" "打赏" "捐助"</t>
+  </si>
+  <si>
+    <t>作用：发送微信收款码</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2034,7 +2042,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2090,8 +2098,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2378,20 +2386,20 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="30">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" outlineLevel="1">
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="60" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" outlineLevel="2">
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2484,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2495,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" outlineLevel="2">
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" outlineLevel="1">
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" outlineLevel="2">
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" outlineLevel="2">
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" outlineLevel="1">
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" outlineLevel="2">
       <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2546,7 +2554,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" outlineLevel="2">
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2562,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" outlineLevel="1">
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" outlineLevel="2">
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" outlineLevel="2">
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2586,7 +2594,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" outlineLevel="2">
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" outlineLevel="1">
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2602,7 +2610,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" outlineLevel="2">
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" outlineLevel="2">
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" outlineLevel="2">
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" outlineLevel="2">
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" outlineLevel="1">
       <c r="D28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" outlineLevel="2">
       <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" outlineLevel="2">
       <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" outlineLevel="2">
       <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
@@ -2666,7 +2674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" outlineLevel="2">
       <c r="E32" s="1" t="s">
         <v>121</v>
       </c>
@@ -2674,7 +2682,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" outlineLevel="1">
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" outlineLevel="2">
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2701,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="30" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" outlineLevel="2">
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="55.2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" ht="60" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" outlineLevel="1">
       <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" outlineLevel="2">
       <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" outlineLevel="2">
       <c r="E40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2783,7 +2791,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" outlineLevel="2">
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2791,7 +2799,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" outlineLevel="1">
       <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8">
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" outlineLevel="1">
       <c r="D47" s="1" t="s">
         <v>54</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" outlineLevel="2">
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2823,7 +2831,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" outlineLevel="2">
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" outlineLevel="2">
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" outlineLevel="2">
       <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2847,7 +2855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" outlineLevel="2">
       <c r="E52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" outlineLevel="2">
       <c r="E53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2863,7 +2871,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" outlineLevel="2">
       <c r="E54" s="1" t="s">
         <v>60</v>
       </c>
@@ -2871,12 +2879,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" outlineLevel="1">
       <c r="D55" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" outlineLevel="2">
       <c r="E56" s="1" t="s">
         <v>181</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" outlineLevel="2">
       <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" outlineLevel="2">
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" outlineLevel="1">
       <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" outlineLevel="2">
       <c r="E60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" outlineLevel="2">
       <c r="E61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" outlineLevel="2">
       <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" outlineLevel="2">
       <c r="E63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" outlineLevel="2">
       <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" outlineLevel="1">
       <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" outlineLevel="2">
       <c r="E66" s="1" t="s">
         <v>188</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" outlineLevel="2">
       <c r="E67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" outlineLevel="2">
       <c r="E68" s="1" t="s">
         <v>182</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8" outlineLevel="1">
       <c r="D69" s="1" t="s">
         <v>189</v>
       </c>
@@ -2991,7 +2999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:8" outlineLevel="2">
       <c r="E70" s="1" t="s">
         <v>191</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:8" outlineLevel="2">
       <c r="E71" s="1" t="s">
         <v>198</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:8" outlineLevel="2">
       <c r="E72" s="1" t="s">
         <v>194</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:8" outlineLevel="2">
       <c r="E73" s="1" t="s">
         <v>195</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:8" outlineLevel="2">
       <c r="F74" s="1" t="s">
         <v>197</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:8" outlineLevel="2">
       <c r="F75" s="1" t="s">
         <v>203</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:8" outlineLevel="2">
       <c r="F76" s="1" t="s">
         <v>202</v>
       </c>
@@ -3050,7 +3058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:8" outlineLevel="2">
       <c r="E77" s="1" t="s">
         <v>196</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:8" outlineLevel="2">
       <c r="F78" s="1" t="s">
         <v>199</v>
       </c>
@@ -3066,7 +3074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:8" outlineLevel="2">
       <c r="F79" s="1" t="s">
         <v>200</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8" outlineLevel="2">
       <c r="F80" s="1" t="s">
         <v>201</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" outlineLevel="2">
       <c r="F81" s="1" t="s">
         <v>204</v>
       </c>
@@ -3090,12 +3098,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" outlineLevel="1">
       <c r="D82" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" outlineLevel="2">
       <c r="E83" s="1" t="s">
         <v>192</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" outlineLevel="2">
       <c r="E84" s="1" t="s">
         <v>218</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" outlineLevel="2">
       <c r="E85" s="1" t="s">
         <v>219</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" outlineLevel="2">
       <c r="E86" s="1" t="s">
         <v>194</v>
       </c>
@@ -3130,7 +3138,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="3:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" outlineLevel="2">
       <c r="E87" s="1" t="s">
         <v>205</v>
       </c>
@@ -3138,8 +3146,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" outlineLevel="1"/>
+    <row r="89" spans="3:8" outlineLevel="1">
       <c r="C89" s="3" t="s">
         <v>55</v>
       </c>
@@ -3162,19 +3170,19 @@
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -3193,7 +3201,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" outlineLevel="1">
       <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" outlineLevel="2">
       <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" outlineLevel="2">
       <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" outlineLevel="2">
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="45" outlineLevel="2">
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="45" outlineLevel="2">
       <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3253,12 +3261,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" outlineLevel="1">
       <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" outlineLevel="2">
       <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="45" outlineLevel="2">
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" outlineLevel="2">
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" outlineLevel="2">
       <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" outlineLevel="2">
       <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="2:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" outlineLevel="2">
       <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
@@ -3318,7 +3326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" outlineLevel="2">
       <c r="E17" s="1" t="s">
         <v>105</v>
       </c>
@@ -3326,13 +3334,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" outlineLevel="1">
       <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" outlineLevel="2">
       <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" ht="45" outlineLevel="2">
       <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
@@ -3351,7 +3359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" outlineLevel="1">
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" outlineLevel="2">
       <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" outlineLevel="2">
       <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" outlineLevel="2">
       <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" outlineLevel="2">
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3391,12 +3399,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" outlineLevel="1">
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" outlineLevel="2">
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
@@ -3404,7 +3412,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" outlineLevel="2">
       <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
@@ -3412,12 +3420,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" outlineLevel="1">
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" outlineLevel="2">
       <c r="E30" s="1" t="s">
         <v>96</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" outlineLevel="2">
       <c r="E31" s="1" t="s">
         <v>97</v>
       </c>
@@ -3433,7 +3441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" outlineLevel="2">
       <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" outlineLevel="2">
       <c r="E33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3449,7 +3457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" outlineLevel="2">
       <c r="E34" s="1" t="s">
         <v>100</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" outlineLevel="2">
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" outlineLevel="1">
       <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3473,7 +3481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" outlineLevel="2">
       <c r="E37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" outlineLevel="2">
       <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" outlineLevel="2">
       <c r="E39" s="1" t="s">
         <v>105</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" outlineLevel="1">
       <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="41.4" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" ht="45" outlineLevel="2">
       <c r="E41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="69" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" ht="75" outlineLevel="2">
       <c r="E42" s="1" t="s">
         <v>110</v>
       </c>
@@ -3527,7 +3535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" ht="30" outlineLevel="2">
       <c r="E43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3538,7 +3546,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" outlineLevel="1">
       <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
@@ -3546,12 +3554,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7" outlineLevel="2">
       <c r="E45" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7" outlineLevel="2">
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7" outlineLevel="2">
       <c r="E47" s="1" t="s">
         <v>122</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7" outlineLevel="3">
       <c r="F48" s="1" t="s">
         <v>107</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" outlineLevel="3">
       <c r="F49" s="1" t="s">
         <v>113</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:8" outlineLevel="3">
       <c r="F50" s="1" t="s">
         <v>114</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:8" outlineLevel="3">
       <c r="F51" s="1" t="s">
         <v>115</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:8" outlineLevel="3">
       <c r="F52" s="1" t="s">
         <v>253</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" outlineLevel="3">
       <c r="F53" s="1" t="s">
         <v>254</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="27.6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" ht="30" outlineLevel="3">
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
@@ -3626,7 +3634,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" outlineLevel="3">
       <c r="F55" s="1" t="s">
         <v>256</v>
       </c>
@@ -3635,7 +3643,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="4:8" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:8" outlineLevel="3">
       <c r="E56" s="1" t="s">
         <v>179</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:8" outlineLevel="1">
       <c r="D57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:8" outlineLevel="2">
       <c r="E58" s="1" t="s">
         <v>125</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:8" outlineLevel="2">
       <c r="E59" s="1" t="s">
         <v>126</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:8" outlineLevel="2">
       <c r="E60" s="1" t="s">
         <v>127</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:8" outlineLevel="2">
       <c r="E61" s="1" t="s">
         <v>128</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:8" outlineLevel="2">
       <c r="E62" s="1" t="s">
         <v>257</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:8" outlineLevel="2">
       <c r="E63" s="1" t="s">
         <v>258</v>
       </c>
@@ -3699,12 +3707,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:8" outlineLevel="1">
       <c r="D64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:7" outlineLevel="2">
       <c r="E65" s="1" t="s">
         <v>129</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:7" outlineLevel="2">
       <c r="E66" s="1" t="s">
         <v>259</v>
       </c>
@@ -3723,17 +3731,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7" outlineLevel="2">
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:7" outlineLevel="2">
       <c r="E68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:7" outlineLevel="2">
       <c r="E69" s="1" t="s">
         <v>133</v>
       </c>
@@ -3741,37 +3749,37 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:7" outlineLevel="2">
       <c r="E70" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:7" outlineLevel="2">
       <c r="E71" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:7" outlineLevel="2">
       <c r="E72" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:7" outlineLevel="2">
       <c r="E73" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:7" outlineLevel="1">
       <c r="D74" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:7" outlineLevel="2">
       <c r="E75" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:7" outlineLevel="2">
       <c r="E76" s="1" t="s">
         <v>151</v>
       </c>
@@ -3779,257 +3787,257 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:7" outlineLevel="2">
       <c r="E77" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:7" outlineLevel="3">
       <c r="F78" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:7" outlineLevel="3">
       <c r="F79" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="4:7" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:7" outlineLevel="3">
       <c r="F80" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" outlineLevel="1">
       <c r="D81" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" outlineLevel="2">
       <c r="E82" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" outlineLevel="2">
       <c r="E83" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" outlineLevel="3">
       <c r="F84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" outlineLevel="3">
       <c r="F85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" outlineLevel="3">
       <c r="F86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" outlineLevel="3">
       <c r="F87" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" outlineLevel="3">
       <c r="F88" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="4:6" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" outlineLevel="3">
       <c r="F89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" outlineLevel="2">
       <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" outlineLevel="1">
       <c r="D91" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6" outlineLevel="2">
       <c r="E92" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6" outlineLevel="2">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6" outlineLevel="2">
       <c r="E94" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6" outlineLevel="2">
       <c r="E95" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" outlineLevel="2">
       <c r="E96" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" outlineLevel="1">
       <c r="D97" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" outlineLevel="2">
       <c r="E98" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" outlineLevel="2">
       <c r="E99" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" outlineLevel="1">
       <c r="C100" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6">
       <c r="C101" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" outlineLevel="1">
       <c r="D102" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" outlineLevel="2">
       <c r="E103" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" outlineLevel="2">
       <c r="E104" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" outlineLevel="2">
       <c r="E105" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" outlineLevel="2">
       <c r="E106" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" outlineLevel="2">
       <c r="F107" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" outlineLevel="2">
       <c r="F108" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" outlineLevel="2">
       <c r="F109" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" outlineLevel="2">
       <c r="E110" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" outlineLevel="2">
       <c r="E111" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" outlineLevel="2">
       <c r="E112" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" outlineLevel="2">
       <c r="E113" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" outlineLevel="2">
       <c r="E114" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" outlineLevel="2">
       <c r="E115" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" outlineLevel="1">
       <c r="D116" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" outlineLevel="2">
       <c r="E117" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" outlineLevel="1">
       <c r="D118" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" outlineLevel="2">
       <c r="E119" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" outlineLevel="2">
       <c r="F120" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" outlineLevel="2">
       <c r="F121" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" outlineLevel="2">
       <c r="E122" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" outlineLevel="2">
       <c r="F123" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" outlineLevel="2">
       <c r="F124" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" outlineLevel="2">
       <c r="F125" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" outlineLevel="2">
       <c r="E126" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" outlineLevel="2">
       <c r="E127" s="1" t="s">
         <v>231</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="4:6" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" outlineLevel="2">
       <c r="E128" s="1" t="s">
         <v>232</v>
       </c>
@@ -4045,7 +4053,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" outlineLevel="2">
       <c r="E129" s="1" t="s">
         <v>233</v>
       </c>
@@ -4053,27 +4061,27 @@
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" outlineLevel="2">
       <c r="E130" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" outlineLevel="1">
       <c r="D131" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" outlineLevel="2">
       <c r="E132" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" outlineLevel="2">
       <c r="E133" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" outlineLevel="1">
       <c r="D134" s="1" t="s">
         <v>582</v>
       </c>
@@ -4082,7 +4090,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" outlineLevel="2">
       <c r="E135" s="1" t="s">
         <v>221</v>
       </c>
@@ -4091,7 +4099,7 @@
       </c>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" outlineLevel="2">
       <c r="E136" s="1" t="s">
         <v>239</v>
       </c>
@@ -4100,7 +4108,7 @@
       </c>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" outlineLevel="2">
       <c r="A137" s="1" t="s">
         <v>238</v>
       </c>
@@ -4109,25 +4117,25 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" outlineLevel="2">
       <c r="E138" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" outlineLevel="2">
       <c r="E139" s="1" t="s">
         <v>195</v>
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" outlineLevel="2">
       <c r="F140" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" outlineLevel="2">
       <c r="A141" s="1" t="s">
         <v>238</v>
       </c>
@@ -4136,7 +4144,7 @@
       </c>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" outlineLevel="2">
       <c r="A142" s="1" t="s">
         <v>238</v>
       </c>
@@ -4145,31 +4153,31 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" outlineLevel="2">
       <c r="E143" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" outlineLevel="2">
       <c r="F144" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" outlineLevel="2">
       <c r="F145" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" outlineLevel="2">
       <c r="F146" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" outlineLevel="1">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
@@ -4178,43 +4186,43 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" outlineLevel="2">
       <c r="E148" s="1" t="s">
         <v>249</v>
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" outlineLevel="2">
       <c r="E149" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" outlineLevel="1">
       <c r="D150" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" outlineLevel="2">
       <c r="E151" s="1" t="s">
         <v>249</v>
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" outlineLevel="2">
       <c r="E152" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" outlineLevel="1">
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" outlineLevel="1">
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" outlineLevel="1">
       <c r="C155" s="3" t="s">
         <v>55</v>
       </c>
@@ -4232,34 +4240,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L266"/>
+  <dimension ref="A1:L269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -4267,7 +4275,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -4275,7 +4283,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" collapsed="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -4283,7 +4291,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -4292,7 +4300,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -4301,7 +4309,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -4310,7 +4318,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -4322,7 +4330,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -4334,7 +4342,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -4346,7 +4354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -4355,7 +4363,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -4364,7 +4372,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -4376,7 +4384,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -4385,7 +4393,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -4394,7 +4402,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -4403,7 +4411,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -4411,7 +4419,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4419,7 +4427,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" outlineLevel="1" collapsed="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4428,7 +4436,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4440,7 +4448,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4449,13 +4457,13 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4464,7 +4472,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4473,7 +4481,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4482,7 +4490,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4491,13 +4499,13 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4506,7 +4514,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4515,7 +4523,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4524,7 +4532,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4533,7 +4541,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" outlineLevel="2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4542,7 +4550,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4551,7 +4559,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4560,7 +4568,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4569,7 +4577,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" outlineLevel="2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4578,18 +4586,18 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" outlineLevel="1" collapsed="1">
       <c r="E37" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F38" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" outlineLevel="2"/>
+    <row r="40" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F40" t="s">
         <v>292</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F41" t="s">
         <v>313</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F42" t="s">
         <v>314</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F43" t="s">
         <v>315</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F44" t="s">
         <v>316</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F45" t="s">
         <v>317</v>
       </c>
@@ -4712,7 +4720,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F46" t="s">
         <v>318</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F47" t="s">
         <v>319</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" outlineLevel="2">
       <c r="F48" t="s">
         <v>320</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F49" t="s">
         <v>321</v>
       </c>
@@ -4789,7 +4797,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F50" t="s">
         <v>323</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F51" t="s">
         <v>322</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F52" t="s">
         <v>324</v>
       </c>
@@ -4849,7 +4857,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F53" t="s">
         <v>325</v>
       </c>
@@ -4869,7 +4877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F54" t="s">
         <v>326</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F55" t="s">
         <v>327</v>
       </c>
@@ -4903,7 +4911,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F56" t="s">
         <v>328</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="6:12" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:12" ht="30" hidden="1" outlineLevel="2">
       <c r="F57" t="s">
         <v>329</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F58" t="s">
         <v>330</v>
       </c>
@@ -4960,7 +4968,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F59" t="s">
         <v>331</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F60" t="s">
         <v>332</v>
       </c>
@@ -5000,7 +5008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F61" t="s">
         <v>333</v>
       </c>
@@ -5017,7 +5025,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F62" t="s">
         <v>334</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:12" hidden="1" outlineLevel="2">
       <c r="F63" t="s">
         <v>335</v>
       </c>
@@ -5051,8 +5059,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="6:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:12" hidden="1" outlineLevel="2"/>
+    <row r="65" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F65" t="s">
         <v>535</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F66" t="s">
         <v>529</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="67" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F67" t="s">
         <v>532</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="68" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F68" t="s">
         <v>533</v>
       </c>
@@ -5129,8 +5137,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" hidden="1" outlineLevel="2"/>
+    <row r="70" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F70" t="s">
         <v>544</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="71" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F71" t="s">
         <v>545</v>
       </c>
@@ -5170,7 +5178,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="72" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F72" t="s">
         <v>547</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F73" t="s">
         <v>546</v>
       </c>
@@ -5210,7 +5218,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F74" t="s">
         <v>548</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="75" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F75" t="s">
         <v>550</v>
       </c>
@@ -5250,24 +5258,24 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" hidden="1" outlineLevel="2"/>
+    <row r="77" spans="5:12" hidden="1" outlineLevel="2">
       <c r="E77" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="5:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" outlineLevel="1" collapsed="1">
       <c r="E78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" hidden="1" outlineLevel="2">
       <c r="F79" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="5:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" hidden="1" outlineLevel="2"/>
+    <row r="81" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G81" t="s">
         <v>265</v>
       </c>
@@ -5284,7 +5292,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G82" t="s">
         <v>268</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G83" t="s">
         <v>269</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G84" t="s">
         <v>271</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G85" t="s">
         <v>281</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G86" t="s">
         <v>283</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G87" t="s">
         <v>284</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G88" t="s">
         <v>286</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G89" t="s">
         <v>287</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G90" t="s">
         <v>288</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G91" t="s">
         <v>289</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="7:11" ht="41.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:11" ht="45" hidden="1" outlineLevel="2">
       <c r="G92" t="s">
         <v>291</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G93" t="s">
         <v>293</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G94" t="s">
         <v>295</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G95" t="s">
         <v>296</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="7:11" ht="27.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:11" ht="30" hidden="1" outlineLevel="2">
       <c r="G96" t="s">
         <v>298</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G97" t="s">
         <v>300</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G98" t="s">
         <v>301</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G99" t="s">
         <v>304</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G100" t="s">
         <v>305</v>
       </c>
@@ -5550,10 +5558,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:11" hidden="1" outlineLevel="2">
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G102" t="s">
         <v>526</v>
       </c>
@@ -5567,7 +5575,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="103" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G103" t="s">
         <v>525</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="104" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G104" t="s">
         <v>528</v>
       </c>
@@ -5595,7 +5603,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="105" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G105" t="s">
         <v>527</v>
       </c>
@@ -5609,10 +5617,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="106" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:11" hidden="1" outlineLevel="2">
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G107" t="s">
         <v>540</v>
       </c>
@@ -5626,7 +5634,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="108" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G108" t="s">
         <v>541</v>
       </c>
@@ -5640,7 +5648,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G109" t="s">
         <v>543</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G110" t="s">
         <v>542</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="111" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G111" t="s">
         <v>549</v>
       </c>
@@ -5682,7 +5690,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="112" spans="7:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:11" hidden="1" outlineLevel="2">
       <c r="G112" t="s">
         <v>551</v>
       </c>
@@ -5696,10 +5704,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="113" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:11" hidden="1" outlineLevel="2">
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:11" hidden="1" outlineLevel="2">
       <c r="F114" t="s">
         <v>463</v>
       </c>
@@ -5708,27 +5716,27 @@
         <v>464</v>
       </c>
     </row>
-    <row r="115" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:11" hidden="1" outlineLevel="2">
       <c r="E115" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:11" outlineLevel="1" collapsed="1">
       <c r="E116" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:11" hidden="1" outlineLevel="2">
       <c r="E117" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:11" outlineLevel="1" collapsed="1">
       <c r="E118" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="119" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:11" hidden="1" outlineLevel="2">
       <c r="G119" t="s">
         <v>265</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:11" hidden="1" outlineLevel="2">
       <c r="G120" t="s">
         <v>276</v>
       </c>
@@ -5750,7 +5758,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:11" hidden="1" outlineLevel="2">
       <c r="E121" t="s">
         <v>336</v>
       </c>
@@ -5764,23 +5772,23 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="4:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:11" outlineLevel="1"/>
+    <row r="123" spans="4:11" outlineLevel="1">
       <c r="D123" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:11">
       <c r="D124" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="4:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:11" outlineLevel="1" collapsed="1">
       <c r="E125" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:11" hidden="1" outlineLevel="2">
       <c r="F126" t="s">
         <v>480</v>
       </c>
@@ -5788,28 +5796,28 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:11" hidden="1" outlineLevel="2">
       <c r="F127" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="128" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:11" hidden="1" outlineLevel="2"/>
+    <row r="129" spans="5:9" hidden="1" outlineLevel="2">
       <c r="F129" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G130" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G131" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="132" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G132" t="s">
         <v>420</v>
       </c>
@@ -5817,7 +5825,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="133" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G133" t="s">
         <v>421</v>
       </c>
@@ -5825,7 +5833,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G134" t="s">
         <v>422</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="135" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G135" t="s">
         <v>423</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="136" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G136" t="s">
         <v>424</v>
       </c>
@@ -5849,7 +5857,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="137" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G137" t="s">
         <v>425</v>
       </c>
@@ -5857,7 +5865,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="138" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G138" t="s">
         <v>432</v>
       </c>
@@ -5865,17 +5873,17 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:9" hidden="1" outlineLevel="2">
       <c r="G139" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="5:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:9" outlineLevel="1" collapsed="1">
       <c r="E140" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="141" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:9" hidden="1" outlineLevel="2">
       <c r="F141" t="s">
         <v>435</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="5:9" ht="55.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:9" ht="75" hidden="1" outlineLevel="2">
       <c r="F142" t="s">
         <v>442</v>
       </c>
@@ -5897,7 +5905,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:9" hidden="1" outlineLevel="2">
       <c r="F143" t="s">
         <v>443</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="5:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:9" hidden="1" outlineLevel="2">
       <c r="F144" t="s">
         <v>444</v>
       </c>
@@ -5916,7 +5924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F145" t="s">
         <v>445</v>
       </c>
@@ -5927,7 +5935,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F146" t="s">
         <v>436</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F147" t="s">
         <v>437</v>
       </c>
@@ -5949,7 +5957,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F148" t="s">
         <v>438</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F149" t="s">
         <v>439</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F150" t="s">
         <v>440</v>
       </c>
@@ -5973,7 +5981,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F151" t="s">
         <v>441</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F152" t="s">
         <v>446</v>
       </c>
@@ -5989,7 +5997,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F153" t="s">
         <v>447</v>
       </c>
@@ -5997,7 +6005,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F154" t="s">
         <v>448</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F155" t="s">
         <v>449</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F156" t="s">
         <v>450</v>
       </c>
@@ -6021,7 +6029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F157" t="s">
         <v>451</v>
       </c>
@@ -6029,7 +6037,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F158" t="s">
         <v>317</v>
       </c>
@@ -6037,7 +6045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="159" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F159" t="s">
         <v>452</v>
       </c>
@@ -6045,7 +6053,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="6:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:9" hidden="1" outlineLevel="2">
       <c r="F160" t="s">
         <v>453</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9" hidden="1" outlineLevel="2">
       <c r="F161" t="s">
         <v>454</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9" hidden="1" outlineLevel="2">
       <c r="F162" t="s">
         <v>455</v>
       </c>
@@ -6069,7 +6077,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9" hidden="1" outlineLevel="2">
       <c r="F163" t="s">
         <v>334</v>
       </c>
@@ -6077,7 +6085,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9" hidden="1" outlineLevel="2">
       <c r="F164" t="s">
         <v>461</v>
       </c>
@@ -6088,29 +6096,29 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="4:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9" hidden="1" outlineLevel="2"/>
+    <row r="166" spans="4:9" hidden="1" outlineLevel="2">
       <c r="E166" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:9" outlineLevel="1"/>
+    <row r="168" spans="4:9" outlineLevel="1">
       <c r="D168" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:9">
       <c r="D169" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:9" outlineLevel="1">
       <c r="E170" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="171" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:9" outlineLevel="1">
       <c r="F171" t="s">
         <v>471</v>
       </c>
@@ -6118,28 +6126,28 @@
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:9" outlineLevel="1">
       <c r="F172" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="173" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:9" outlineLevel="1"/>
+    <row r="174" spans="4:9" outlineLevel="1">
       <c r="F174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:9" outlineLevel="1">
       <c r="G175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="4:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:9" outlineLevel="1">
       <c r="G176" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="177" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:8" outlineLevel="1">
       <c r="G177" t="s">
         <v>476</v>
       </c>
@@ -6147,7 +6155,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="178" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:8" outlineLevel="1">
       <c r="G178" t="s">
         <v>477</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:8" outlineLevel="1">
       <c r="G179" t="s">
         <v>422</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="180" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:8" outlineLevel="1">
       <c r="G180" t="s">
         <v>478</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="181" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:8" outlineLevel="1">
       <c r="G181" t="s">
         <v>423</v>
       </c>
@@ -6179,7 +6187,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="182" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:8" outlineLevel="1">
       <c r="G182" t="s">
         <v>424</v>
       </c>
@@ -6187,7 +6195,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:8" outlineLevel="1">
       <c r="G183" t="s">
         <v>479</v>
       </c>
@@ -6195,7 +6203,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="184" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:8" outlineLevel="1">
       <c r="G184" t="s">
         <v>432</v>
       </c>
@@ -6203,60 +6211,60 @@
         <v>576</v>
       </c>
     </row>
-    <row r="185" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:8" outlineLevel="1">
       <c r="G185" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="186" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:8" outlineLevel="1"/>
+    <row r="187" spans="5:8" outlineLevel="1">
       <c r="E187" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:8" outlineLevel="1">
       <c r="F188" s="7" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:8" outlineLevel="1">
       <c r="F189" s="7"/>
       <c r="G189" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="190" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:8" outlineLevel="1">
       <c r="F190" s="7"/>
       <c r="G190" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="191" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:8" outlineLevel="1">
       <c r="F191" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="192" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:8" outlineLevel="1">
       <c r="F192" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:7" outlineLevel="1">
       <c r="F193" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:7" outlineLevel="1">
       <c r="F194" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="195" spans="5:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" outlineLevel="1">
       <c r="E195" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="196" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:7" outlineLevel="2">
       <c r="F196" t="s">
         <v>491</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:7" outlineLevel="2">
       <c r="F197" t="s">
         <v>489</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="198" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:7" outlineLevel="2">
       <c r="F198" t="s">
         <v>493</v>
       </c>
@@ -6280,8 +6288,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:7" outlineLevel="2"/>
+    <row r="200" spans="5:7" outlineLevel="2">
       <c r="F200" t="s">
         <v>495</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="201" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:7" outlineLevel="2">
       <c r="F201" t="s">
         <v>499</v>
       </c>
@@ -6297,7 +6305,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="202" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:7" outlineLevel="2">
       <c r="F202" t="s">
         <v>500</v>
       </c>
@@ -6305,7 +6313,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="203" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:7" outlineLevel="2">
       <c r="F203" t="s">
         <v>501</v>
       </c>
@@ -6313,7 +6321,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="204" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:7" outlineLevel="2">
       <c r="F204" t="s">
         <v>503</v>
       </c>
@@ -6321,7 +6329,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:7" outlineLevel="2">
       <c r="F205" t="s">
         <v>505</v>
       </c>
@@ -6329,7 +6337,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="206" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:7" outlineLevel="2">
       <c r="F206" t="s">
         <v>507</v>
       </c>
@@ -6337,7 +6345,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="207" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:7" outlineLevel="2">
       <c r="F207" t="s">
         <v>509</v>
       </c>
@@ -6345,8 +6353,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="5:7" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:7" outlineLevel="2"/>
+    <row r="209" spans="4:7" outlineLevel="2">
       <c r="F209" t="s">
         <v>511</v>
       </c>
@@ -6354,7 +6362,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="210" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:7" outlineLevel="2">
       <c r="F210" t="s">
         <v>512</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:7" outlineLevel="2">
       <c r="F211" t="s">
         <v>515</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="212" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:7" outlineLevel="2">
       <c r="F212" t="s">
         <v>517</v>
       </c>
@@ -6378,7 +6386,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:7" outlineLevel="2">
       <c r="F213" t="s">
         <v>519</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:7" outlineLevel="2">
       <c r="F214" t="s">
         <v>521</v>
       </c>
@@ -6394,7 +6402,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="4:7" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:7" outlineLevel="2">
       <c r="F215" t="s">
         <v>523</v>
       </c>
@@ -6402,130 +6410,145 @@
         <v>524</v>
       </c>
     </row>
-    <row r="216" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:7" outlineLevel="1">
       <c r="E216" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="217" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="4:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:7" outlineLevel="1"/>
+    <row r="218" spans="4:7" outlineLevel="1"/>
+    <row r="219" spans="4:7" outlineLevel="1">
       <c r="D219" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:7">
       <c r="D221" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:7">
       <c r="F222" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:6">
       <c r="F227" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:6">
       <c r="F232" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7">
       <c r="D242" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7">
       <c r="E243" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7">
       <c r="F244" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7">
       <c r="F245" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7">
       <c r="F246" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7">
       <c r="E247" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7">
       <c r="F248" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7">
       <c r="G250" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7">
       <c r="G251" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7">
       <c r="F253" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7">
       <c r="G255" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="F259" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="G260" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="G261" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="F263" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E266" t="s">
+    <row r="266" spans="1:7">
+      <c r="F266" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="G267" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="G268" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="E269" t="s">
         <v>601</v>
       </c>
     </row>
